--- a/New-Template-(01-15-24).xlsx
+++ b/New-Template-(01-15-24).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Trae\2023\AI Folder\Data-TJD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Freelancing\Silo Lead Prediction\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7927A5-4AA2-49DB-AF61-2094E8D85307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68E4B18-A5A6-455E-AF48-1CD5F9C2DE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14544" yWindow="2652" windowWidth="15300" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="juliabid" sheetId="1" r:id="rId1"/>
@@ -141,13 +141,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="57" x14ac:knownFonts="1">
     <font>
@@ -1341,11 +1341,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1451,10 +1451,6 @@
     <xf numFmtId="3" fontId="47" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="38" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1500,7 +1496,6 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1530,7 +1525,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1549,11 +1544,11 @@
     <xf numFmtId="37" fontId="27" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="27" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1565,23 +1560,23 @@
     <xf numFmtId="37" fontId="27" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="27" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="27" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="27" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="27" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1590,16 +1585,16 @@
     <xf numFmtId="1" fontId="27" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="28" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="29" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="30" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1617,7 +1612,7 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1630,12 +1625,12 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="32" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="32" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1655,7 +1650,7 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="32" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="32" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1664,8 +1659,8 @@
     </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1708,9 +1703,6 @@
     <xf numFmtId="3" fontId="21" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="21" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1741,126 +1733,285 @@
     <xf numFmtId="3" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="38" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="8" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="50" fillId="6" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="26" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="36" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="36" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="8" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="53" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="37" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="36" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="4" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="3" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="3" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
@@ -1874,13 +2025,10 @@
     <xf numFmtId="3" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="21" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1899,7 +2047,6 @@
     <xf numFmtId="9" fontId="51" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1907,230 +2054,26 @@
     <xf numFmtId="3" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="3" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="9" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="40" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="37" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="26" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="36" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="4" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="50" fillId="6" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="38" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="54" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2147,26 +2090,57 @@
     </xf>
     <xf numFmtId="3" fontId="55" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="53" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="1" fontId="26" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="51" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="180" shrinkToFit="1"/>
@@ -2176,6 +2150,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2925,8 +2911,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
@@ -3577,14 +3563,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DC1083"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:F18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH20" sqref="AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="0.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="4" customWidth="1"/>
@@ -3656,61 +3642,61 @@
       <c r="AM1" s="30"/>
       <c r="AN1" s="30"/>
       <c r="AO1" s="30"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52"/>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
-      <c r="BG1" s="52"/>
-      <c r="BH1" s="52"/>
-      <c r="BI1" s="52"/>
-      <c r="BJ1" s="52"/>
-      <c r="BK1" s="52"/>
-      <c r="BL1" s="52"/>
-      <c r="BM1" s="52"/>
-      <c r="BN1" s="52"/>
-      <c r="BO1" s="52"/>
-      <c r="BP1" s="52"/>
-      <c r="BQ1" s="52"/>
-      <c r="BR1" s="52"/>
-      <c r="BS1" s="52"/>
-      <c r="BT1" s="52"/>
-      <c r="BU1" s="52"/>
-      <c r="BV1" s="52"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="50"/>
+      <c r="BH1" s="50"/>
+      <c r="BI1" s="50"/>
+      <c r="BJ1" s="50"/>
+      <c r="BK1" s="50"/>
+      <c r="BL1" s="50"/>
+      <c r="BM1" s="50"/>
+      <c r="BN1" s="50"/>
+      <c r="BO1" s="50"/>
+      <c r="BP1" s="50"/>
+      <c r="BQ1" s="50"/>
+      <c r="BR1" s="50"/>
+      <c r="BS1" s="50"/>
+      <c r="BT1" s="50"/>
+      <c r="BU1" s="50"/>
+      <c r="BV1" s="50"/>
     </row>
     <row r="2" spans="2:107" s="18" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="37"/>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="304"/>
-      <c r="K2" s="304"/>
-      <c r="L2" s="304"/>
-      <c r="M2" s="304"/>
-      <c r="N2" s="304"/>
-      <c r="O2" s="304"/>
-      <c r="P2" s="304"/>
-      <c r="Q2" s="304"/>
-      <c r="R2" s="304"/>
-      <c r="S2" s="304"/>
-      <c r="T2" s="304"/>
-      <c r="U2" s="304"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
       <c r="V2" s="27"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
@@ -3731,71 +3717,71 @@
       <c r="AM2" s="30"/>
       <c r="AN2" s="30"/>
       <c r="AO2" s="30"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="52"/>
-      <c r="BR2" s="52"/>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="52"/>
-      <c r="BU2" s="52"/>
-      <c r="BV2" s="52"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="50"/>
+      <c r="BD2" s="50"/>
+      <c r="BE2" s="50"/>
+      <c r="BF2" s="50"/>
+      <c r="BG2" s="50"/>
+      <c r="BH2" s="50"/>
+      <c r="BI2" s="50"/>
+      <c r="BJ2" s="50"/>
+      <c r="BK2" s="50"/>
+      <c r="BL2" s="50"/>
+      <c r="BM2" s="50"/>
+      <c r="BN2" s="50"/>
+      <c r="BO2" s="50"/>
+      <c r="BP2" s="50"/>
+      <c r="BQ2" s="50"/>
+      <c r="BR2" s="50"/>
+      <c r="BS2" s="50"/>
+      <c r="BT2" s="50"/>
+      <c r="BU2" s="50"/>
+      <c r="BV2" s="50"/>
     </row>
     <row r="3" spans="2:107" s="18" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="37"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="303"/>
-      <c r="I3" s="303"/>
-      <c r="J3" s="304"/>
-      <c r="K3" s="304"/>
-      <c r="L3" s="304"/>
-      <c r="M3" s="304"/>
-      <c r="N3" s="304"/>
-      <c r="O3" s="304"/>
-      <c r="P3" s="304"/>
-      <c r="Q3" s="304"/>
-      <c r="R3" s="304"/>
-      <c r="S3" s="304"/>
-      <c r="T3" s="304"/>
-      <c r="U3" s="304"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
       <c r="V3" s="27"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="277" t="s">
+      <c r="X3" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="154"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="186"/>
+      <c r="AA3" s="186"/>
+      <c r="AB3" s="186"/>
+      <c r="AC3" s="151"/>
       <c r="AD3" s="30"/>
       <c r="AE3" s="30"/>
       <c r="AF3" s="30"/>
@@ -3808,69 +3794,69 @@
       <c r="AM3" s="30"/>
       <c r="AN3" s="30"/>
       <c r="AO3" s="30"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52"/>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="52"/>
-      <c r="BU3" s="52"/>
-      <c r="BV3" s="52"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="50"/>
+      <c r="BC3" s="50"/>
+      <c r="BD3" s="50"/>
+      <c r="BE3" s="50"/>
+      <c r="BF3" s="50"/>
+      <c r="BG3" s="50"/>
+      <c r="BH3" s="50"/>
+      <c r="BI3" s="50"/>
+      <c r="BJ3" s="50"/>
+      <c r="BK3" s="50"/>
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="50"/>
+      <c r="BO3" s="50"/>
+      <c r="BP3" s="50"/>
+      <c r="BQ3" s="50"/>
+      <c r="BR3" s="50"/>
+      <c r="BS3" s="50"/>
+      <c r="BT3" s="50"/>
+      <c r="BU3" s="50"/>
+      <c r="BV3" s="50"/>
     </row>
     <row r="4" spans="2:107" s="18" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="64"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="62"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="189"/>
-      <c r="Y4" s="190"/>
-      <c r="Z4" s="190"/>
-      <c r="AA4" s="190"/>
-      <c r="AB4" s="190"/>
-      <c r="AC4" s="155"/>
+      <c r="X4" s="191"/>
+      <c r="Y4" s="192"/>
+      <c r="Z4" s="192"/>
+      <c r="AA4" s="192"/>
+      <c r="AB4" s="192"/>
+      <c r="AC4" s="152"/>
       <c r="AD4" s="30"/>
       <c r="AE4" s="30"/>
       <c r="AF4" s="30"/>
@@ -3883,78 +3869,78 @@
       <c r="AM4" s="30"/>
       <c r="AN4" s="30"/>
       <c r="AO4" s="30"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="52"/>
-      <c r="BN4" s="52"/>
-      <c r="BO4" s="52"/>
-      <c r="BP4" s="52"/>
-      <c r="BQ4" s="52"/>
-      <c r="BR4" s="52"/>
-      <c r="BS4" s="52"/>
-      <c r="BT4" s="52"/>
-      <c r="BU4" s="52"/>
-      <c r="BV4" s="52"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="50"/>
+      <c r="BD4" s="50"/>
+      <c r="BE4" s="50"/>
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="50"/>
+      <c r="BH4" s="50"/>
+      <c r="BI4" s="50"/>
+      <c r="BJ4" s="50"/>
+      <c r="BK4" s="50"/>
+      <c r="BL4" s="50"/>
+      <c r="BM4" s="50"/>
+      <c r="BN4" s="50"/>
+      <c r="BO4" s="50"/>
+      <c r="BP4" s="50"/>
+      <c r="BQ4" s="50"/>
+      <c r="BR4" s="50"/>
+      <c r="BS4" s="50"/>
+      <c r="BT4" s="50"/>
+      <c r="BU4" s="50"/>
+      <c r="BV4" s="50"/>
     </row>
     <row r="5" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="286" t="s">
+      <c r="B5" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="213" t="str">
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="309" t="str">
         <f>Y5</f>
         <v>Test Company</v>
       </c>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="187"/>
-      <c r="P5" s="187"/>
-      <c r="Q5" s="187"/>
-      <c r="R5" s="187"/>
-      <c r="S5" s="187"/>
-      <c r="T5" s="187"/>
-      <c r="U5" s="187"/>
-      <c r="V5" s="188"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="186"/>
+      <c r="Q5" s="186"/>
+      <c r="R5" s="186"/>
+      <c r="S5" s="186"/>
+      <c r="T5" s="186"/>
+      <c r="U5" s="186"/>
+      <c r="V5" s="187"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="51" t="s">
+      <c r="X5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="177" t="s">
+      <c r="Y5" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="178"/>
-      <c r="AA5" s="178"/>
-      <c r="AB5" s="179"/>
-      <c r="AC5" s="162"/>
+      <c r="Z5" s="317"/>
+      <c r="AA5" s="317"/>
+      <c r="AB5" s="318"/>
+      <c r="AC5" s="159"/>
       <c r="AD5" s="30"/>
       <c r="AE5" s="30"/>
       <c r="AF5" s="30"/>
@@ -3967,75 +3953,75 @@
       <c r="AM5" s="30"/>
       <c r="AN5" s="30"/>
       <c r="AO5" s="30"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="52"/>
-      <c r="BE5" s="52"/>
-      <c r="BF5" s="52"/>
-      <c r="BG5" s="52"/>
-      <c r="BH5" s="52"/>
-      <c r="BI5" s="52"/>
-      <c r="BJ5" s="52"/>
-      <c r="BK5" s="52"/>
-      <c r="BL5" s="52"/>
-      <c r="BM5" s="52"/>
-      <c r="BN5" s="52"/>
-      <c r="BO5" s="52"/>
-      <c r="BP5" s="52"/>
-      <c r="BQ5" s="52"/>
-      <c r="BR5" s="52"/>
-      <c r="BS5" s="52"/>
-      <c r="BT5" s="52"/>
-      <c r="BU5" s="52"/>
-      <c r="BV5" s="52"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
+      <c r="BQ5" s="50"/>
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50"/>
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="50"/>
+      <c r="BV5" s="50"/>
     </row>
     <row r="6" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="200"/>
-      <c r="C6" s="305"/>
-      <c r="D6" s="305"/>
-      <c r="E6" s="305"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="305"/>
-      <c r="N6" s="305"/>
-      <c r="O6" s="305"/>
-      <c r="P6" s="305"/>
-      <c r="Q6" s="305"/>
-      <c r="R6" s="305"/>
-      <c r="S6" s="305"/>
-      <c r="T6" s="305"/>
-      <c r="U6" s="305"/>
-      <c r="V6" s="199"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="189"/>
+      <c r="Q6" s="189"/>
+      <c r="R6" s="189"/>
+      <c r="S6" s="189"/>
+      <c r="T6" s="189"/>
+      <c r="U6" s="189"/>
+      <c r="V6" s="190"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="50" t="s">
+      <c r="X6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="Y6" s="221">
+      <c r="Y6" s="233">
         <v>0</v>
       </c>
-      <c r="Z6" s="182"/>
-      <c r="AA6" s="278" t="s">
+      <c r="Z6" s="204"/>
+      <c r="AA6" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="AB6" s="185"/>
-      <c r="AC6" s="163"/>
+      <c r="AB6" s="184"/>
+      <c r="AC6" s="160"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
       <c r="AF6" s="30"/>
@@ -4048,73 +4034,73 @@
       <c r="AM6" s="30"/>
       <c r="AN6" s="30"/>
       <c r="AO6" s="30"/>
-      <c r="AP6" s="52"/>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="52"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="52"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="52"/>
-      <c r="BI6" s="52"/>
-      <c r="BJ6" s="52"/>
-      <c r="BK6" s="52"/>
-      <c r="BL6" s="52"/>
-      <c r="BM6" s="52"/>
-      <c r="BN6" s="52"/>
-      <c r="BO6" s="52"/>
-      <c r="BP6" s="52"/>
-      <c r="BQ6" s="52"/>
-      <c r="BR6" s="52"/>
-      <c r="BS6" s="52"/>
-      <c r="BT6" s="52"/>
-      <c r="BU6" s="52"/>
-      <c r="BV6" s="52"/>
+      <c r="AP6" s="50"/>
+      <c r="AQ6" s="50"/>
+      <c r="AR6" s="50"/>
+      <c r="AS6" s="50"/>
+      <c r="AT6" s="50"/>
+      <c r="AU6" s="50"/>
+      <c r="AV6" s="50"/>
+      <c r="AW6" s="50"/>
+      <c r="AX6" s="50"/>
+      <c r="AY6" s="50"/>
+      <c r="AZ6" s="50"/>
+      <c r="BA6" s="50"/>
+      <c r="BB6" s="50"/>
+      <c r="BC6" s="50"/>
+      <c r="BD6" s="50"/>
+      <c r="BE6" s="50"/>
+      <c r="BF6" s="50"/>
+      <c r="BG6" s="50"/>
+      <c r="BH6" s="50"/>
+      <c r="BI6" s="50"/>
+      <c r="BJ6" s="50"/>
+      <c r="BK6" s="50"/>
+      <c r="BL6" s="50"/>
+      <c r="BM6" s="50"/>
+      <c r="BN6" s="50"/>
+      <c r="BO6" s="50"/>
+      <c r="BP6" s="50"/>
+      <c r="BQ6" s="50"/>
+      <c r="BR6" s="50"/>
+      <c r="BS6" s="50"/>
+      <c r="BT6" s="50"/>
+      <c r="BU6" s="50"/>
+      <c r="BV6" s="50"/>
     </row>
     <row r="7" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="189"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="305"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="305"/>
-      <c r="K7" s="305"/>
-      <c r="L7" s="305"/>
-      <c r="M7" s="305"/>
-      <c r="N7" s="305"/>
-      <c r="O7" s="305"/>
-      <c r="P7" s="305"/>
-      <c r="Q7" s="305"/>
-      <c r="R7" s="305"/>
-      <c r="S7" s="305"/>
-      <c r="T7" s="305"/>
-      <c r="U7" s="305"/>
-      <c r="V7" s="199"/>
+      <c r="B7" s="191"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="189"/>
+      <c r="R7" s="189"/>
+      <c r="S7" s="189"/>
+      <c r="T7" s="189"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="190"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="50" t="s">
+      <c r="X7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Y7" s="221">
+      <c r="Y7" s="233">
         <v>0</v>
       </c>
-      <c r="Z7" s="182"/>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="204"/>
-      <c r="AC7" s="156"/>
+      <c r="Z7" s="204"/>
+      <c r="AA7" s="296"/>
+      <c r="AB7" s="297"/>
+      <c r="AC7" s="153"/>
       <c r="AD7" s="30"/>
       <c r="AE7" s="30"/>
       <c r="AF7" s="30"/>
@@ -4127,80 +4113,80 @@
       <c r="AM7" s="30"/>
       <c r="AN7" s="30"/>
       <c r="AO7" s="30"/>
-      <c r="AP7" s="52"/>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="52"/>
-      <c r="AS7" s="52"/>
-      <c r="AT7" s="52"/>
-      <c r="AU7" s="52"/>
-      <c r="AV7" s="52"/>
-      <c r="AW7" s="52"/>
-      <c r="AX7" s="52"/>
-      <c r="AY7" s="52"/>
-      <c r="AZ7" s="52"/>
-      <c r="BA7" s="52"/>
-      <c r="BB7" s="52"/>
-      <c r="BC7" s="52"/>
-      <c r="BD7" s="52"/>
-      <c r="BE7" s="52"/>
-      <c r="BF7" s="52"/>
-      <c r="BG7" s="52"/>
-      <c r="BH7" s="52"/>
-      <c r="BI7" s="52"/>
-      <c r="BJ7" s="52"/>
-      <c r="BK7" s="52"/>
-      <c r="BL7" s="52"/>
-      <c r="BM7" s="52"/>
-      <c r="BN7" s="52"/>
-      <c r="BO7" s="52"/>
-      <c r="BP7" s="52"/>
-      <c r="BQ7" s="52"/>
-      <c r="BR7" s="52"/>
-      <c r="BS7" s="52"/>
-      <c r="BT7" s="52"/>
-      <c r="BU7" s="52"/>
-      <c r="BV7" s="52"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="50"/>
+      <c r="AT7" s="50"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="50"/>
+      <c r="AX7" s="50"/>
+      <c r="AY7" s="50"/>
+      <c r="AZ7" s="50"/>
+      <c r="BA7" s="50"/>
+      <c r="BB7" s="50"/>
+      <c r="BC7" s="50"/>
+      <c r="BD7" s="50"/>
+      <c r="BE7" s="50"/>
+      <c r="BF7" s="50"/>
+      <c r="BG7" s="50"/>
+      <c r="BH7" s="50"/>
+      <c r="BI7" s="50"/>
+      <c r="BJ7" s="50"/>
+      <c r="BK7" s="50"/>
+      <c r="BL7" s="50"/>
+      <c r="BM7" s="50"/>
+      <c r="BN7" s="50"/>
+      <c r="BO7" s="50"/>
+      <c r="BP7" s="50"/>
+      <c r="BQ7" s="50"/>
+      <c r="BR7" s="50"/>
+      <c r="BS7" s="50"/>
+      <c r="BT7" s="50"/>
+      <c r="BU7" s="50"/>
+      <c r="BV7" s="50"/>
     </row>
     <row r="8" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="333" t="str">
+      <c r="B8" s="195" t="str">
         <f>"  When we build your campaign, our team of humans collaborates internally to select the best media mix for reaching "&amp;AA7&amp;"s within your geofence. This is not a one size fits all approach either. From news feeds to television, we have a massive deck of tools from which to choose. Once you tell us the campaign level and approve the messaging\landing page, we go to work."</f>
         <v xml:space="preserve">  When we build your campaign, our team of humans collaborates internally to select the best media mix for reaching s within your geofence. This is not a one size fits all approach either. From news feeds to television, we have a massive deck of tools from which to choose. Once you tell us the campaign level and approve the messaging\landing page, we go to work.</v>
       </c>
-      <c r="C8" s="334"/>
-      <c r="D8" s="334"/>
-      <c r="E8" s="334"/>
-      <c r="F8" s="334"/>
-      <c r="G8" s="49" t="s">
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="170"/>
-      <c r="V8" s="339" t="s">
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="166"/>
+      <c r="V8" s="323" t="s">
         <v>7</v>
       </c>
       <c r="W8" s="5"/>
-      <c r="X8" s="55" t="s">
+      <c r="X8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="247">
+      <c r="Y8" s="265">
         <v>0</v>
       </c>
-      <c r="Z8" s="248"/>
-      <c r="AA8" s="205"/>
-      <c r="AB8" s="206"/>
-      <c r="AC8" s="156"/>
+      <c r="Z8" s="266"/>
+      <c r="AA8" s="298"/>
+      <c r="AB8" s="210"/>
+      <c r="AC8" s="153"/>
       <c r="AD8" s="30"/>
       <c r="AE8" s="30"/>
       <c r="AF8" s="30"/>
@@ -4213,73 +4199,73 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="30"/>
-      <c r="AP8" s="52"/>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
-      <c r="AT8" s="52"/>
-      <c r="AU8" s="52"/>
-      <c r="AV8" s="52"/>
-      <c r="AW8" s="52"/>
-      <c r="AX8" s="52"/>
-      <c r="AY8" s="52"/>
-      <c r="AZ8" s="52"/>
-      <c r="BA8" s="52"/>
-      <c r="BB8" s="52"/>
-      <c r="BC8" s="52"/>
-      <c r="BD8" s="52"/>
-      <c r="BE8" s="52"/>
-      <c r="BF8" s="52"/>
-      <c r="BG8" s="52"/>
-      <c r="BH8" s="52"/>
-      <c r="BI8" s="52"/>
-      <c r="BJ8" s="52"/>
-      <c r="BK8" s="52"/>
-      <c r="BL8" s="52"/>
-      <c r="BM8" s="52"/>
-      <c r="BN8" s="52"/>
-      <c r="BO8" s="52"/>
-      <c r="BP8" s="52"/>
-      <c r="BQ8" s="52"/>
-      <c r="BR8" s="52"/>
-      <c r="BS8" s="52"/>
-      <c r="BT8" s="52"/>
-      <c r="BU8" s="52"/>
-      <c r="BV8" s="52"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="50"/>
+      <c r="AV8" s="50"/>
+      <c r="AW8" s="50"/>
+      <c r="AX8" s="50"/>
+      <c r="AY8" s="50"/>
+      <c r="AZ8" s="50"/>
+      <c r="BA8" s="50"/>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="50"/>
+      <c r="BD8" s="50"/>
+      <c r="BE8" s="50"/>
+      <c r="BF8" s="50"/>
+      <c r="BG8" s="50"/>
+      <c r="BH8" s="50"/>
+      <c r="BI8" s="50"/>
+      <c r="BJ8" s="50"/>
+      <c r="BK8" s="50"/>
+      <c r="BL8" s="50"/>
+      <c r="BM8" s="50"/>
+      <c r="BN8" s="50"/>
+      <c r="BO8" s="50"/>
+      <c r="BP8" s="50"/>
+      <c r="BQ8" s="50"/>
+      <c r="BR8" s="50"/>
+      <c r="BS8" s="50"/>
+      <c r="BT8" s="50"/>
+      <c r="BU8" s="50"/>
+      <c r="BV8" s="50"/>
     </row>
     <row r="9" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="335"/>
-      <c r="C9" s="336"/>
-      <c r="D9" s="336"/>
-      <c r="E9" s="336"/>
-      <c r="F9" s="337"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="307"/>
-      <c r="I9" s="307"/>
-      <c r="J9" s="307"/>
-      <c r="K9" s="307"/>
-      <c r="L9" s="307"/>
-      <c r="M9" s="307"/>
-      <c r="N9" s="307"/>
-      <c r="O9" s="307"/>
-      <c r="P9" s="307"/>
-      <c r="Q9" s="307"/>
-      <c r="R9" s="307"/>
-      <c r="S9" s="307"/>
-      <c r="T9" s="307"/>
-      <c r="U9" s="171"/>
-      <c r="V9" s="340"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="175"/>
+      <c r="U9" s="167"/>
+      <c r="V9" s="324"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="269" t="s">
+      <c r="X9" s="326" t="s">
         <v>9</v>
       </c>
-      <c r="Y9" s="187"/>
-      <c r="Z9" s="270"/>
-      <c r="AA9" s="253">
+      <c r="Y9" s="186"/>
+      <c r="Z9" s="232"/>
+      <c r="AA9" s="273">
         <v>1</v>
       </c>
-      <c r="AB9" s="254"/>
-      <c r="AC9" s="156"/>
+      <c r="AB9" s="274"/>
+      <c r="AC9" s="153"/>
       <c r="AD9" s="30"/>
       <c r="AE9" s="30"/>
       <c r="AF9" s="30"/>
@@ -4292,75 +4278,75 @@
       <c r="AM9" s="30"/>
       <c r="AN9" s="30"/>
       <c r="AO9" s="30"/>
-      <c r="AP9" s="52"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="52"/>
-      <c r="AS9" s="52"/>
-      <c r="AT9" s="52"/>
-      <c r="AU9" s="52"/>
-      <c r="AV9" s="52"/>
-      <c r="AW9" s="52"/>
-      <c r="AX9" s="52"/>
-      <c r="AY9" s="52"/>
-      <c r="AZ9" s="52"/>
-      <c r="BA9" s="52"/>
-      <c r="BB9" s="52"/>
-      <c r="BC9" s="52"/>
-      <c r="BD9" s="52"/>
-      <c r="BE9" s="52"/>
-      <c r="BF9" s="52"/>
-      <c r="BG9" s="52"/>
-      <c r="BH9" s="52"/>
-      <c r="BI9" s="52"/>
-      <c r="BJ9" s="52"/>
-      <c r="BK9" s="52"/>
-      <c r="BL9" s="52"/>
-      <c r="BM9" s="52"/>
-      <c r="BN9" s="52"/>
-      <c r="BO9" s="52"/>
-      <c r="BP9" s="52"/>
-      <c r="BQ9" s="52"/>
-      <c r="BR9" s="52"/>
-      <c r="BS9" s="52"/>
-      <c r="BT9" s="52"/>
-      <c r="BU9" s="52"/>
-      <c r="BV9" s="52"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="50"/>
+      <c r="AX9" s="50"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="50"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="50"/>
+      <c r="BD9" s="50"/>
+      <c r="BE9" s="50"/>
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="50"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="50"/>
+      <c r="BJ9" s="50"/>
+      <c r="BK9" s="50"/>
+      <c r="BL9" s="50"/>
+      <c r="BM9" s="50"/>
+      <c r="BN9" s="50"/>
+      <c r="BO9" s="50"/>
+      <c r="BP9" s="50"/>
+      <c r="BQ9" s="50"/>
+      <c r="BR9" s="50"/>
+      <c r="BS9" s="50"/>
+      <c r="BT9" s="50"/>
+      <c r="BU9" s="50"/>
+      <c r="BV9" s="50"/>
     </row>
     <row r="10" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="335"/>
-      <c r="C10" s="336"/>
-      <c r="D10" s="336"/>
-      <c r="E10" s="336"/>
-      <c r="F10" s="337"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="307"/>
-      <c r="I10" s="307"/>
-      <c r="J10" s="307"/>
-      <c r="K10" s="307"/>
-      <c r="L10" s="307"/>
-      <c r="M10" s="307"/>
-      <c r="N10" s="307"/>
-      <c r="O10" s="307"/>
-      <c r="P10" s="307"/>
-      <c r="Q10" s="307"/>
-      <c r="R10" s="307"/>
-      <c r="S10" s="307"/>
-      <c r="T10" s="307"/>
-      <c r="U10" s="171"/>
-      <c r="V10" s="340"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
+      <c r="U10" s="167"/>
+      <c r="V10" s="324"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="153" t="s">
+      <c r="X10" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="Y10" s="284" t="s">
+      <c r="Y10" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="270"/>
-      <c r="AA10" s="251" t="s">
+      <c r="Z10" s="232"/>
+      <c r="AA10" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="AB10" s="188"/>
-      <c r="AC10" s="157"/>
+      <c r="AB10" s="187"/>
+      <c r="AC10" s="154"/>
       <c r="AD10" s="30"/>
       <c r="AE10" s="30"/>
       <c r="AF10" s="30"/>
@@ -4373,120 +4359,120 @@
       <c r="AM10" s="30"/>
       <c r="AN10" s="30"/>
       <c r="AO10" s="30"/>
-      <c r="AP10" s="52"/>
-      <c r="AQ10" s="52"/>
-      <c r="AR10" s="52"/>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="52"/>
-      <c r="AU10" s="52"/>
-      <c r="AV10" s="52"/>
-      <c r="AW10" s="52"/>
-      <c r="AX10" s="52"/>
-      <c r="AY10" s="52"/>
-      <c r="AZ10" s="52"/>
-      <c r="BA10" s="52"/>
-      <c r="BB10" s="52"/>
-      <c r="BC10" s="52"/>
-      <c r="BD10" s="52"/>
-      <c r="BE10" s="52"/>
-      <c r="BF10" s="52"/>
-      <c r="BG10" s="52"/>
-      <c r="BH10" s="52"/>
-      <c r="BI10" s="52"/>
-      <c r="BJ10" s="52"/>
-      <c r="BK10" s="52"/>
-      <c r="BL10" s="52"/>
-      <c r="BM10" s="52"/>
-      <c r="BN10" s="52"/>
-      <c r="BO10" s="52"/>
-      <c r="BP10" s="52"/>
-      <c r="BQ10" s="52"/>
-      <c r="BR10" s="52"/>
-      <c r="BS10" s="52"/>
-      <c r="BT10" s="52"/>
-      <c r="BU10" s="52"/>
-      <c r="BV10" s="52"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="50"/>
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="50"/>
+      <c r="AX10" s="50"/>
+      <c r="AY10" s="50"/>
+      <c r="AZ10" s="50"/>
+      <c r="BA10" s="50"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="50"/>
+      <c r="BD10" s="50"/>
+      <c r="BE10" s="50"/>
+      <c r="BF10" s="50"/>
+      <c r="BG10" s="50"/>
+      <c r="BH10" s="50"/>
+      <c r="BI10" s="50"/>
+      <c r="BJ10" s="50"/>
+      <c r="BK10" s="50"/>
+      <c r="BL10" s="50"/>
+      <c r="BM10" s="50"/>
+      <c r="BN10" s="50"/>
+      <c r="BO10" s="50"/>
+      <c r="BP10" s="50"/>
+      <c r="BQ10" s="50"/>
+      <c r="BR10" s="50"/>
+      <c r="BS10" s="50"/>
+      <c r="BT10" s="50"/>
+      <c r="BU10" s="50"/>
+      <c r="BV10" s="50"/>
     </row>
     <row r="11" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="335"/>
-      <c r="C11" s="338"/>
-      <c r="D11" s="338"/>
-      <c r="E11" s="338"/>
-      <c r="F11" s="337"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="307"/>
-      <c r="I11" s="307"/>
-      <c r="J11" s="307"/>
-      <c r="K11" s="307"/>
-      <c r="L11" s="307"/>
-      <c r="M11" s="307"/>
-      <c r="N11" s="307"/>
-      <c r="O11" s="307"/>
-      <c r="P11" s="307"/>
-      <c r="Q11" s="307"/>
-      <c r="R11" s="307"/>
-      <c r="S11" s="307"/>
-      <c r="T11" s="307"/>
-      <c r="U11" s="171"/>
-      <c r="V11" s="340"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="175"/>
+      <c r="Q11" s="175"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="175"/>
+      <c r="U11" s="167"/>
+      <c r="V11" s="324"/>
       <c r="W11" s="9"/>
-      <c r="X11" s="165" t="s">
+      <c r="X11" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="Y11" s="181">
+      <c r="Y11" s="203">
         <v>0</v>
       </c>
-      <c r="Z11" s="182"/>
-      <c r="AA11" s="184">
+      <c r="Z11" s="204"/>
+      <c r="AA11" s="183">
         <v>0</v>
       </c>
-      <c r="AB11" s="185"/>
-      <c r="AC11" s="156"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="68"/>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="68"/>
-      <c r="AK11" s="68"/>
-      <c r="AL11" s="68"/>
-      <c r="AM11" s="68"/>
-      <c r="AN11" s="68"/>
-      <c r="AO11" s="68"/>
-      <c r="AP11" s="52"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="52"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="52"/>
-      <c r="BL11" s="52"/>
-      <c r="BM11" s="52"/>
-      <c r="BN11" s="52"/>
-      <c r="BO11" s="52"/>
-      <c r="BP11" s="52"/>
-      <c r="BQ11" s="52"/>
-      <c r="BR11" s="52"/>
-      <c r="BS11" s="52"/>
-      <c r="BT11" s="52"/>
-      <c r="BU11" s="52"/>
-      <c r="BV11" s="52"/>
+      <c r="AB11" s="184"/>
+      <c r="AC11" s="153"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="65"/>
+      <c r="AH11" s="65"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="65"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="50"/>
+      <c r="AX11" s="50"/>
+      <c r="AY11" s="50"/>
+      <c r="AZ11" s="50"/>
+      <c r="BA11" s="50"/>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="50"/>
+      <c r="BD11" s="50"/>
+      <c r="BE11" s="50"/>
+      <c r="BF11" s="50"/>
+      <c r="BG11" s="50"/>
+      <c r="BH11" s="50"/>
+      <c r="BI11" s="50"/>
+      <c r="BJ11" s="50"/>
+      <c r="BK11" s="50"/>
+      <c r="BL11" s="50"/>
+      <c r="BM11" s="50"/>
+      <c r="BN11" s="50"/>
+      <c r="BO11" s="50"/>
+      <c r="BP11" s="50"/>
+      <c r="BQ11" s="50"/>
+      <c r="BR11" s="50"/>
+      <c r="BS11" s="50"/>
+      <c r="BT11" s="50"/>
+      <c r="BU11" s="50"/>
+      <c r="BV11" s="50"/>
       <c r="CG11" s="18"/>
       <c r="CH11" s="18"/>
       <c r="CI11" s="18"/>
@@ -4512,85 +4498,85 @@
       <c r="DC11" s="18"/>
     </row>
     <row r="12" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="335"/>
-      <c r="C12" s="338"/>
-      <c r="D12" s="338"/>
-      <c r="E12" s="338"/>
-      <c r="F12" s="337"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="307"/>
-      <c r="I12" s="307"/>
-      <c r="J12" s="307"/>
-      <c r="K12" s="307"/>
-      <c r="L12" s="307"/>
-      <c r="M12" s="307"/>
-      <c r="N12" s="307"/>
-      <c r="O12" s="307"/>
-      <c r="P12" s="307"/>
-      <c r="Q12" s="307"/>
-      <c r="R12" s="307"/>
-      <c r="S12" s="307"/>
-      <c r="T12" s="307"/>
-      <c r="U12" s="171"/>
-      <c r="V12" s="340"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="200"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="200"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="175"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="175"/>
+      <c r="Q12" s="175"/>
+      <c r="R12" s="175"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="175"/>
+      <c r="U12" s="167"/>
+      <c r="V12" s="324"/>
       <c r="W12" s="9"/>
-      <c r="X12" s="166" t="s">
+      <c r="X12" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="181">
+      <c r="Y12" s="203">
         <v>0</v>
       </c>
-      <c r="Z12" s="182"/>
-      <c r="AA12" s="184">
+      <c r="Z12" s="204"/>
+      <c r="AA12" s="183">
         <v>0</v>
       </c>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="156"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="68"/>
-      <c r="AK12" s="68"/>
-      <c r="AL12" s="68"/>
-      <c r="AM12" s="68"/>
-      <c r="AN12" s="68"/>
-      <c r="AO12" s="68"/>
-      <c r="AP12" s="52"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="52"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="69"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="52"/>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="52"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BR12" s="52"/>
-      <c r="BS12" s="52"/>
-      <c r="BT12" s="52"/>
-      <c r="BU12" s="52"/>
-      <c r="BV12" s="52"/>
+      <c r="AB12" s="184"/>
+      <c r="AC12" s="153"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="50"/>
+      <c r="BD12" s="50"/>
+      <c r="BE12" s="66"/>
+      <c r="BF12" s="50"/>
+      <c r="BG12" s="50"/>
+      <c r="BH12" s="50"/>
+      <c r="BI12" s="50"/>
+      <c r="BJ12" s="50"/>
+      <c r="BK12" s="50"/>
+      <c r="BL12" s="50"/>
+      <c r="BM12" s="50"/>
+      <c r="BN12" s="50"/>
+      <c r="BO12" s="50"/>
+      <c r="BP12" s="50"/>
+      <c r="BQ12" s="50"/>
+      <c r="BR12" s="50"/>
+      <c r="BS12" s="50"/>
+      <c r="BT12" s="50"/>
+      <c r="BU12" s="50"/>
+      <c r="BV12" s="50"/>
       <c r="CG12" s="18"/>
       <c r="CH12" s="18"/>
       <c r="CI12" s="18"/>
@@ -4616,85 +4602,85 @@
       <c r="DC12" s="18"/>
     </row>
     <row r="13" spans="2:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="335"/>
-      <c r="C13" s="338"/>
-      <c r="D13" s="338"/>
-      <c r="E13" s="338"/>
-      <c r="F13" s="337"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="307"/>
-      <c r="M13" s="307"/>
-      <c r="N13" s="307"/>
-      <c r="O13" s="307"/>
-      <c r="P13" s="307"/>
-      <c r="Q13" s="307"/>
-      <c r="R13" s="307"/>
-      <c r="S13" s="307"/>
-      <c r="T13" s="307"/>
-      <c r="U13" s="171"/>
-      <c r="V13" s="340"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="200"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="175"/>
+      <c r="Q13" s="175"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="167"/>
+      <c r="V13" s="324"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="166" t="s">
+      <c r="X13" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="Y13" s="181">
+      <c r="Y13" s="203">
         <v>0</v>
       </c>
-      <c r="Z13" s="182"/>
-      <c r="AA13" s="184">
+      <c r="Z13" s="204"/>
+      <c r="AA13" s="183">
         <v>0</v>
       </c>
-      <c r="AB13" s="185"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="70"/>
-      <c r="AH13" s="70"/>
-      <c r="AI13" s="70"/>
-      <c r="AJ13" s="70"/>
-      <c r="AK13" s="70"/>
-      <c r="AL13" s="70"/>
-      <c r="AM13" s="70"/>
-      <c r="AN13" s="70"/>
-      <c r="AO13" s="70"/>
-      <c r="AP13" s="209"/>
-      <c r="AQ13" s="187"/>
-      <c r="AR13" s="188"/>
-      <c r="AS13" s="52"/>
-      <c r="AT13" s="52"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="52"/>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="71"/>
-      <c r="AY13" s="72"/>
-      <c r="AZ13" s="264"/>
-      <c r="BA13" s="187"/>
-      <c r="BB13" s="187"/>
-      <c r="BC13" s="187"/>
-      <c r="BD13" s="188"/>
-      <c r="BE13" s="73"/>
-      <c r="BF13" s="74"/>
-      <c r="BG13" s="218"/>
-      <c r="BH13" s="176"/>
-      <c r="BI13" s="176"/>
-      <c r="BJ13" s="176"/>
-      <c r="BK13" s="176"/>
-      <c r="BL13" s="176"/>
-      <c r="BM13" s="176"/>
-      <c r="BN13" s="176"/>
-      <c r="BO13" s="176"/>
-      <c r="BP13" s="176"/>
-      <c r="BQ13" s="176"/>
-      <c r="BR13" s="176"/>
-      <c r="BS13" s="176"/>
-      <c r="BT13" s="176"/>
-      <c r="BU13" s="176"/>
-      <c r="BV13" s="176"/>
+      <c r="AB13" s="184"/>
+      <c r="AC13" s="153"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="67"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="67"/>
+      <c r="AK13" s="67"/>
+      <c r="AL13" s="67"/>
+      <c r="AM13" s="67"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="67"/>
+      <c r="AP13" s="308"/>
+      <c r="AQ13" s="186"/>
+      <c r="AR13" s="187"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="50"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="238"/>
+      <c r="BA13" s="186"/>
+      <c r="BB13" s="186"/>
+      <c r="BC13" s="186"/>
+      <c r="BD13" s="187"/>
+      <c r="BE13" s="70"/>
+      <c r="BF13" s="71"/>
+      <c r="BG13" s="313"/>
+      <c r="BH13" s="189"/>
+      <c r="BI13" s="189"/>
+      <c r="BJ13" s="189"/>
+      <c r="BK13" s="189"/>
+      <c r="BL13" s="189"/>
+      <c r="BM13" s="189"/>
+      <c r="BN13" s="189"/>
+      <c r="BO13" s="189"/>
+      <c r="BP13" s="189"/>
+      <c r="BQ13" s="189"/>
+      <c r="BR13" s="189"/>
+      <c r="BS13" s="189"/>
+      <c r="BT13" s="189"/>
+      <c r="BU13" s="189"/>
+      <c r="BV13" s="189"/>
       <c r="CG13" s="18"/>
       <c r="CH13" s="18"/>
       <c r="CI13" s="18"/>
@@ -4720,72 +4706,72 @@
       <c r="DC13" s="18"/>
     </row>
     <row r="14" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="288" t="str">
+      <c r="B14" s="201" t="str">
         <f>"  Our team continuously manages the media and algorithms to drive high-quality leads to your recruiters via our innovative funneling system. After all, you come to us because you need "&amp;AA7&amp;"s, not ads or impressions. TheJobsDriver is not about ads or impressions. We are about one thing, generating potential hires, interested in working for you!"</f>
         <v xml:space="preserve">  Our team continuously manages the media and algorithms to drive high-quality leads to your recruiters via our innovative funneling system. After all, you come to us because you need s, not ads or impressions. TheJobsDriver is not about ads or impressions. We are about one thing, generating potential hires, interested in working for you!</v>
       </c>
-      <c r="C14" s="308"/>
-      <c r="D14" s="308"/>
-      <c r="E14" s="308"/>
-      <c r="F14" s="306"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="307"/>
-      <c r="I14" s="307"/>
-      <c r="J14" s="307"/>
-      <c r="K14" s="307"/>
-      <c r="L14" s="307"/>
-      <c r="M14" s="307"/>
-      <c r="N14" s="307"/>
-      <c r="O14" s="307"/>
-      <c r="P14" s="307"/>
-      <c r="Q14" s="307"/>
-      <c r="R14" s="307"/>
-      <c r="S14" s="307"/>
-      <c r="T14" s="307"/>
-      <c r="U14" s="171"/>
-      <c r="V14" s="340"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="175"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="175"/>
+      <c r="Q14" s="175"/>
+      <c r="R14" s="175"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="175"/>
+      <c r="U14" s="167"/>
+      <c r="V14" s="324"/>
       <c r="W14" s="10"/>
-      <c r="X14" s="166" t="s">
+      <c r="X14" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="Y14" s="181">
+      <c r="Y14" s="203">
         <v>0</v>
       </c>
-      <c r="Z14" s="182"/>
-      <c r="AA14" s="184">
+      <c r="Z14" s="204"/>
+      <c r="AA14" s="183">
         <v>0</v>
       </c>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="156"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="75"/>
-      <c r="AP14" s="210"/>
-      <c r="AQ14" s="211"/>
-      <c r="AR14" s="212"/>
-      <c r="AS14" s="52"/>
-      <c r="AT14" s="52"/>
-      <c r="AU14" s="52"/>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="200"/>
-      <c r="BA14" s="193"/>
-      <c r="BB14" s="193"/>
-      <c r="BC14" s="193"/>
-      <c r="BD14" s="199"/>
-      <c r="BE14" s="76"/>
-      <c r="BF14" s="52"/>
+      <c r="AB14" s="184"/>
+      <c r="AC14" s="153"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="72"/>
+      <c r="AM14" s="72"/>
+      <c r="AN14" s="72"/>
+      <c r="AO14" s="72"/>
+      <c r="AP14" s="239"/>
+      <c r="AQ14" s="240"/>
+      <c r="AR14" s="241"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="50"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="188"/>
+      <c r="BA14" s="229"/>
+      <c r="BB14" s="229"/>
+      <c r="BC14" s="229"/>
+      <c r="BD14" s="190"/>
+      <c r="BE14" s="73"/>
+      <c r="BF14" s="50"/>
       <c r="BG14" s="28"/>
       <c r="BH14" s="28"/>
       <c r="BI14" s="29"/>
@@ -4827,81 +4813,81 @@
       <c r="DC14" s="18"/>
     </row>
     <row r="15" spans="2:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="200"/>
-      <c r="C15" s="308"/>
-      <c r="D15" s="308"/>
-      <c r="E15" s="308"/>
-      <c r="F15" s="306"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="307"/>
-      <c r="I15" s="307"/>
-      <c r="J15" s="307"/>
-      <c r="K15" s="307"/>
-      <c r="L15" s="307"/>
-      <c r="M15" s="307"/>
-      <c r="N15" s="307"/>
-      <c r="O15" s="307"/>
-      <c r="P15" s="307"/>
-      <c r="Q15" s="307"/>
-      <c r="R15" s="307"/>
-      <c r="S15" s="307"/>
-      <c r="T15" s="307"/>
-      <c r="U15" s="171"/>
-      <c r="V15" s="340"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="175"/>
+      <c r="R15" s="175"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="175"/>
+      <c r="U15" s="167"/>
+      <c r="V15" s="324"/>
       <c r="W15" s="11"/>
-      <c r="X15" s="166"/>
-      <c r="Y15" s="181">
+      <c r="X15" s="162"/>
+      <c r="Y15" s="203">
         <v>0</v>
       </c>
-      <c r="Z15" s="182"/>
-      <c r="AA15" s="184">
+      <c r="Z15" s="204"/>
+      <c r="AA15" s="183">
         <v>0</v>
       </c>
-      <c r="AB15" s="185"/>
-      <c r="AC15" s="156"/>
-      <c r="AD15" s="77"/>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="77"/>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="77"/>
-      <c r="AK15" s="77"/>
-      <c r="AL15" s="77"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="77"/>
-      <c r="AO15" s="77"/>
-      <c r="AP15" s="78"/>
-      <c r="AQ15" s="237"/>
-      <c r="AR15" s="202"/>
-      <c r="AS15" s="79"/>
-      <c r="AT15" s="79"/>
-      <c r="AU15" s="79"/>
-      <c r="AV15" s="79"/>
-      <c r="AW15" s="79"/>
-      <c r="AX15" s="79"/>
-      <c r="AY15" s="52"/>
-      <c r="AZ15" s="210"/>
-      <c r="BA15" s="211"/>
-      <c r="BB15" s="211"/>
-      <c r="BC15" s="211"/>
-      <c r="BD15" s="212"/>
-      <c r="BE15" s="76"/>
-      <c r="BF15" s="52"/>
+      <c r="AB15" s="184"/>
+      <c r="AC15" s="153"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="75"/>
+      <c r="AQ15" s="291"/>
+      <c r="AR15" s="223"/>
+      <c r="AS15" s="76"/>
+      <c r="AT15" s="76"/>
+      <c r="AU15" s="76"/>
+      <c r="AV15" s="76"/>
+      <c r="AW15" s="76"/>
+      <c r="AX15" s="76"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="239"/>
+      <c r="BA15" s="240"/>
+      <c r="BB15" s="240"/>
+      <c r="BC15" s="240"/>
+      <c r="BD15" s="241"/>
+      <c r="BE15" s="73"/>
+      <c r="BF15" s="50"/>
       <c r="BG15" s="28"/>
-      <c r="BH15" s="238"/>
-      <c r="BI15" s="176"/>
-      <c r="BJ15" s="176"/>
-      <c r="BK15" s="176"/>
-      <c r="BL15" s="176"/>
-      <c r="BM15" s="176"/>
-      <c r="BN15" s="176"/>
-      <c r="BO15" s="176"/>
-      <c r="BP15" s="176"/>
-      <c r="BQ15" s="176"/>
-      <c r="BR15" s="176"/>
-      <c r="BS15" s="176"/>
-      <c r="BT15" s="176"/>
+      <c r="BH15" s="292"/>
+      <c r="BI15" s="189"/>
+      <c r="BJ15" s="189"/>
+      <c r="BK15" s="189"/>
+      <c r="BL15" s="189"/>
+      <c r="BM15" s="189"/>
+      <c r="BN15" s="189"/>
+      <c r="BO15" s="189"/>
+      <c r="BP15" s="189"/>
+      <c r="BQ15" s="189"/>
+      <c r="BR15" s="189"/>
+      <c r="BS15" s="189"/>
+      <c r="BT15" s="189"/>
       <c r="BU15" s="30"/>
       <c r="BV15" s="30"/>
       <c r="CG15" s="18"/>
@@ -4929,81 +4915,81 @@
       <c r="DC15" s="18"/>
     </row>
     <row r="16" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="200"/>
-      <c r="C16" s="308"/>
-      <c r="D16" s="308"/>
-      <c r="E16" s="308"/>
-      <c r="F16" s="306"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="307"/>
-      <c r="I16" s="307"/>
-      <c r="J16" s="307"/>
-      <c r="K16" s="307"/>
-      <c r="L16" s="307"/>
-      <c r="M16" s="307"/>
-      <c r="N16" s="307"/>
-      <c r="O16" s="307"/>
-      <c r="P16" s="307"/>
-      <c r="Q16" s="307"/>
-      <c r="R16" s="307"/>
-      <c r="S16" s="307"/>
-      <c r="T16" s="307"/>
-      <c r="U16" s="171"/>
-      <c r="V16" s="340"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="175"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="175"/>
+      <c r="T16" s="175"/>
+      <c r="U16" s="167"/>
+      <c r="V16" s="324"/>
       <c r="W16" s="11"/>
-      <c r="X16" s="166"/>
-      <c r="Y16" s="181">
+      <c r="X16" s="162"/>
+      <c r="Y16" s="203">
         <v>0</v>
       </c>
-      <c r="Z16" s="182"/>
-      <c r="AA16" s="184">
+      <c r="Z16" s="204"/>
+      <c r="AA16" s="183">
         <v>0</v>
       </c>
-      <c r="AB16" s="185"/>
-      <c r="AC16" s="156"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="77"/>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="77"/>
-      <c r="AK16" s="77"/>
-      <c r="AL16" s="77"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="77"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="279"/>
-      <c r="AQ16" s="80"/>
-      <c r="AR16" s="81"/>
-      <c r="AS16" s="82"/>
-      <c r="AT16" s="82"/>
-      <c r="AU16" s="82"/>
-      <c r="AV16" s="82"/>
-      <c r="AW16" s="82"/>
-      <c r="AX16" s="82"/>
-      <c r="AY16" s="52"/>
-      <c r="AZ16" s="257"/>
-      <c r="BA16" s="243"/>
-      <c r="BB16" s="194"/>
-      <c r="BC16" s="194"/>
-      <c r="BD16" s="271"/>
-      <c r="BE16" s="76"/>
-      <c r="BF16" s="52"/>
+      <c r="AB16" s="184"/>
+      <c r="AC16" s="153"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="74"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="225"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="78"/>
+      <c r="AS16" s="79"/>
+      <c r="AT16" s="79"/>
+      <c r="AU16" s="79"/>
+      <c r="AV16" s="79"/>
+      <c r="AW16" s="79"/>
+      <c r="AX16" s="79"/>
+      <c r="AY16" s="50"/>
+      <c r="AZ16" s="277"/>
+      <c r="BA16" s="261"/>
+      <c r="BB16" s="310"/>
+      <c r="BC16" s="310"/>
+      <c r="BD16" s="247"/>
+      <c r="BE16" s="73"/>
+      <c r="BF16" s="50"/>
       <c r="BG16" s="28"/>
-      <c r="BH16" s="176"/>
-      <c r="BI16" s="176"/>
-      <c r="BJ16" s="176"/>
-      <c r="BK16" s="176"/>
-      <c r="BL16" s="176"/>
-      <c r="BM16" s="176"/>
-      <c r="BN16" s="176"/>
-      <c r="BO16" s="176"/>
-      <c r="BP16" s="176"/>
-      <c r="BQ16" s="176"/>
-      <c r="BR16" s="176"/>
-      <c r="BS16" s="176"/>
-      <c r="BT16" s="176"/>
+      <c r="BH16" s="189"/>
+      <c r="BI16" s="189"/>
+      <c r="BJ16" s="189"/>
+      <c r="BK16" s="189"/>
+      <c r="BL16" s="189"/>
+      <c r="BM16" s="189"/>
+      <c r="BN16" s="189"/>
+      <c r="BO16" s="189"/>
+      <c r="BP16" s="189"/>
+      <c r="BQ16" s="189"/>
+      <c r="BR16" s="189"/>
+      <c r="BS16" s="189"/>
+      <c r="BT16" s="189"/>
       <c r="BU16" s="30"/>
       <c r="BV16" s="30"/>
       <c r="CG16" s="18"/>
@@ -5031,81 +5017,81 @@
       <c r="DC16" s="18"/>
     </row>
     <row r="17" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="200"/>
-      <c r="C17" s="308"/>
-      <c r="D17" s="308"/>
-      <c r="E17" s="308"/>
-      <c r="F17" s="306"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="307"/>
-      <c r="I17" s="307"/>
-      <c r="J17" s="307"/>
-      <c r="K17" s="307"/>
-      <c r="L17" s="307"/>
-      <c r="M17" s="307"/>
-      <c r="N17" s="307"/>
-      <c r="O17" s="307"/>
-      <c r="P17" s="307"/>
-      <c r="Q17" s="307"/>
-      <c r="R17" s="307"/>
-      <c r="S17" s="307"/>
-      <c r="T17" s="307"/>
-      <c r="U17" s="171"/>
-      <c r="V17" s="340"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="175"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="175"/>
+      <c r="R17" s="175"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="175"/>
+      <c r="U17" s="167"/>
+      <c r="V17" s="324"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="166"/>
-      <c r="Y17" s="181">
+      <c r="X17" s="162"/>
+      <c r="Y17" s="203">
         <v>0</v>
       </c>
-      <c r="Z17" s="182"/>
-      <c r="AA17" s="184">
+      <c r="Z17" s="204"/>
+      <c r="AA17" s="183">
         <v>0</v>
       </c>
-      <c r="AB17" s="185"/>
-      <c r="AC17" s="156"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="58"/>
-      <c r="AO17" s="58"/>
-      <c r="AP17" s="280"/>
-      <c r="AQ17" s="83"/>
-      <c r="AR17" s="81"/>
-      <c r="AS17" s="52"/>
-      <c r="AT17" s="52"/>
-      <c r="AU17" s="52"/>
-      <c r="AV17" s="52"/>
-      <c r="AW17" s="52"/>
-      <c r="AX17" s="52"/>
-      <c r="AY17" s="52"/>
-      <c r="AZ17" s="258"/>
-      <c r="BA17" s="244"/>
-      <c r="BB17" s="195"/>
-      <c r="BC17" s="195"/>
-      <c r="BD17" s="272"/>
-      <c r="BE17" s="76"/>
-      <c r="BF17" s="52"/>
+      <c r="AB17" s="184"/>
+      <c r="AC17" s="153"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="226"/>
+      <c r="AQ17" s="80"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="278"/>
+      <c r="BA17" s="262"/>
+      <c r="BB17" s="311"/>
+      <c r="BC17" s="311"/>
+      <c r="BD17" s="248"/>
+      <c r="BE17" s="73"/>
+      <c r="BF17" s="50"/>
       <c r="BG17" s="28"/>
-      <c r="BH17" s="263"/>
-      <c r="BI17" s="176"/>
-      <c r="BJ17" s="176"/>
-      <c r="BK17" s="176"/>
-      <c r="BL17" s="176"/>
-      <c r="BM17" s="176"/>
-      <c r="BN17" s="176"/>
-      <c r="BO17" s="176"/>
-      <c r="BP17" s="176"/>
-      <c r="BQ17" s="262"/>
-      <c r="BR17" s="176"/>
-      <c r="BS17" s="176"/>
-      <c r="BT17" s="176"/>
+      <c r="BH17" s="237"/>
+      <c r="BI17" s="189"/>
+      <c r="BJ17" s="189"/>
+      <c r="BK17" s="189"/>
+      <c r="BL17" s="189"/>
+      <c r="BM17" s="189"/>
+      <c r="BN17" s="189"/>
+      <c r="BO17" s="189"/>
+      <c r="BP17" s="189"/>
+      <c r="BQ17" s="236"/>
+      <c r="BR17" s="189"/>
+      <c r="BS17" s="189"/>
+      <c r="BT17" s="189"/>
       <c r="BU17" s="30"/>
       <c r="BV17" s="30"/>
       <c r="CG17" s="18"/>
@@ -5133,81 +5119,81 @@
       <c r="DC17" s="18"/>
     </row>
     <row r="18" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="189"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="307"/>
-      <c r="I18" s="307"/>
-      <c r="J18" s="307"/>
-      <c r="K18" s="307"/>
-      <c r="L18" s="307"/>
-      <c r="M18" s="307"/>
-      <c r="N18" s="307"/>
-      <c r="O18" s="307"/>
-      <c r="P18" s="307"/>
-      <c r="Q18" s="307"/>
-      <c r="R18" s="307"/>
-      <c r="S18" s="307"/>
-      <c r="T18" s="307"/>
-      <c r="U18" s="171"/>
-      <c r="V18" s="340"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="175"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="175"/>
+      <c r="U18" s="167"/>
+      <c r="V18" s="324"/>
       <c r="W18" s="13"/>
-      <c r="X18" s="166"/>
-      <c r="Y18" s="181">
+      <c r="X18" s="162"/>
+      <c r="Y18" s="203">
         <v>0</v>
       </c>
-      <c r="Z18" s="182"/>
-      <c r="AA18" s="184">
+      <c r="Z18" s="204"/>
+      <c r="AA18" s="183">
         <v>0</v>
       </c>
-      <c r="AB18" s="185"/>
-      <c r="AC18" s="156"/>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="84"/>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
-      <c r="AK18" s="84"/>
-      <c r="AL18" s="84"/>
-      <c r="AM18" s="84"/>
-      <c r="AN18" s="84"/>
-      <c r="AO18" s="84"/>
-      <c r="AP18" s="281"/>
-      <c r="AQ18" s="83"/>
-      <c r="AR18" s="81"/>
-      <c r="AS18" s="52"/>
-      <c r="AT18" s="52"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="52"/>
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="52"/>
-      <c r="AY18" s="52"/>
-      <c r="AZ18" s="85"/>
-      <c r="BA18" s="86"/>
-      <c r="BB18" s="87"/>
-      <c r="BC18" s="88"/>
-      <c r="BD18" s="89"/>
-      <c r="BE18" s="76"/>
-      <c r="BF18" s="52"/>
+      <c r="AB18" s="184"/>
+      <c r="AC18" s="153"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="81"/>
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="81"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="81"/>
+      <c r="AL18" s="81"/>
+      <c r="AM18" s="81"/>
+      <c r="AN18" s="81"/>
+      <c r="AO18" s="81"/>
+      <c r="AP18" s="227"/>
+      <c r="AQ18" s="80"/>
+      <c r="AR18" s="78"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="82"/>
+      <c r="BA18" s="83"/>
+      <c r="BB18" s="84"/>
+      <c r="BC18" s="85"/>
+      <c r="BD18" s="86"/>
+      <c r="BE18" s="73"/>
+      <c r="BF18" s="50"/>
       <c r="BG18" s="28"/>
-      <c r="BH18" s="180"/>
-      <c r="BI18" s="176"/>
-      <c r="BJ18" s="176"/>
-      <c r="BK18" s="176"/>
-      <c r="BL18" s="176"/>
-      <c r="BM18" s="176"/>
-      <c r="BN18" s="176"/>
-      <c r="BO18" s="176"/>
-      <c r="BP18" s="176"/>
-      <c r="BQ18" s="183"/>
-      <c r="BR18" s="176"/>
-      <c r="BS18" s="176"/>
-      <c r="BT18" s="176"/>
+      <c r="BH18" s="246"/>
+      <c r="BI18" s="189"/>
+      <c r="BJ18" s="189"/>
+      <c r="BK18" s="189"/>
+      <c r="BL18" s="189"/>
+      <c r="BM18" s="189"/>
+      <c r="BN18" s="189"/>
+      <c r="BO18" s="189"/>
+      <c r="BP18" s="189"/>
+      <c r="BQ18" s="245"/>
+      <c r="BR18" s="189"/>
+      <c r="BS18" s="189"/>
+      <c r="BT18" s="189"/>
       <c r="BU18" s="30"/>
       <c r="BV18" s="30"/>
       <c r="CG18" s="18"/>
@@ -5235,83 +5221,83 @@
       <c r="DC18" s="18"/>
     </row>
     <row r="19" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="287" t="s">
+      <c r="B19" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="187"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="307"/>
-      <c r="I19" s="307"/>
-      <c r="J19" s="307"/>
-      <c r="K19" s="307"/>
-      <c r="L19" s="307"/>
-      <c r="M19" s="307"/>
-      <c r="N19" s="307"/>
-      <c r="O19" s="307"/>
-      <c r="P19" s="307"/>
-      <c r="Q19" s="307"/>
-      <c r="R19" s="307"/>
-      <c r="S19" s="307"/>
-      <c r="T19" s="307"/>
-      <c r="U19" s="171"/>
-      <c r="V19" s="340"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="175"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="175"/>
+      <c r="S19" s="175"/>
+      <c r="T19" s="175"/>
+      <c r="U19" s="167"/>
+      <c r="V19" s="324"/>
       <c r="W19" s="13"/>
-      <c r="X19" s="166"/>
-      <c r="Y19" s="181">
+      <c r="X19" s="162"/>
+      <c r="Y19" s="203">
         <v>0</v>
       </c>
-      <c r="Z19" s="182"/>
-      <c r="AA19" s="184">
+      <c r="Z19" s="204"/>
+      <c r="AA19" s="183">
         <v>0</v>
       </c>
-      <c r="AB19" s="185"/>
-      <c r="AC19" s="156"/>
-      <c r="AD19" s="84"/>
-      <c r="AE19" s="84"/>
-      <c r="AF19" s="84"/>
-      <c r="AG19" s="84"/>
-      <c r="AH19" s="84"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="84"/>
-      <c r="AK19" s="84"/>
-      <c r="AL19" s="84"/>
-      <c r="AM19" s="84"/>
-      <c r="AN19" s="84"/>
-      <c r="AO19" s="84"/>
-      <c r="AP19" s="90"/>
-      <c r="AQ19" s="240"/>
-      <c r="AR19" s="202"/>
-      <c r="AS19" s="52"/>
-      <c r="AT19" s="52"/>
-      <c r="AU19" s="52"/>
-      <c r="AV19" s="52"/>
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="52"/>
-      <c r="AY19" s="52"/>
-      <c r="AZ19" s="91"/>
-      <c r="BA19" s="92"/>
-      <c r="BB19" s="93"/>
-      <c r="BC19" s="94"/>
-      <c r="BD19" s="95"/>
-      <c r="BE19" s="76"/>
-      <c r="BF19" s="52"/>
+      <c r="AB19" s="184"/>
+      <c r="AC19" s="153"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="81"/>
+      <c r="AH19" s="81"/>
+      <c r="AI19" s="81"/>
+      <c r="AJ19" s="81"/>
+      <c r="AK19" s="81"/>
+      <c r="AL19" s="81"/>
+      <c r="AM19" s="81"/>
+      <c r="AN19" s="81"/>
+      <c r="AO19" s="81"/>
+      <c r="AP19" s="87"/>
+      <c r="AQ19" s="293"/>
+      <c r="AR19" s="223"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="50"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="88"/>
+      <c r="BA19" s="89"/>
+      <c r="BB19" s="90"/>
+      <c r="BC19" s="91"/>
+      <c r="BD19" s="92"/>
+      <c r="BE19" s="73"/>
+      <c r="BF19" s="50"/>
       <c r="BG19" s="28"/>
-      <c r="BH19" s="180"/>
-      <c r="BI19" s="176"/>
-      <c r="BJ19" s="176"/>
-      <c r="BK19" s="176"/>
-      <c r="BL19" s="176"/>
-      <c r="BM19" s="176"/>
-      <c r="BN19" s="176"/>
-      <c r="BO19" s="176"/>
-      <c r="BP19" s="176"/>
-      <c r="BQ19" s="183"/>
-      <c r="BR19" s="176"/>
-      <c r="BS19" s="176"/>
-      <c r="BT19" s="176"/>
+      <c r="BH19" s="246"/>
+      <c r="BI19" s="189"/>
+      <c r="BJ19" s="189"/>
+      <c r="BK19" s="189"/>
+      <c r="BL19" s="189"/>
+      <c r="BM19" s="189"/>
+      <c r="BN19" s="189"/>
+      <c r="BO19" s="189"/>
+      <c r="BP19" s="189"/>
+      <c r="BQ19" s="245"/>
+      <c r="BR19" s="189"/>
+      <c r="BS19" s="189"/>
+      <c r="BT19" s="189"/>
       <c r="BU19" s="30"/>
       <c r="BV19" s="30"/>
       <c r="CG19" s="18"/>
@@ -5339,81 +5325,81 @@
       <c r="DC19" s="18"/>
     </row>
     <row r="20" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="164"/>
-      <c r="C20" s="309"/>
-      <c r="D20" s="309"/>
-      <c r="E20" s="309"/>
-      <c r="F20" s="309"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="307"/>
-      <c r="I20" s="307"/>
-      <c r="J20" s="307"/>
-      <c r="K20" s="307"/>
-      <c r="L20" s="307"/>
-      <c r="M20" s="307"/>
-      <c r="N20" s="307"/>
-      <c r="O20" s="307"/>
-      <c r="P20" s="307"/>
-      <c r="Q20" s="307"/>
-      <c r="R20" s="307"/>
-      <c r="S20" s="307"/>
-      <c r="T20" s="307"/>
-      <c r="U20" s="171"/>
-      <c r="V20" s="340"/>
+      <c r="B20" s="327"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="175"/>
+      <c r="U20" s="167"/>
+      <c r="V20" s="324"/>
       <c r="W20" s="13"/>
-      <c r="X20" s="166"/>
-      <c r="Y20" s="181">
+      <c r="X20" s="162"/>
+      <c r="Y20" s="203">
         <v>0</v>
       </c>
-      <c r="Z20" s="182"/>
-      <c r="AA20" s="184">
+      <c r="Z20" s="204"/>
+      <c r="AA20" s="183">
         <v>0</v>
       </c>
-      <c r="AB20" s="185"/>
-      <c r="AC20" s="156"/>
-      <c r="AD20" s="84"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="84"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="84"/>
-      <c r="AK20" s="84"/>
-      <c r="AL20" s="84"/>
-      <c r="AM20" s="84"/>
-      <c r="AN20" s="84"/>
-      <c r="AO20" s="84"/>
-      <c r="AP20" s="96"/>
-      <c r="AQ20" s="201"/>
-      <c r="AR20" s="202"/>
-      <c r="AS20" s="52"/>
-      <c r="AT20" s="52"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="52"/>
-      <c r="AW20" s="52"/>
-      <c r="AX20" s="52"/>
-      <c r="AY20" s="52"/>
-      <c r="AZ20" s="91"/>
-      <c r="BA20" s="92"/>
-      <c r="BB20" s="93"/>
-      <c r="BC20" s="97"/>
-      <c r="BD20" s="98"/>
-      <c r="BE20" s="76"/>
-      <c r="BF20" s="52"/>
+      <c r="AB20" s="184"/>
+      <c r="AC20" s="153"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="81"/>
+      <c r="AH20" s="81"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="81"/>
+      <c r="AM20" s="81"/>
+      <c r="AN20" s="81"/>
+      <c r="AO20" s="81"/>
+      <c r="AP20" s="93"/>
+      <c r="AQ20" s="272"/>
+      <c r="AR20" s="223"/>
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="50"/>
+      <c r="AU20" s="50"/>
+      <c r="AV20" s="50"/>
+      <c r="AW20" s="50"/>
+      <c r="AX20" s="50"/>
+      <c r="AY20" s="50"/>
+      <c r="AZ20" s="88"/>
+      <c r="BA20" s="89"/>
+      <c r="BB20" s="90"/>
+      <c r="BC20" s="94"/>
+      <c r="BD20" s="95"/>
+      <c r="BE20" s="73"/>
+      <c r="BF20" s="50"/>
       <c r="BG20" s="28"/>
-      <c r="BH20" s="231"/>
-      <c r="BI20" s="176"/>
-      <c r="BJ20" s="176"/>
-      <c r="BK20" s="176"/>
-      <c r="BL20" s="176"/>
-      <c r="BM20" s="176"/>
-      <c r="BN20" s="176"/>
-      <c r="BO20" s="176"/>
-      <c r="BP20" s="176"/>
-      <c r="BQ20" s="230"/>
-      <c r="BR20" s="176"/>
-      <c r="BS20" s="176"/>
-      <c r="BT20" s="176"/>
+      <c r="BH20" s="286"/>
+      <c r="BI20" s="189"/>
+      <c r="BJ20" s="189"/>
+      <c r="BK20" s="189"/>
+      <c r="BL20" s="189"/>
+      <c r="BM20" s="189"/>
+      <c r="BN20" s="189"/>
+      <c r="BO20" s="189"/>
+      <c r="BP20" s="189"/>
+      <c r="BQ20" s="285"/>
+      <c r="BR20" s="189"/>
+      <c r="BS20" s="189"/>
+      <c r="BT20" s="189"/>
       <c r="BU20" s="30"/>
       <c r="BV20" s="30"/>
       <c r="CG20" s="18"/>
@@ -5441,81 +5427,81 @@
       <c r="DC20" s="18"/>
     </row>
     <row r="21" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="37"/>
-      <c r="C21" s="310"/>
-      <c r="D21" s="310"/>
-      <c r="E21" s="310"/>
-      <c r="F21" s="310"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="307"/>
-      <c r="I21" s="307"/>
-      <c r="J21" s="307"/>
-      <c r="K21" s="307"/>
-      <c r="L21" s="307"/>
-      <c r="M21" s="307"/>
-      <c r="N21" s="307"/>
-      <c r="O21" s="307"/>
-      <c r="P21" s="307"/>
-      <c r="Q21" s="307"/>
-      <c r="R21" s="307"/>
-      <c r="S21" s="307"/>
-      <c r="T21" s="307"/>
-      <c r="U21" s="171"/>
-      <c r="V21" s="340"/>
+      <c r="B21" s="328"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="175"/>
+      <c r="U21" s="167"/>
+      <c r="V21" s="324"/>
       <c r="W21" s="13"/>
-      <c r="X21" s="166"/>
-      <c r="Y21" s="181">
+      <c r="X21" s="162"/>
+      <c r="Y21" s="203">
         <v>0</v>
       </c>
-      <c r="Z21" s="182"/>
-      <c r="AA21" s="184">
+      <c r="Z21" s="204"/>
+      <c r="AA21" s="183">
         <v>0</v>
       </c>
-      <c r="AB21" s="185"/>
-      <c r="AC21" s="156"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="84"/>
-      <c r="AJ21" s="84"/>
-      <c r="AK21" s="84"/>
-      <c r="AL21" s="84"/>
-      <c r="AM21" s="84"/>
-      <c r="AN21" s="84"/>
-      <c r="AO21" s="84"/>
-      <c r="AP21" s="90"/>
-      <c r="AQ21" s="268"/>
-      <c r="AR21" s="202"/>
-      <c r="AS21" s="52"/>
-      <c r="AT21" s="52"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="52"/>
-      <c r="AW21" s="52"/>
-      <c r="AX21" s="52"/>
-      <c r="AY21" s="52"/>
-      <c r="AZ21" s="91"/>
-      <c r="BA21" s="92"/>
-      <c r="BB21" s="99"/>
-      <c r="BC21" s="100"/>
-      <c r="BD21" s="101"/>
-      <c r="BE21" s="76"/>
-      <c r="BF21" s="52"/>
+      <c r="AB21" s="184"/>
+      <c r="AC21" s="153"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="81"/>
+      <c r="AH21" s="81"/>
+      <c r="AI21" s="81"/>
+      <c r="AJ21" s="81"/>
+      <c r="AK21" s="81"/>
+      <c r="AL21" s="81"/>
+      <c r="AM21" s="81"/>
+      <c r="AN21" s="81"/>
+      <c r="AO21" s="81"/>
+      <c r="AP21" s="87"/>
+      <c r="AQ21" s="230"/>
+      <c r="AR21" s="223"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="50"/>
+      <c r="AU21" s="50"/>
+      <c r="AV21" s="50"/>
+      <c r="AW21" s="50"/>
+      <c r="AX21" s="50"/>
+      <c r="AY21" s="50"/>
+      <c r="AZ21" s="88"/>
+      <c r="BA21" s="89"/>
+      <c r="BB21" s="96"/>
+      <c r="BC21" s="97"/>
+      <c r="BD21" s="98"/>
+      <c r="BE21" s="73"/>
+      <c r="BF21" s="50"/>
       <c r="BG21" s="28"/>
-      <c r="BH21" s="180"/>
-      <c r="BI21" s="176"/>
-      <c r="BJ21" s="176"/>
-      <c r="BK21" s="176"/>
-      <c r="BL21" s="176"/>
-      <c r="BM21" s="176"/>
-      <c r="BN21" s="176"/>
-      <c r="BO21" s="176"/>
-      <c r="BP21" s="176"/>
-      <c r="BQ21" s="183"/>
-      <c r="BR21" s="176"/>
-      <c r="BS21" s="176"/>
-      <c r="BT21" s="176"/>
+      <c r="BH21" s="246"/>
+      <c r="BI21" s="189"/>
+      <c r="BJ21" s="189"/>
+      <c r="BK21" s="189"/>
+      <c r="BL21" s="189"/>
+      <c r="BM21" s="189"/>
+      <c r="BN21" s="189"/>
+      <c r="BO21" s="189"/>
+      <c r="BP21" s="189"/>
+      <c r="BQ21" s="245"/>
+      <c r="BR21" s="189"/>
+      <c r="BS21" s="189"/>
+      <c r="BT21" s="189"/>
       <c r="BU21" s="30"/>
       <c r="BV21" s="30"/>
       <c r="CG21" s="18"/>
@@ -5543,81 +5529,81 @@
       <c r="DC21" s="18"/>
     </row>
     <row r="22" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="37"/>
-      <c r="C22" s="310"/>
-      <c r="D22" s="310"/>
-      <c r="E22" s="310"/>
-      <c r="F22" s="310"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="307"/>
-      <c r="I22" s="307"/>
-      <c r="J22" s="307"/>
-      <c r="K22" s="307"/>
-      <c r="L22" s="307"/>
-      <c r="M22" s="307"/>
-      <c r="N22" s="307"/>
-      <c r="O22" s="307"/>
-      <c r="P22" s="307"/>
-      <c r="Q22" s="307"/>
-      <c r="R22" s="307"/>
-      <c r="S22" s="307"/>
-      <c r="T22" s="307"/>
-      <c r="U22" s="171"/>
-      <c r="V22" s="340"/>
+      <c r="B22" s="328"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="175"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="175"/>
+      <c r="U22" s="167"/>
+      <c r="V22" s="324"/>
       <c r="W22" s="22"/>
-      <c r="X22" s="167"/>
-      <c r="Y22" s="181">
+      <c r="X22" s="163"/>
+      <c r="Y22" s="203">
         <v>0</v>
       </c>
-      <c r="Z22" s="182"/>
-      <c r="AA22" s="184">
+      <c r="Z22" s="204"/>
+      <c r="AA22" s="183">
         <v>0</v>
       </c>
-      <c r="AB22" s="185"/>
-      <c r="AC22" s="156"/>
-      <c r="AD22" s="102"/>
-      <c r="AE22" s="102"/>
-      <c r="AF22" s="102"/>
-      <c r="AG22" s="102"/>
-      <c r="AH22" s="102"/>
-      <c r="AI22" s="102"/>
-      <c r="AJ22" s="102"/>
-      <c r="AK22" s="102"/>
-      <c r="AL22" s="102"/>
-      <c r="AM22" s="102"/>
-      <c r="AN22" s="102"/>
-      <c r="AO22" s="102"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="239"/>
-      <c r="AR22" s="202"/>
-      <c r="AS22" s="52"/>
-      <c r="AT22" s="52"/>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="52"/>
-      <c r="AW22" s="52"/>
-      <c r="AX22" s="52"/>
-      <c r="AY22" s="52"/>
-      <c r="AZ22" s="91"/>
-      <c r="BA22" s="103"/>
-      <c r="BB22" s="93"/>
-      <c r="BC22" s="100"/>
-      <c r="BD22" s="104"/>
-      <c r="BE22" s="76"/>
-      <c r="BF22" s="52"/>
+      <c r="AB22" s="184"/>
+      <c r="AC22" s="153"/>
+      <c r="AD22" s="99"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="99"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
+      <c r="AK22" s="99"/>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="99"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="99"/>
+      <c r="AP22" s="93"/>
+      <c r="AQ22" s="222"/>
+      <c r="AR22" s="223"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="50"/>
+      <c r="AZ22" s="88"/>
+      <c r="BA22" s="100"/>
+      <c r="BB22" s="90"/>
+      <c r="BC22" s="97"/>
+      <c r="BD22" s="101"/>
+      <c r="BE22" s="73"/>
+      <c r="BF22" s="50"/>
       <c r="BG22" s="28"/>
-      <c r="BH22" s="231"/>
-      <c r="BI22" s="176"/>
-      <c r="BJ22" s="176"/>
-      <c r="BK22" s="176"/>
-      <c r="BL22" s="176"/>
-      <c r="BM22" s="176"/>
-      <c r="BN22" s="176"/>
-      <c r="BO22" s="176"/>
-      <c r="BP22" s="176"/>
-      <c r="BQ22" s="230"/>
-      <c r="BR22" s="176"/>
-      <c r="BS22" s="176"/>
-      <c r="BT22" s="176"/>
+      <c r="BH22" s="286"/>
+      <c r="BI22" s="189"/>
+      <c r="BJ22" s="189"/>
+      <c r="BK22" s="189"/>
+      <c r="BL22" s="189"/>
+      <c r="BM22" s="189"/>
+      <c r="BN22" s="189"/>
+      <c r="BO22" s="189"/>
+      <c r="BP22" s="189"/>
+      <c r="BQ22" s="285"/>
+      <c r="BR22" s="189"/>
+      <c r="BS22" s="189"/>
+      <c r="BT22" s="189"/>
       <c r="BU22" s="30"/>
       <c r="BV22" s="30"/>
       <c r="CG22" s="18"/>
@@ -5645,161 +5631,158 @@
       <c r="DC22" s="18"/>
     </row>
     <row r="23" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="311"/>
-      <c r="D23" s="311"/>
-      <c r="E23" s="311"/>
-      <c r="F23" s="312"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="307"/>
-      <c r="I23" s="307"/>
-      <c r="J23" s="307"/>
-      <c r="K23" s="307"/>
-      <c r="L23" s="307"/>
-      <c r="M23" s="307"/>
-      <c r="N23" s="307"/>
-      <c r="O23" s="307"/>
-      <c r="P23" s="307"/>
-      <c r="Q23" s="307"/>
-      <c r="R23" s="307"/>
-      <c r="S23" s="307"/>
-      <c r="T23" s="307"/>
-      <c r="U23" s="171"/>
-      <c r="V23" s="340"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="167"/>
-      <c r="Y23" s="181">
+      <c r="A23" s="45"/>
+      <c r="B23" s="328"/>
+      <c r="F23"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="167"/>
+      <c r="V23" s="324"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="163"/>
+      <c r="Y23" s="203">
         <v>0</v>
       </c>
-      <c r="Z23" s="182"/>
-      <c r="AA23" s="184">
+      <c r="Z23" s="204"/>
+      <c r="AA23" s="183">
         <v>0</v>
       </c>
-      <c r="AB23" s="185"/>
-      <c r="AC23" s="156"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="47"/>
-      <c r="AL23" s="47"/>
-      <c r="AM23" s="47"/>
-      <c r="AN23" s="47"/>
-      <c r="AO23" s="47"/>
-      <c r="AP23" s="47"/>
-      <c r="AQ23" s="47"/>
-      <c r="AR23" s="47"/>
-      <c r="AS23" s="47"/>
-      <c r="AT23" s="47"/>
-      <c r="AU23" s="47"/>
-      <c r="AV23" s="47"/>
-      <c r="AW23" s="47"/>
-      <c r="AX23" s="47"/>
-      <c r="AY23" s="47"/>
-      <c r="AZ23" s="47"/>
-      <c r="BA23" s="47"/>
-      <c r="BB23" s="47"/>
-      <c r="BC23" s="47"/>
-      <c r="BD23" s="47"/>
-      <c r="BE23" s="47"/>
-      <c r="BF23" s="47"/>
-      <c r="BG23" s="47"/>
-      <c r="BH23" s="47"/>
-      <c r="BI23" s="47"/>
-      <c r="BJ23" s="47"/>
-      <c r="BK23" s="47"/>
-      <c r="BL23" s="47"/>
-      <c r="BM23" s="47"/>
-      <c r="BN23" s="47"/>
-      <c r="BO23" s="47"/>
-      <c r="BP23" s="47"/>
-      <c r="BQ23" s="47"/>
-      <c r="BR23" s="47"/>
-      <c r="BS23" s="47"/>
-      <c r="BT23" s="47"/>
-      <c r="BU23" s="47"/>
-      <c r="BV23" s="47"/>
+      <c r="AB23" s="184"/>
+      <c r="AC23" s="153"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="45"/>
+      <c r="AK23" s="45"/>
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="45"/>
+      <c r="AQ23" s="45"/>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="45"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
+      <c r="BB23" s="45"/>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="45"/>
+      <c r="BE23" s="45"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="45"/>
+      <c r="BI23" s="45"/>
+      <c r="BJ23" s="45"/>
+      <c r="BK23" s="45"/>
+      <c r="BL23" s="45"/>
+      <c r="BM23" s="45"/>
+      <c r="BN23" s="45"/>
+      <c r="BO23" s="45"/>
+      <c r="BP23" s="45"/>
+      <c r="BQ23" s="45"/>
+      <c r="BR23" s="45"/>
+      <c r="BS23" s="45"/>
+      <c r="BT23" s="45"/>
+      <c r="BU23" s="45"/>
+      <c r="BV23" s="45"/>
     </row>
     <row r="24" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="37"/>
-      <c r="C24" s="310"/>
-      <c r="D24" s="310"/>
-      <c r="E24" s="310"/>
-      <c r="F24" s="310"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="307"/>
-      <c r="I24" s="307"/>
-      <c r="J24" s="307"/>
-      <c r="K24" s="307"/>
-      <c r="L24" s="307"/>
-      <c r="M24" s="307"/>
-      <c r="N24" s="307"/>
-      <c r="O24" s="307"/>
-      <c r="P24" s="307"/>
-      <c r="Q24" s="307"/>
-      <c r="R24" s="307"/>
-      <c r="S24" s="307"/>
-      <c r="T24" s="307"/>
-      <c r="U24" s="171"/>
-      <c r="V24" s="340"/>
+      <c r="B24" s="328"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="175"/>
+      <c r="U24" s="167"/>
+      <c r="V24" s="324"/>
       <c r="W24" s="26"/>
-      <c r="X24" s="167"/>
-      <c r="Y24" s="181">
+      <c r="X24" s="163"/>
+      <c r="Y24" s="203">
         <v>0</v>
       </c>
-      <c r="Z24" s="182"/>
-      <c r="AA24" s="184">
+      <c r="Z24" s="204"/>
+      <c r="AA24" s="183">
         <v>0</v>
       </c>
-      <c r="AB24" s="185"/>
-      <c r="AC24" s="156"/>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="102"/>
-      <c r="AF24" s="102"/>
-      <c r="AG24" s="102"/>
-      <c r="AH24" s="102"/>
-      <c r="AI24" s="102"/>
-      <c r="AJ24" s="102"/>
-      <c r="AK24" s="102"/>
-      <c r="AL24" s="102"/>
-      <c r="AM24" s="102"/>
-      <c r="AN24" s="102"/>
-      <c r="AO24" s="102"/>
-      <c r="AP24" s="96"/>
-      <c r="AQ24" s="239"/>
-      <c r="AR24" s="202"/>
-      <c r="AS24" s="52"/>
-      <c r="AT24" s="52"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="52"/>
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="52"/>
-      <c r="AY24" s="52"/>
-      <c r="AZ24" s="91"/>
-      <c r="BA24" s="103"/>
-      <c r="BB24" s="93"/>
-      <c r="BC24" s="100"/>
-      <c r="BD24" s="104"/>
-      <c r="BE24" s="76"/>
-      <c r="BF24" s="52"/>
+      <c r="AB24" s="184"/>
+      <c r="AC24" s="153"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="99"/>
+      <c r="AN24" s="99"/>
+      <c r="AO24" s="99"/>
+      <c r="AP24" s="93"/>
+      <c r="AQ24" s="222"/>
+      <c r="AR24" s="223"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
+      <c r="AV24" s="50"/>
+      <c r="AW24" s="50"/>
+      <c r="AX24" s="50"/>
+      <c r="AY24" s="50"/>
+      <c r="AZ24" s="88"/>
+      <c r="BA24" s="100"/>
+      <c r="BB24" s="90"/>
+      <c r="BC24" s="97"/>
+      <c r="BD24" s="101"/>
+      <c r="BE24" s="73"/>
+      <c r="BF24" s="50"/>
       <c r="BG24" s="28"/>
-      <c r="BH24" s="180"/>
-      <c r="BI24" s="176"/>
-      <c r="BJ24" s="176"/>
-      <c r="BK24" s="176"/>
-      <c r="BL24" s="176"/>
-      <c r="BM24" s="176"/>
-      <c r="BN24" s="176"/>
-      <c r="BO24" s="176"/>
-      <c r="BP24" s="176"/>
-      <c r="BQ24" s="183"/>
-      <c r="BR24" s="176"/>
-      <c r="BS24" s="176"/>
-      <c r="BT24" s="176"/>
+      <c r="BH24" s="246"/>
+      <c r="BI24" s="189"/>
+      <c r="BJ24" s="189"/>
+      <c r="BK24" s="189"/>
+      <c r="BL24" s="189"/>
+      <c r="BM24" s="189"/>
+      <c r="BN24" s="189"/>
+      <c r="BO24" s="189"/>
+      <c r="BP24" s="189"/>
+      <c r="BQ24" s="245"/>
+      <c r="BR24" s="189"/>
+      <c r="BS24" s="189"/>
+      <c r="BT24" s="189"/>
       <c r="BU24" s="30"/>
       <c r="BV24" s="30"/>
       <c r="CG24" s="18"/>
@@ -5827,81 +5810,77 @@
       <c r="DC24" s="18"/>
     </row>
     <row r="25" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="65"/>
-      <c r="C25" s="311"/>
-      <c r="D25" s="311"/>
-      <c r="E25" s="311"/>
-      <c r="F25" s="313"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="307"/>
-      <c r="I25" s="307"/>
-      <c r="J25" s="307"/>
-      <c r="K25" s="307"/>
-      <c r="L25" s="307"/>
-      <c r="M25" s="307"/>
-      <c r="N25" s="307"/>
-      <c r="O25" s="307"/>
-      <c r="P25" s="307"/>
-      <c r="Q25" s="307"/>
-      <c r="R25" s="307"/>
-      <c r="S25" s="307"/>
-      <c r="T25" s="307"/>
-      <c r="U25" s="171"/>
-      <c r="V25" s="340"/>
+      <c r="B25" s="328"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
+      <c r="U25" s="167"/>
+      <c r="V25" s="324"/>
       <c r="W25" s="26"/>
-      <c r="X25" s="168"/>
-      <c r="Y25" s="181">
+      <c r="X25" s="164"/>
+      <c r="Y25" s="203">
         <v>0</v>
       </c>
-      <c r="Z25" s="182"/>
-      <c r="AA25" s="184">
+      <c r="Z25" s="204"/>
+      <c r="AA25" s="183">
         <v>0</v>
       </c>
-      <c r="AB25" s="185"/>
-      <c r="AC25" s="156"/>
-      <c r="AD25" s="102"/>
-      <c r="AE25" s="102"/>
-      <c r="AF25" s="102"/>
-      <c r="AG25" s="102"/>
-      <c r="AH25" s="102"/>
-      <c r="AI25" s="102"/>
-      <c r="AJ25" s="102"/>
-      <c r="AK25" s="102"/>
-      <c r="AL25" s="102"/>
-      <c r="AM25" s="102"/>
-      <c r="AN25" s="102"/>
-      <c r="AO25" s="102"/>
-      <c r="AP25" s="96"/>
-      <c r="AQ25" s="201"/>
-      <c r="AR25" s="202"/>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="52"/>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="52"/>
-      <c r="AY25" s="52"/>
-      <c r="AZ25" s="91"/>
-      <c r="BA25" s="103"/>
-      <c r="BB25" s="93"/>
-      <c r="BC25" s="100"/>
-      <c r="BD25" s="104"/>
-      <c r="BE25" s="76"/>
-      <c r="BF25" s="52"/>
+      <c r="AB25" s="184"/>
+      <c r="AC25" s="153"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="99"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="99"/>
+      <c r="AM25" s="99"/>
+      <c r="AN25" s="99"/>
+      <c r="AO25" s="99"/>
+      <c r="AP25" s="93"/>
+      <c r="AQ25" s="272"/>
+      <c r="AR25" s="223"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="50"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="88"/>
+      <c r="BA25" s="100"/>
+      <c r="BB25" s="90"/>
+      <c r="BC25" s="97"/>
+      <c r="BD25" s="101"/>
+      <c r="BE25" s="73"/>
+      <c r="BF25" s="50"/>
       <c r="BG25" s="28"/>
-      <c r="BH25" s="180"/>
-      <c r="BI25" s="176"/>
-      <c r="BJ25" s="176"/>
-      <c r="BK25" s="176"/>
-      <c r="BL25" s="176"/>
-      <c r="BM25" s="176"/>
-      <c r="BN25" s="176"/>
-      <c r="BO25" s="176"/>
-      <c r="BP25" s="176"/>
-      <c r="BQ25" s="183"/>
-      <c r="BR25" s="176"/>
-      <c r="BS25" s="176"/>
-      <c r="BT25" s="176"/>
+      <c r="BH25" s="246"/>
+      <c r="BI25" s="189"/>
+      <c r="BJ25" s="189"/>
+      <c r="BK25" s="189"/>
+      <c r="BL25" s="189"/>
+      <c r="BM25" s="189"/>
+      <c r="BN25" s="189"/>
+      <c r="BO25" s="189"/>
+      <c r="BP25" s="189"/>
+      <c r="BQ25" s="245"/>
+      <c r="BR25" s="189"/>
+      <c r="BS25" s="189"/>
+      <c r="BT25" s="189"/>
       <c r="BU25" s="30"/>
       <c r="BV25" s="30"/>
       <c r="CG25" s="18"/>
@@ -5929,81 +5908,81 @@
       <c r="DC25" s="18"/>
     </row>
     <row r="26" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="66"/>
-      <c r="C26" s="314"/>
-      <c r="D26" s="314"/>
-      <c r="E26" s="314"/>
-      <c r="F26" s="314"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="307"/>
-      <c r="I26" s="307"/>
-      <c r="J26" s="307"/>
-      <c r="K26" s="307"/>
-      <c r="L26" s="307"/>
-      <c r="M26" s="307"/>
-      <c r="N26" s="307"/>
-      <c r="O26" s="307"/>
-      <c r="P26" s="307"/>
-      <c r="Q26" s="307"/>
-      <c r="R26" s="307"/>
-      <c r="S26" s="307"/>
-      <c r="T26" s="307"/>
-      <c r="U26" s="171"/>
-      <c r="V26" s="340"/>
+      <c r="B26" s="328"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="175"/>
+      <c r="U26" s="167"/>
+      <c r="V26" s="324"/>
       <c r="W26" s="23"/>
-      <c r="X26" s="168"/>
-      <c r="Y26" s="181">
+      <c r="X26" s="164"/>
+      <c r="Y26" s="203">
         <v>0</v>
       </c>
-      <c r="Z26" s="182"/>
-      <c r="AA26" s="184">
+      <c r="Z26" s="204"/>
+      <c r="AA26" s="183">
         <v>0</v>
       </c>
-      <c r="AB26" s="185"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="105"/>
-      <c r="AE26" s="105"/>
-      <c r="AF26" s="105"/>
-      <c r="AG26" s="105"/>
-      <c r="AH26" s="105"/>
-      <c r="AI26" s="105"/>
-      <c r="AJ26" s="105"/>
-      <c r="AK26" s="105"/>
-      <c r="AL26" s="105"/>
-      <c r="AM26" s="105"/>
-      <c r="AN26" s="105"/>
-      <c r="AO26" s="105"/>
-      <c r="AP26" s="96"/>
-      <c r="AQ26" s="201"/>
-      <c r="AR26" s="202"/>
-      <c r="AS26" s="52"/>
-      <c r="AT26" s="52"/>
-      <c r="AU26" s="52"/>
-      <c r="AV26" s="52"/>
-      <c r="AW26" s="52"/>
-      <c r="AX26" s="52"/>
-      <c r="AY26" s="52"/>
-      <c r="AZ26" s="91"/>
-      <c r="BA26" s="103"/>
-      <c r="BB26" s="93"/>
-      <c r="BC26" s="100"/>
-      <c r="BD26" s="104"/>
-      <c r="BE26" s="76"/>
-      <c r="BF26" s="52"/>
+      <c r="AB26" s="184"/>
+      <c r="AC26" s="153"/>
+      <c r="AD26" s="102"/>
+      <c r="AE26" s="102"/>
+      <c r="AF26" s="102"/>
+      <c r="AG26" s="102"/>
+      <c r="AH26" s="102"/>
+      <c r="AI26" s="102"/>
+      <c r="AJ26" s="102"/>
+      <c r="AK26" s="102"/>
+      <c r="AL26" s="102"/>
+      <c r="AM26" s="102"/>
+      <c r="AN26" s="102"/>
+      <c r="AO26" s="102"/>
+      <c r="AP26" s="93"/>
+      <c r="AQ26" s="272"/>
+      <c r="AR26" s="223"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="50"/>
+      <c r="AU26" s="50"/>
+      <c r="AV26" s="50"/>
+      <c r="AW26" s="50"/>
+      <c r="AX26" s="50"/>
+      <c r="AY26" s="50"/>
+      <c r="AZ26" s="88"/>
+      <c r="BA26" s="100"/>
+      <c r="BB26" s="90"/>
+      <c r="BC26" s="97"/>
+      <c r="BD26" s="101"/>
+      <c r="BE26" s="73"/>
+      <c r="BF26" s="50"/>
       <c r="BG26" s="28"/>
-      <c r="BH26" s="180"/>
-      <c r="BI26" s="176"/>
-      <c r="BJ26" s="176"/>
-      <c r="BK26" s="176"/>
-      <c r="BL26" s="176"/>
-      <c r="BM26" s="176"/>
-      <c r="BN26" s="176"/>
-      <c r="BO26" s="176"/>
-      <c r="BP26" s="176"/>
-      <c r="BQ26" s="183"/>
-      <c r="BR26" s="176"/>
-      <c r="BS26" s="176"/>
-      <c r="BT26" s="176"/>
+      <c r="BH26" s="246"/>
+      <c r="BI26" s="189"/>
+      <c r="BJ26" s="189"/>
+      <c r="BK26" s="189"/>
+      <c r="BL26" s="189"/>
+      <c r="BM26" s="189"/>
+      <c r="BN26" s="189"/>
+      <c r="BO26" s="189"/>
+      <c r="BP26" s="189"/>
+      <c r="BQ26" s="245"/>
+      <c r="BR26" s="189"/>
+      <c r="BS26" s="189"/>
+      <c r="BT26" s="189"/>
       <c r="BU26" s="30"/>
       <c r="BV26" s="30"/>
       <c r="CG26" s="18"/>
@@ -6031,81 +6010,77 @@
       <c r="DC26" s="18"/>
     </row>
     <row r="27" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="65"/>
-      <c r="C27" s="311"/>
-      <c r="D27" s="311"/>
-      <c r="E27" s="311"/>
-      <c r="F27" s="313"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="307"/>
-      <c r="I27" s="307"/>
-      <c r="J27" s="307"/>
-      <c r="K27" s="307"/>
-      <c r="L27" s="307"/>
-      <c r="M27" s="307"/>
-      <c r="N27" s="307"/>
-      <c r="O27" s="307"/>
-      <c r="P27" s="307"/>
-      <c r="Q27" s="307"/>
-      <c r="R27" s="307"/>
-      <c r="S27" s="307"/>
-      <c r="T27" s="307"/>
-      <c r="U27" s="171"/>
-      <c r="V27" s="340"/>
+      <c r="B27" s="328"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="175"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="175"/>
+      <c r="U27" s="167"/>
+      <c r="V27" s="324"/>
       <c r="W27" s="23"/>
-      <c r="X27" s="168"/>
-      <c r="Y27" s="181">
+      <c r="X27" s="164"/>
+      <c r="Y27" s="203">
         <v>0</v>
       </c>
-      <c r="Z27" s="182"/>
-      <c r="AA27" s="184">
+      <c r="Z27" s="204"/>
+      <c r="AA27" s="183">
         <v>0</v>
       </c>
-      <c r="AB27" s="185"/>
-      <c r="AC27" s="156"/>
-      <c r="AD27" s="105"/>
-      <c r="AE27" s="105"/>
-      <c r="AF27" s="105"/>
-      <c r="AG27" s="105"/>
-      <c r="AH27" s="105"/>
-      <c r="AI27" s="105"/>
-      <c r="AJ27" s="105"/>
-      <c r="AK27" s="105"/>
-      <c r="AL27" s="105"/>
-      <c r="AM27" s="105"/>
-      <c r="AN27" s="105"/>
-      <c r="AO27" s="105"/>
-      <c r="AP27" s="96"/>
-      <c r="AQ27" s="239"/>
-      <c r="AR27" s="202"/>
-      <c r="AS27" s="52"/>
-      <c r="AT27" s="52"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="52"/>
-      <c r="AW27" s="52"/>
-      <c r="AX27" s="52"/>
-      <c r="AY27" s="52"/>
-      <c r="AZ27" s="91"/>
-      <c r="BA27" s="103"/>
-      <c r="BB27" s="93"/>
-      <c r="BC27" s="100"/>
-      <c r="BD27" s="104"/>
-      <c r="BE27" s="76"/>
-      <c r="BF27" s="52"/>
+      <c r="AB27" s="184"/>
+      <c r="AC27" s="153"/>
+      <c r="AD27" s="102"/>
+      <c r="AE27" s="102"/>
+      <c r="AF27" s="102"/>
+      <c r="AG27" s="102"/>
+      <c r="AH27" s="102"/>
+      <c r="AI27" s="102"/>
+      <c r="AJ27" s="102"/>
+      <c r="AK27" s="102"/>
+      <c r="AL27" s="102"/>
+      <c r="AM27" s="102"/>
+      <c r="AN27" s="102"/>
+      <c r="AO27" s="102"/>
+      <c r="AP27" s="93"/>
+      <c r="AQ27" s="222"/>
+      <c r="AR27" s="223"/>
+      <c r="AS27" s="50"/>
+      <c r="AT27" s="50"/>
+      <c r="AU27" s="50"/>
+      <c r="AV27" s="50"/>
+      <c r="AW27" s="50"/>
+      <c r="AX27" s="50"/>
+      <c r="AY27" s="50"/>
+      <c r="AZ27" s="88"/>
+      <c r="BA27" s="100"/>
+      <c r="BB27" s="90"/>
+      <c r="BC27" s="97"/>
+      <c r="BD27" s="101"/>
+      <c r="BE27" s="73"/>
+      <c r="BF27" s="50"/>
       <c r="BG27" s="28"/>
-      <c r="BH27" s="283"/>
-      <c r="BI27" s="176"/>
-      <c r="BJ27" s="176"/>
-      <c r="BK27" s="176"/>
-      <c r="BL27" s="176"/>
-      <c r="BM27" s="176"/>
-      <c r="BN27" s="176"/>
-      <c r="BO27" s="176"/>
-      <c r="BP27" s="176"/>
-      <c r="BQ27" s="176"/>
-      <c r="BR27" s="176"/>
-      <c r="BS27" s="176"/>
-      <c r="BT27" s="176"/>
+      <c r="BH27" s="257"/>
+      <c r="BI27" s="189"/>
+      <c r="BJ27" s="189"/>
+      <c r="BK27" s="189"/>
+      <c r="BL27" s="189"/>
+      <c r="BM27" s="189"/>
+      <c r="BN27" s="189"/>
+      <c r="BO27" s="189"/>
+      <c r="BP27" s="189"/>
+      <c r="BQ27" s="189"/>
+      <c r="BR27" s="189"/>
+      <c r="BS27" s="189"/>
+      <c r="BT27" s="189"/>
       <c r="BU27" s="30"/>
       <c r="BV27" s="30"/>
       <c r="CG27" s="18"/>
@@ -6133,83 +6108,83 @@
       <c r="DC27" s="18"/>
     </row>
     <row r="28" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="285"/>
-      <c r="C28" s="308"/>
-      <c r="D28" s="308"/>
-      <c r="E28" s="308"/>
-      <c r="F28" s="306"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="307"/>
-      <c r="I28" s="307"/>
-      <c r="J28" s="307"/>
-      <c r="K28" s="307"/>
-      <c r="L28" s="307"/>
-      <c r="M28" s="307"/>
-      <c r="N28" s="307"/>
-      <c r="O28" s="307"/>
-      <c r="P28" s="307"/>
-      <c r="Q28" s="307"/>
-      <c r="R28" s="307"/>
-      <c r="S28" s="307"/>
-      <c r="T28" s="307"/>
-      <c r="U28" s="171"/>
-      <c r="V28" s="340"/>
+      <c r="B28" s="331"/>
+      <c r="C28" s="329"/>
+      <c r="D28" s="329"/>
+      <c r="E28" s="329"/>
+      <c r="F28" s="330"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="167"/>
+      <c r="V28" s="324"/>
       <c r="W28" s="16"/>
-      <c r="X28" s="168"/>
-      <c r="Y28" s="181">
+      <c r="X28" s="164"/>
+      <c r="Y28" s="203">
         <v>0</v>
       </c>
-      <c r="Z28" s="182"/>
-      <c r="AA28" s="184">
+      <c r="Z28" s="204"/>
+      <c r="AA28" s="183">
         <v>0</v>
       </c>
-      <c r="AB28" s="185"/>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="106"/>
-      <c r="AE28" s="106"/>
-      <c r="AF28" s="106"/>
-      <c r="AG28" s="106"/>
-      <c r="AH28" s="106"/>
-      <c r="AI28" s="106"/>
-      <c r="AJ28" s="106"/>
-      <c r="AK28" s="106"/>
-      <c r="AL28" s="106"/>
-      <c r="AM28" s="106"/>
-      <c r="AN28" s="106"/>
-      <c r="AO28" s="106"/>
-      <c r="AP28" s="90"/>
-      <c r="AQ28" s="268"/>
-      <c r="AR28" s="202"/>
-      <c r="AS28" s="52"/>
-      <c r="AT28" s="52"/>
-      <c r="AU28" s="52"/>
-      <c r="AV28" s="52"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="52"/>
-      <c r="AY28" s="52"/>
-      <c r="AZ28" s="91"/>
-      <c r="BA28" s="103"/>
-      <c r="BB28" s="107"/>
-      <c r="BC28" s="108"/>
-      <c r="BD28" s="109"/>
-      <c r="BE28" s="76"/>
-      <c r="BF28" s="52"/>
-      <c r="BG28" s="249"/>
-      <c r="BH28" s="176"/>
-      <c r="BI28" s="176"/>
-      <c r="BJ28" s="176"/>
-      <c r="BK28" s="176"/>
-      <c r="BL28" s="176"/>
-      <c r="BM28" s="176"/>
-      <c r="BN28" s="176"/>
-      <c r="BO28" s="176"/>
-      <c r="BP28" s="176"/>
-      <c r="BQ28" s="176"/>
-      <c r="BR28" s="176"/>
-      <c r="BS28" s="176"/>
-      <c r="BT28" s="176"/>
-      <c r="BU28" s="176"/>
-      <c r="BV28" s="176"/>
+      <c r="AB28" s="184"/>
+      <c r="AC28" s="153"/>
+      <c r="AD28" s="103"/>
+      <c r="AE28" s="103"/>
+      <c r="AF28" s="103"/>
+      <c r="AG28" s="103"/>
+      <c r="AH28" s="103"/>
+      <c r="AI28" s="103"/>
+      <c r="AJ28" s="103"/>
+      <c r="AK28" s="103"/>
+      <c r="AL28" s="103"/>
+      <c r="AM28" s="103"/>
+      <c r="AN28" s="103"/>
+      <c r="AO28" s="103"/>
+      <c r="AP28" s="87"/>
+      <c r="AQ28" s="230"/>
+      <c r="AR28" s="223"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="50"/>
+      <c r="AU28" s="50"/>
+      <c r="AV28" s="50"/>
+      <c r="AW28" s="50"/>
+      <c r="AX28" s="50"/>
+      <c r="AY28" s="50"/>
+      <c r="AZ28" s="88"/>
+      <c r="BA28" s="100"/>
+      <c r="BB28" s="104"/>
+      <c r="BC28" s="105"/>
+      <c r="BD28" s="106"/>
+      <c r="BE28" s="73"/>
+      <c r="BF28" s="50"/>
+      <c r="BG28" s="267"/>
+      <c r="BH28" s="189"/>
+      <c r="BI28" s="189"/>
+      <c r="BJ28" s="189"/>
+      <c r="BK28" s="189"/>
+      <c r="BL28" s="189"/>
+      <c r="BM28" s="189"/>
+      <c r="BN28" s="189"/>
+      <c r="BO28" s="189"/>
+      <c r="BP28" s="189"/>
+      <c r="BQ28" s="189"/>
+      <c r="BR28" s="189"/>
+      <c r="BS28" s="189"/>
+      <c r="BT28" s="189"/>
+      <c r="BU28" s="189"/>
+      <c r="BV28" s="189"/>
       <c r="CG28" s="18"/>
       <c r="CH28" s="18"/>
       <c r="CI28" s="18"/>
@@ -6235,83 +6210,83 @@
       <c r="DC28" s="18"/>
     </row>
     <row r="29" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="37"/>
-      <c r="C29" s="310"/>
-      <c r="D29" s="310"/>
-      <c r="E29" s="310"/>
-      <c r="F29" s="310"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="307"/>
-      <c r="I29" s="307"/>
-      <c r="J29" s="307"/>
-      <c r="K29" s="307"/>
-      <c r="L29" s="307"/>
-      <c r="M29" s="307"/>
-      <c r="N29" s="307"/>
-      <c r="O29" s="307"/>
-      <c r="P29" s="307"/>
-      <c r="Q29" s="307"/>
-      <c r="R29" s="307"/>
-      <c r="S29" s="307"/>
-      <c r="T29" s="307"/>
-      <c r="U29" s="171"/>
-      <c r="V29" s="340"/>
+      <c r="B29" s="328"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="175"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
+      <c r="U29" s="167"/>
+      <c r="V29" s="324"/>
       <c r="W29" s="24"/>
-      <c r="X29" s="168"/>
-      <c r="Y29" s="181">
+      <c r="X29" s="164"/>
+      <c r="Y29" s="203">
         <v>0</v>
       </c>
-      <c r="Z29" s="182"/>
-      <c r="AA29" s="184">
+      <c r="Z29" s="204"/>
+      <c r="AA29" s="183">
         <v>0</v>
       </c>
-      <c r="AB29" s="185"/>
-      <c r="AC29" s="156"/>
-      <c r="AD29" s="110"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="110"/>
-      <c r="AG29" s="110"/>
-      <c r="AH29" s="110"/>
-      <c r="AI29" s="110"/>
-      <c r="AJ29" s="110"/>
-      <c r="AK29" s="110"/>
-      <c r="AL29" s="110"/>
-      <c r="AM29" s="110"/>
-      <c r="AN29" s="110"/>
-      <c r="AO29" s="110"/>
-      <c r="AP29" s="90"/>
-      <c r="AQ29" s="226"/>
-      <c r="AR29" s="202"/>
-      <c r="AS29" s="52"/>
-      <c r="AT29" s="52"/>
-      <c r="AU29" s="52"/>
-      <c r="AV29" s="52"/>
-      <c r="AW29" s="52"/>
-      <c r="AX29" s="52"/>
-      <c r="AY29" s="111"/>
-      <c r="AZ29" s="112"/>
-      <c r="BA29" s="113"/>
-      <c r="BB29" s="114"/>
-      <c r="BC29" s="115"/>
-      <c r="BD29" s="116"/>
-      <c r="BE29" s="76"/>
-      <c r="BF29" s="52"/>
-      <c r="BG29" s="176"/>
-      <c r="BH29" s="176"/>
-      <c r="BI29" s="176"/>
-      <c r="BJ29" s="176"/>
-      <c r="BK29" s="176"/>
-      <c r="BL29" s="176"/>
-      <c r="BM29" s="176"/>
-      <c r="BN29" s="176"/>
-      <c r="BO29" s="176"/>
-      <c r="BP29" s="176"/>
-      <c r="BQ29" s="176"/>
-      <c r="BR29" s="176"/>
-      <c r="BS29" s="176"/>
-      <c r="BT29" s="176"/>
-      <c r="BU29" s="176"/>
-      <c r="BV29" s="176"/>
+      <c r="AB29" s="184"/>
+      <c r="AC29" s="153"/>
+      <c r="AD29" s="107"/>
+      <c r="AE29" s="107"/>
+      <c r="AF29" s="107"/>
+      <c r="AG29" s="107"/>
+      <c r="AH29" s="107"/>
+      <c r="AI29" s="107"/>
+      <c r="AJ29" s="107"/>
+      <c r="AK29" s="107"/>
+      <c r="AL29" s="107"/>
+      <c r="AM29" s="107"/>
+      <c r="AN29" s="107"/>
+      <c r="AO29" s="107"/>
+      <c r="AP29" s="87"/>
+      <c r="AQ29" s="282"/>
+      <c r="AR29" s="223"/>
+      <c r="AS29" s="50"/>
+      <c r="AT29" s="50"/>
+      <c r="AU29" s="50"/>
+      <c r="AV29" s="50"/>
+      <c r="AW29" s="50"/>
+      <c r="AX29" s="50"/>
+      <c r="AY29" s="108"/>
+      <c r="AZ29" s="109"/>
+      <c r="BA29" s="110"/>
+      <c r="BB29" s="111"/>
+      <c r="BC29" s="112"/>
+      <c r="BD29" s="113"/>
+      <c r="BE29" s="73"/>
+      <c r="BF29" s="50"/>
+      <c r="BG29" s="189"/>
+      <c r="BH29" s="189"/>
+      <c r="BI29" s="189"/>
+      <c r="BJ29" s="189"/>
+      <c r="BK29" s="189"/>
+      <c r="BL29" s="189"/>
+      <c r="BM29" s="189"/>
+      <c r="BN29" s="189"/>
+      <c r="BO29" s="189"/>
+      <c r="BP29" s="189"/>
+      <c r="BQ29" s="189"/>
+      <c r="BR29" s="189"/>
+      <c r="BS29" s="189"/>
+      <c r="BT29" s="189"/>
+      <c r="BU29" s="189"/>
+      <c r="BV29" s="189"/>
       <c r="CG29" s="18"/>
       <c r="CH29" s="18"/>
       <c r="CI29" s="18"/>
@@ -6337,83 +6312,83 @@
       <c r="DC29" s="18"/>
     </row>
     <row r="30" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="37"/>
-      <c r="C30" s="310"/>
-      <c r="D30" s="310"/>
-      <c r="E30" s="310"/>
-      <c r="F30" s="310"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="307"/>
-      <c r="I30" s="307"/>
-      <c r="J30" s="307"/>
-      <c r="K30" s="307"/>
-      <c r="L30" s="307"/>
-      <c r="M30" s="307"/>
-      <c r="N30" s="307"/>
-      <c r="O30" s="307"/>
-      <c r="P30" s="307"/>
-      <c r="Q30" s="307"/>
-      <c r="R30" s="307"/>
-      <c r="S30" s="307"/>
-      <c r="T30" s="307"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="340"/>
+      <c r="B30" s="328"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="175"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="175"/>
+      <c r="Q30" s="175"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="175"/>
+      <c r="U30" s="167"/>
+      <c r="V30" s="324"/>
       <c r="W30" s="25"/>
-      <c r="X30" s="169"/>
-      <c r="Y30" s="255">
+      <c r="X30" s="165"/>
+      <c r="Y30" s="275">
         <v>0</v>
       </c>
-      <c r="Z30" s="256"/>
-      <c r="AA30" s="266">
+      <c r="Z30" s="276"/>
+      <c r="AA30" s="243">
         <v>0</v>
       </c>
-      <c r="AB30" s="267"/>
-      <c r="AC30" s="158"/>
-      <c r="AD30" s="117"/>
-      <c r="AE30" s="117"/>
-      <c r="AF30" s="117"/>
-      <c r="AG30" s="117"/>
-      <c r="AH30" s="117"/>
-      <c r="AI30" s="117"/>
-      <c r="AJ30" s="117"/>
-      <c r="AK30" s="117"/>
-      <c r="AL30" s="117"/>
-      <c r="AM30" s="117"/>
-      <c r="AN30" s="117"/>
-      <c r="AO30" s="117"/>
-      <c r="AP30" s="90"/>
-      <c r="AQ30" s="261"/>
-      <c r="AR30" s="202"/>
-      <c r="AS30" s="52"/>
-      <c r="AT30" s="52"/>
-      <c r="AU30" s="52"/>
-      <c r="AV30" s="52"/>
-      <c r="AW30" s="52"/>
-      <c r="AX30" s="52"/>
-      <c r="AY30" s="282"/>
-      <c r="AZ30" s="112"/>
-      <c r="BA30" s="113"/>
-      <c r="BB30" s="114"/>
-      <c r="BC30" s="115"/>
-      <c r="BD30" s="116"/>
-      <c r="BE30" s="76"/>
-      <c r="BF30" s="52"/>
-      <c r="BG30" s="249"/>
-      <c r="BH30" s="176"/>
-      <c r="BI30" s="176"/>
-      <c r="BJ30" s="176"/>
-      <c r="BK30" s="176"/>
-      <c r="BL30" s="176"/>
-      <c r="BM30" s="176"/>
-      <c r="BN30" s="176"/>
-      <c r="BO30" s="176"/>
-      <c r="BP30" s="176"/>
-      <c r="BQ30" s="176"/>
-      <c r="BR30" s="176"/>
-      <c r="BS30" s="176"/>
-      <c r="BT30" s="176"/>
-      <c r="BU30" s="176"/>
-      <c r="BV30" s="176"/>
+      <c r="AB30" s="244"/>
+      <c r="AC30" s="155"/>
+      <c r="AD30" s="114"/>
+      <c r="AE30" s="114"/>
+      <c r="AF30" s="114"/>
+      <c r="AG30" s="114"/>
+      <c r="AH30" s="114"/>
+      <c r="AI30" s="114"/>
+      <c r="AJ30" s="114"/>
+      <c r="AK30" s="114"/>
+      <c r="AL30" s="114"/>
+      <c r="AM30" s="114"/>
+      <c r="AN30" s="114"/>
+      <c r="AO30" s="114"/>
+      <c r="AP30" s="87"/>
+      <c r="AQ30" s="322"/>
+      <c r="AR30" s="223"/>
+      <c r="AS30" s="50"/>
+      <c r="AT30" s="50"/>
+      <c r="AU30" s="50"/>
+      <c r="AV30" s="50"/>
+      <c r="AW30" s="50"/>
+      <c r="AX30" s="50"/>
+      <c r="AY30" s="228"/>
+      <c r="AZ30" s="109"/>
+      <c r="BA30" s="110"/>
+      <c r="BB30" s="111"/>
+      <c r="BC30" s="112"/>
+      <c r="BD30" s="113"/>
+      <c r="BE30" s="73"/>
+      <c r="BF30" s="50"/>
+      <c r="BG30" s="267"/>
+      <c r="BH30" s="189"/>
+      <c r="BI30" s="189"/>
+      <c r="BJ30" s="189"/>
+      <c r="BK30" s="189"/>
+      <c r="BL30" s="189"/>
+      <c r="BM30" s="189"/>
+      <c r="BN30" s="189"/>
+      <c r="BO30" s="189"/>
+      <c r="BP30" s="189"/>
+      <c r="BQ30" s="189"/>
+      <c r="BR30" s="189"/>
+      <c r="BS30" s="189"/>
+      <c r="BT30" s="189"/>
+      <c r="BU30" s="189"/>
+      <c r="BV30" s="189"/>
       <c r="CG30" s="18"/>
       <c r="CH30" s="18"/>
       <c r="CI30" s="18"/>
@@ -6439,87 +6414,87 @@
       <c r="DC30" s="18"/>
     </row>
     <row r="31" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="37"/>
-      <c r="C31" s="310"/>
-      <c r="D31" s="310"/>
-      <c r="E31" s="310"/>
-      <c r="F31" s="310"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="307"/>
-      <c r="I31" s="307"/>
-      <c r="J31" s="307"/>
-      <c r="K31" s="307"/>
-      <c r="L31" s="307"/>
-      <c r="M31" s="307"/>
-      <c r="N31" s="307"/>
-      <c r="O31" s="307"/>
-      <c r="P31" s="307"/>
-      <c r="Q31" s="307"/>
-      <c r="R31" s="307"/>
-      <c r="S31" s="307"/>
-      <c r="T31" s="307"/>
-      <c r="U31" s="171"/>
-      <c r="V31" s="340"/>
+      <c r="B31" s="328"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+      <c r="M31" s="175"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="175"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="175"/>
+      <c r="T31" s="175"/>
+      <c r="U31" s="167"/>
+      <c r="V31" s="324"/>
       <c r="W31" s="14"/>
-      <c r="X31" s="56" t="s">
+      <c r="X31" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="Y31" s="223">
+      <c r="Y31" s="279">
         <f>SUM(Y11:Z30)</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="224"/>
-      <c r="AA31" s="229">
+      <c r="Z31" s="280"/>
+      <c r="AA31" s="284">
         <f>SUM(AA11:AB30)</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="224"/>
-      <c r="AC31" s="159"/>
-      <c r="AD31" s="57"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="57"/>
-      <c r="AI31" s="57"/>
-      <c r="AJ31" s="57"/>
-      <c r="AK31" s="57"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="57"/>
-      <c r="AN31" s="57"/>
-      <c r="AO31" s="57"/>
-      <c r="AP31" s="90"/>
-      <c r="AQ31" s="233"/>
-      <c r="AR31" s="182"/>
-      <c r="AS31" s="52"/>
-      <c r="AT31" s="52"/>
-      <c r="AU31" s="52"/>
-      <c r="AV31" s="52"/>
-      <c r="AW31" s="52"/>
-      <c r="AX31" s="52"/>
-      <c r="AY31" s="193"/>
-      <c r="AZ31" s="118"/>
-      <c r="BA31" s="119"/>
-      <c r="BB31" s="120"/>
-      <c r="BC31" s="121"/>
-      <c r="BD31" s="122"/>
-      <c r="BE31" s="76"/>
-      <c r="BF31" s="52"/>
-      <c r="BG31" s="220"/>
-      <c r="BH31" s="176"/>
-      <c r="BI31" s="176"/>
-      <c r="BJ31" s="176"/>
-      <c r="BK31" s="176"/>
-      <c r="BL31" s="176"/>
-      <c r="BM31" s="176"/>
-      <c r="BN31" s="176"/>
-      <c r="BO31" s="176"/>
-      <c r="BP31" s="176"/>
-      <c r="BQ31" s="176"/>
-      <c r="BR31" s="176"/>
-      <c r="BS31" s="176"/>
-      <c r="BT31" s="176"/>
-      <c r="BU31" s="176"/>
-      <c r="BV31" s="176"/>
+      <c r="AB31" s="280"/>
+      <c r="AC31" s="156"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="87"/>
+      <c r="AQ31" s="288"/>
+      <c r="AR31" s="204"/>
+      <c r="AS31" s="50"/>
+      <c r="AT31" s="50"/>
+      <c r="AU31" s="50"/>
+      <c r="AV31" s="50"/>
+      <c r="AW31" s="50"/>
+      <c r="AX31" s="50"/>
+      <c r="AY31" s="229"/>
+      <c r="AZ31" s="115"/>
+      <c r="BA31" s="116"/>
+      <c r="BB31" s="117"/>
+      <c r="BC31" s="118"/>
+      <c r="BD31" s="119"/>
+      <c r="BE31" s="73"/>
+      <c r="BF31" s="50"/>
+      <c r="BG31" s="315"/>
+      <c r="BH31" s="189"/>
+      <c r="BI31" s="189"/>
+      <c r="BJ31" s="189"/>
+      <c r="BK31" s="189"/>
+      <c r="BL31" s="189"/>
+      <c r="BM31" s="189"/>
+      <c r="BN31" s="189"/>
+      <c r="BO31" s="189"/>
+      <c r="BP31" s="189"/>
+      <c r="BQ31" s="189"/>
+      <c r="BR31" s="189"/>
+      <c r="BS31" s="189"/>
+      <c r="BT31" s="189"/>
+      <c r="BU31" s="189"/>
+      <c r="BV31" s="189"/>
       <c r="CG31" s="18"/>
       <c r="CH31" s="18"/>
       <c r="CI31" s="18"/>
@@ -6545,82 +6520,78 @@
       <c r="DC31" s="18"/>
     </row>
     <row r="32" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="65"/>
-      <c r="C32" s="311"/>
-      <c r="D32" s="311"/>
-      <c r="E32" s="311"/>
-      <c r="F32" s="313"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="307"/>
-      <c r="I32" s="307"/>
-      <c r="J32" s="307"/>
-      <c r="K32" s="307"/>
-      <c r="L32" s="307"/>
-      <c r="M32" s="307"/>
-      <c r="N32" s="307"/>
-      <c r="O32" s="307"/>
-      <c r="P32" s="307"/>
-      <c r="Q32" s="307"/>
-      <c r="R32" s="307"/>
-      <c r="S32" s="307"/>
-      <c r="T32" s="307"/>
-      <c r="U32" s="171"/>
-      <c r="V32" s="340"/>
+      <c r="B32" s="328"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="175"/>
+      <c r="U32" s="167"/>
+      <c r="V32" s="324"/>
       <c r="W32" s="15"/>
-      <c r="X32" s="235" t="e">
+      <c r="X32" s="290" t="e">
         <f>Y31/Y6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y32" s="187"/>
-      <c r="Z32" s="187"/>
-      <c r="AA32" s="187"/>
-      <c r="AB32" s="187"/>
-      <c r="AC32" s="160"/>
-      <c r="AD32" s="123"/>
-      <c r="AE32" s="123"/>
-      <c r="AF32" s="123"/>
-      <c r="AG32" s="123"/>
-      <c r="AH32" s="123"/>
-      <c r="AI32" s="123"/>
-      <c r="AJ32" s="123"/>
-      <c r="AK32" s="123"/>
-      <c r="AL32" s="123"/>
-      <c r="AM32" s="123"/>
-      <c r="AN32" s="123"/>
-      <c r="AO32" s="123"/>
-      <c r="AP32" s="90"/>
-      <c r="AQ32" s="289"/>
-      <c r="AR32" s="202"/>
-      <c r="AS32" s="52"/>
-      <c r="AT32" s="52"/>
-      <c r="AU32" s="52"/>
-      <c r="AV32" s="52"/>
-      <c r="AW32" s="52"/>
-      <c r="AX32" s="52"/>
-      <c r="AY32" s="193"/>
-      <c r="AZ32" s="124"/>
-      <c r="BA32" s="125"/>
-      <c r="BB32" s="126"/>
-      <c r="BC32" s="127"/>
-      <c r="BD32" s="128"/>
-      <c r="BE32" s="76"/>
-      <c r="BF32" s="52"/>
-      <c r="BG32" s="176"/>
-      <c r="BH32" s="176"/>
-      <c r="BI32" s="176"/>
-      <c r="BJ32" s="176"/>
-      <c r="BK32" s="176"/>
-      <c r="BL32" s="176"/>
-      <c r="BM32" s="176"/>
-      <c r="BN32" s="176"/>
-      <c r="BO32" s="176"/>
-      <c r="BP32" s="176"/>
-      <c r="BQ32" s="176"/>
-      <c r="BR32" s="176"/>
-      <c r="BS32" s="176"/>
-      <c r="BT32" s="176"/>
-      <c r="BU32" s="176"/>
-      <c r="BV32" s="176"/>
+      <c r="Y32" s="186"/>
+      <c r="Z32" s="186"/>
+      <c r="AA32" s="186"/>
+      <c r="AB32" s="186"/>
+      <c r="AC32" s="157"/>
+      <c r="AD32" s="120"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="120"/>
+      <c r="AG32" s="120"/>
+      <c r="AH32" s="120"/>
+      <c r="AI32" s="120"/>
+      <c r="AJ32" s="120"/>
+      <c r="AK32" s="120"/>
+      <c r="AL32" s="120"/>
+      <c r="AM32" s="120"/>
+      <c r="AN32" s="120"/>
+      <c r="AO32" s="120"/>
+      <c r="AP32" s="87"/>
+      <c r="AQ32" s="234"/>
+      <c r="AR32" s="223"/>
+      <c r="AS32" s="50"/>
+      <c r="AT32" s="50"/>
+      <c r="AU32" s="50"/>
+      <c r="AV32" s="50"/>
+      <c r="AW32" s="50"/>
+      <c r="AX32" s="50"/>
+      <c r="AY32" s="229"/>
+      <c r="AZ32" s="121"/>
+      <c r="BA32" s="122"/>
+      <c r="BB32" s="123"/>
+      <c r="BC32" s="124"/>
+      <c r="BD32" s="125"/>
+      <c r="BE32" s="73"/>
+      <c r="BF32" s="50"/>
+      <c r="BG32" s="189"/>
+      <c r="BH32" s="189"/>
+      <c r="BI32" s="189"/>
+      <c r="BJ32" s="189"/>
+      <c r="BK32" s="189"/>
+      <c r="BL32" s="189"/>
+      <c r="BM32" s="189"/>
+      <c r="BN32" s="189"/>
+      <c r="BO32" s="189"/>
+      <c r="BP32" s="189"/>
+      <c r="BQ32" s="189"/>
+      <c r="BR32" s="189"/>
+      <c r="BS32" s="189"/>
+      <c r="BT32" s="189"/>
+      <c r="BU32" s="189"/>
+      <c r="BV32" s="189"/>
       <c r="CG32" s="18"/>
       <c r="CH32" s="18"/>
       <c r="CI32" s="18"/>
@@ -6646,79 +6617,79 @@
       <c r="DC32" s="18"/>
     </row>
     <row r="33" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="37"/>
-      <c r="C33" s="310"/>
-      <c r="D33" s="310"/>
-      <c r="E33" s="310"/>
-      <c r="F33" s="310"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="307"/>
-      <c r="I33" s="307"/>
-      <c r="J33" s="307"/>
-      <c r="K33" s="307"/>
-      <c r="L33" s="307"/>
-      <c r="M33" s="307"/>
-      <c r="N33" s="307"/>
-      <c r="O33" s="307"/>
-      <c r="P33" s="307"/>
-      <c r="Q33" s="307"/>
-      <c r="R33" s="307"/>
-      <c r="S33" s="307"/>
-      <c r="T33" s="307"/>
-      <c r="U33" s="171"/>
-      <c r="V33" s="340"/>
+      <c r="B33" s="328"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="175"/>
+      <c r="M33" s="175"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="175"/>
+      <c r="Q33" s="175"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="175"/>
+      <c r="U33" s="167"/>
+      <c r="V33" s="324"/>
       <c r="W33" s="14"/>
-      <c r="X33" s="236"/>
-      <c r="Y33" s="236"/>
-      <c r="Z33" s="236"/>
-      <c r="AA33" s="236"/>
-      <c r="AB33" s="236"/>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="161"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="57"/>
-      <c r="AJ33" s="57"/>
-      <c r="AK33" s="57"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="57"/>
-      <c r="AN33" s="57"/>
-      <c r="AO33" s="57"/>
-      <c r="AP33" s="90"/>
-      <c r="AQ33" s="219"/>
-      <c r="AR33" s="202"/>
-      <c r="AS33" s="52"/>
-      <c r="AT33" s="52"/>
-      <c r="AU33" s="52"/>
-      <c r="AV33" s="52"/>
-      <c r="AW33" s="52"/>
-      <c r="AX33" s="52"/>
-      <c r="AY33" s="252"/>
-      <c r="AZ33" s="129"/>
-      <c r="BA33" s="130"/>
-      <c r="BB33" s="131"/>
-      <c r="BC33" s="132"/>
-      <c r="BD33" s="133"/>
-      <c r="BE33" s="76"/>
-      <c r="BF33" s="52"/>
-      <c r="BG33" s="234"/>
-      <c r="BH33" s="176"/>
-      <c r="BI33" s="176"/>
-      <c r="BJ33" s="176"/>
-      <c r="BK33" s="176"/>
-      <c r="BL33" s="176"/>
-      <c r="BM33" s="176"/>
-      <c r="BN33" s="176"/>
-      <c r="BO33" s="176"/>
-      <c r="BP33" s="232"/>
-      <c r="BQ33" s="176"/>
-      <c r="BR33" s="176"/>
-      <c r="BS33" s="176"/>
-      <c r="BT33" s="207"/>
-      <c r="BU33" s="176"/>
-      <c r="BV33" s="176"/>
+      <c r="X33" s="259"/>
+      <c r="Y33" s="259"/>
+      <c r="Z33" s="259"/>
+      <c r="AA33" s="259"/>
+      <c r="AB33" s="259"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="158"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="55"/>
+      <c r="AH33" s="55"/>
+      <c r="AI33" s="55"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="55"/>
+      <c r="AL33" s="55"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="55"/>
+      <c r="AO33" s="55"/>
+      <c r="AP33" s="87"/>
+      <c r="AQ33" s="314"/>
+      <c r="AR33" s="223"/>
+      <c r="AS33" s="50"/>
+      <c r="AT33" s="50"/>
+      <c r="AU33" s="50"/>
+      <c r="AV33" s="50"/>
+      <c r="AW33" s="50"/>
+      <c r="AX33" s="50"/>
+      <c r="AY33" s="271"/>
+      <c r="AZ33" s="126"/>
+      <c r="BA33" s="127"/>
+      <c r="BB33" s="128"/>
+      <c r="BC33" s="129"/>
+      <c r="BD33" s="130"/>
+      <c r="BE33" s="73"/>
+      <c r="BF33" s="50"/>
+      <c r="BG33" s="289"/>
+      <c r="BH33" s="189"/>
+      <c r="BI33" s="189"/>
+      <c r="BJ33" s="189"/>
+      <c r="BK33" s="189"/>
+      <c r="BL33" s="189"/>
+      <c r="BM33" s="189"/>
+      <c r="BN33" s="189"/>
+      <c r="BO33" s="189"/>
+      <c r="BP33" s="287"/>
+      <c r="BQ33" s="189"/>
+      <c r="BR33" s="189"/>
+      <c r="BS33" s="189"/>
+      <c r="BT33" s="307"/>
+      <c r="BU33" s="189"/>
+      <c r="BV33" s="189"/>
       <c r="CG33" s="18"/>
       <c r="CH33" s="18"/>
       <c r="CI33" s="18"/>
@@ -6744,81 +6715,81 @@
       <c r="DC33" s="18"/>
     </row>
     <row r="34" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="45"/>
-      <c r="C34" s="315"/>
-      <c r="D34" s="315"/>
-      <c r="E34" s="315"/>
-      <c r="F34" s="315"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="307"/>
-      <c r="I34" s="307"/>
-      <c r="J34" s="307"/>
-      <c r="K34" s="307"/>
-      <c r="L34" s="307"/>
-      <c r="M34" s="307"/>
-      <c r="N34" s="307"/>
-      <c r="O34" s="307"/>
-      <c r="P34" s="307"/>
-      <c r="Q34" s="307"/>
-      <c r="R34" s="307"/>
-      <c r="S34" s="307"/>
-      <c r="T34" s="307"/>
-      <c r="U34" s="171"/>
-      <c r="V34" s="340"/>
+      <c r="B34" s="328"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="175"/>
+      <c r="M34" s="175"/>
+      <c r="N34" s="175"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="175"/>
+      <c r="Q34" s="175"/>
+      <c r="R34" s="175"/>
+      <c r="S34" s="175"/>
+      <c r="T34" s="175"/>
+      <c r="U34" s="167"/>
+      <c r="V34" s="324"/>
       <c r="W34" s="12"/>
-      <c r="X34" s="217" t="s">
+      <c r="X34" s="312" t="s">
         <v>19</v>
       </c>
-      <c r="Y34" s="187"/>
-      <c r="Z34" s="187"/>
-      <c r="AA34" s="187"/>
-      <c r="AB34" s="188"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="58"/>
-      <c r="AJ34" s="58"/>
-      <c r="AK34" s="58"/>
-      <c r="AL34" s="58"/>
-      <c r="AM34" s="58"/>
-      <c r="AN34" s="58"/>
-      <c r="AO34" s="58"/>
-      <c r="AP34" s="134"/>
-      <c r="AQ34" s="275"/>
-      <c r="AR34" s="276"/>
-      <c r="AS34" s="52"/>
-      <c r="AT34" s="52"/>
-      <c r="AU34" s="52"/>
-      <c r="AV34" s="52"/>
-      <c r="AW34" s="52"/>
-      <c r="AX34" s="52"/>
-      <c r="AY34" s="193"/>
-      <c r="AZ34" s="135"/>
-      <c r="BA34" s="136"/>
-      <c r="BB34" s="137"/>
-      <c r="BC34" s="138"/>
-      <c r="BD34" s="139"/>
-      <c r="BE34" s="76"/>
-      <c r="BF34" s="52"/>
-      <c r="BG34" s="245"/>
-      <c r="BH34" s="176"/>
-      <c r="BI34" s="176"/>
-      <c r="BJ34" s="176"/>
-      <c r="BK34" s="176"/>
-      <c r="BL34" s="176"/>
-      <c r="BM34" s="227"/>
-      <c r="BN34" s="176"/>
-      <c r="BO34" s="176"/>
-      <c r="BP34" s="176"/>
-      <c r="BQ34" s="176"/>
-      <c r="BR34" s="225"/>
-      <c r="BS34" s="259"/>
-      <c r="BT34" s="176"/>
-      <c r="BU34" s="176"/>
-      <c r="BV34" s="176"/>
+      <c r="Y34" s="186"/>
+      <c r="Z34" s="186"/>
+      <c r="AA34" s="186"/>
+      <c r="AB34" s="187"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="131"/>
+      <c r="AQ34" s="255"/>
+      <c r="AR34" s="256"/>
+      <c r="AS34" s="50"/>
+      <c r="AT34" s="50"/>
+      <c r="AU34" s="50"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="AY34" s="229"/>
+      <c r="AZ34" s="132"/>
+      <c r="BA34" s="133"/>
+      <c r="BB34" s="134"/>
+      <c r="BC34" s="135"/>
+      <c r="BD34" s="136"/>
+      <c r="BE34" s="73"/>
+      <c r="BF34" s="50"/>
+      <c r="BG34" s="263"/>
+      <c r="BH34" s="189"/>
+      <c r="BI34" s="189"/>
+      <c r="BJ34" s="189"/>
+      <c r="BK34" s="189"/>
+      <c r="BL34" s="189"/>
+      <c r="BM34" s="283"/>
+      <c r="BN34" s="189"/>
+      <c r="BO34" s="189"/>
+      <c r="BP34" s="189"/>
+      <c r="BQ34" s="189"/>
+      <c r="BR34" s="281"/>
+      <c r="BS34" s="321"/>
+      <c r="BT34" s="189"/>
+      <c r="BU34" s="189"/>
+      <c r="BV34" s="189"/>
       <c r="CG34" s="18"/>
       <c r="CH34" s="18"/>
       <c r="CI34" s="18"/>
@@ -6844,81 +6815,81 @@
       <c r="DC34" s="18"/>
     </row>
     <row r="35" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="287" t="s">
+      <c r="B35" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="187"/>
-      <c r="D35" s="187"/>
-      <c r="E35" s="187"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="173"/>
-      <c r="L35" s="173"/>
-      <c r="M35" s="173"/>
-      <c r="N35" s="173"/>
-      <c r="O35" s="173"/>
-      <c r="P35" s="173"/>
-      <c r="Q35" s="173"/>
-      <c r="R35" s="173"/>
-      <c r="S35" s="173"/>
-      <c r="T35" s="173"/>
-      <c r="U35" s="174"/>
-      <c r="V35" s="341"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="169"/>
+      <c r="K35" s="169"/>
+      <c r="L35" s="169"/>
+      <c r="M35" s="169"/>
+      <c r="N35" s="169"/>
+      <c r="O35" s="169"/>
+      <c r="P35" s="169"/>
+      <c r="Q35" s="169"/>
+      <c r="R35" s="169"/>
+      <c r="S35" s="169"/>
+      <c r="T35" s="169"/>
+      <c r="U35" s="170"/>
+      <c r="V35" s="325"/>
       <c r="W35" s="16"/>
-      <c r="X35" s="290"/>
-      <c r="Y35" s="291"/>
-      <c r="Z35" s="291"/>
-      <c r="AA35" s="291"/>
-      <c r="AB35" s="292"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="58"/>
-      <c r="AF35" s="58"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="58"/>
-      <c r="AI35" s="58"/>
-      <c r="AJ35" s="58"/>
-      <c r="AK35" s="58"/>
-      <c r="AL35" s="58"/>
-      <c r="AM35" s="58"/>
-      <c r="AN35" s="58"/>
-      <c r="AO35" s="58"/>
-      <c r="AP35" s="140"/>
-      <c r="AQ35" s="260"/>
-      <c r="AR35" s="193"/>
-      <c r="AS35" s="72"/>
-      <c r="AT35" s="72"/>
-      <c r="AU35" s="72"/>
-      <c r="AV35" s="72"/>
-      <c r="AW35" s="72"/>
-      <c r="AX35" s="72"/>
-      <c r="AY35" s="72"/>
-      <c r="AZ35" s="214"/>
-      <c r="BA35" s="215"/>
-      <c r="BB35" s="215"/>
-      <c r="BC35" s="215"/>
-      <c r="BD35" s="216"/>
-      <c r="BE35" s="76"/>
-      <c r="BF35" s="52"/>
-      <c r="BG35" s="176"/>
-      <c r="BH35" s="176"/>
-      <c r="BI35" s="176"/>
-      <c r="BJ35" s="176"/>
-      <c r="BK35" s="176"/>
-      <c r="BL35" s="176"/>
-      <c r="BM35" s="175"/>
-      <c r="BN35" s="176"/>
-      <c r="BO35" s="176"/>
-      <c r="BP35" s="176"/>
-      <c r="BQ35" s="176"/>
-      <c r="BR35" s="176"/>
-      <c r="BS35" s="175"/>
-      <c r="BT35" s="176"/>
-      <c r="BU35" s="176"/>
-      <c r="BV35" s="176"/>
+      <c r="X35" s="205"/>
+      <c r="Y35" s="206"/>
+      <c r="Z35" s="206"/>
+      <c r="AA35" s="206"/>
+      <c r="AB35" s="207"/>
+      <c r="AC35" s="56"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="137"/>
+      <c r="AQ35" s="253"/>
+      <c r="AR35" s="229"/>
+      <c r="AS35" s="69"/>
+      <c r="AT35" s="69"/>
+      <c r="AU35" s="69"/>
+      <c r="AV35" s="69"/>
+      <c r="AW35" s="69"/>
+      <c r="AX35" s="69"/>
+      <c r="AY35" s="69"/>
+      <c r="AZ35" s="249"/>
+      <c r="BA35" s="250"/>
+      <c r="BB35" s="250"/>
+      <c r="BC35" s="250"/>
+      <c r="BD35" s="251"/>
+      <c r="BE35" s="73"/>
+      <c r="BF35" s="50"/>
+      <c r="BG35" s="189"/>
+      <c r="BH35" s="189"/>
+      <c r="BI35" s="189"/>
+      <c r="BJ35" s="189"/>
+      <c r="BK35" s="189"/>
+      <c r="BL35" s="189"/>
+      <c r="BM35" s="295"/>
+      <c r="BN35" s="189"/>
+      <c r="BO35" s="189"/>
+      <c r="BP35" s="189"/>
+      <c r="BQ35" s="189"/>
+      <c r="BR35" s="189"/>
+      <c r="BS35" s="295"/>
+      <c r="BT35" s="189"/>
+      <c r="BU35" s="189"/>
+      <c r="BV35" s="189"/>
       <c r="CG35" s="18"/>
       <c r="CH35" s="18"/>
       <c r="CI35" s="18"/>
@@ -6944,82 +6915,78 @@
       <c r="DC35" s="18"/>
     </row>
     <row r="36" spans="2:107" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="65"/>
-      <c r="C36" s="311"/>
-      <c r="D36" s="311"/>
-      <c r="E36" s="311"/>
-      <c r="F36" s="313"/>
-      <c r="G36" s="322" t="str">
+      <c r="B36" s="63"/>
+      <c r="G36" s="299" t="str">
         <f>"Estimates Based on Geofence and "&amp;AA7&amp;" Role"</f>
         <v>Estimates Based on Geofence and  Role</v>
       </c>
-      <c r="H36" s="323"/>
-      <c r="I36" s="323"/>
-      <c r="J36" s="324"/>
-      <c r="K36" s="324"/>
-      <c r="L36" s="324"/>
-      <c r="M36" s="324"/>
-      <c r="N36" s="324"/>
-      <c r="O36" s="324"/>
-      <c r="P36" s="324"/>
-      <c r="Q36" s="324"/>
-      <c r="R36" s="324"/>
-      <c r="S36" s="324"/>
-      <c r="T36" s="324"/>
-      <c r="U36" s="324"/>
-      <c r="V36" s="325"/>
+      <c r="H36" s="300"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="301"/>
+      <c r="K36" s="301"/>
+      <c r="L36" s="301"/>
+      <c r="M36" s="301"/>
+      <c r="N36" s="301"/>
+      <c r="O36" s="301"/>
+      <c r="P36" s="301"/>
+      <c r="Q36" s="301"/>
+      <c r="R36" s="301"/>
+      <c r="S36" s="301"/>
+      <c r="T36" s="301"/>
+      <c r="U36" s="301"/>
+      <c r="V36" s="302"/>
       <c r="W36" s="17"/>
-      <c r="X36" s="293"/>
-      <c r="Y36" s="294"/>
-      <c r="Z36" s="294"/>
-      <c r="AA36" s="294"/>
-      <c r="AB36" s="206"/>
-      <c r="AC36" s="141"/>
-      <c r="AD36" s="141"/>
-      <c r="AE36" s="141"/>
-      <c r="AF36" s="141"/>
-      <c r="AG36" s="141"/>
-      <c r="AH36" s="141"/>
-      <c r="AI36" s="141"/>
-      <c r="AJ36" s="141"/>
-      <c r="AK36" s="141"/>
-      <c r="AL36" s="141"/>
-      <c r="AM36" s="141"/>
-      <c r="AN36" s="141"/>
-      <c r="AO36" s="141"/>
-      <c r="AP36" s="140"/>
-      <c r="AQ36" s="260"/>
-      <c r="AR36" s="193"/>
-      <c r="AS36" s="72"/>
-      <c r="AT36" s="72"/>
-      <c r="AU36" s="72"/>
-      <c r="AV36" s="72"/>
-      <c r="AW36" s="72"/>
-      <c r="AX36" s="72"/>
-      <c r="AY36" s="72"/>
-      <c r="AZ36" s="214"/>
-      <c r="BA36" s="215"/>
-      <c r="BB36" s="215"/>
-      <c r="BC36" s="215"/>
-      <c r="BD36" s="216"/>
-      <c r="BE36" s="76"/>
-      <c r="BF36" s="52"/>
-      <c r="BG36" s="52"/>
-      <c r="BH36" s="52"/>
-      <c r="BI36" s="52"/>
-      <c r="BJ36" s="52"/>
-      <c r="BK36" s="52"/>
-      <c r="BL36" s="52"/>
-      <c r="BM36" s="52"/>
-      <c r="BN36" s="52"/>
-      <c r="BO36" s="52"/>
-      <c r="BP36" s="52"/>
-      <c r="BQ36" s="52"/>
-      <c r="BR36" s="52"/>
-      <c r="BS36" s="52"/>
-      <c r="BT36" s="52"/>
-      <c r="BU36" s="52"/>
-      <c r="BV36" s="52"/>
+      <c r="X36" s="208"/>
+      <c r="Y36" s="209"/>
+      <c r="Z36" s="209"/>
+      <c r="AA36" s="209"/>
+      <c r="AB36" s="210"/>
+      <c r="AC36" s="138"/>
+      <c r="AD36" s="138"/>
+      <c r="AE36" s="138"/>
+      <c r="AF36" s="138"/>
+      <c r="AG36" s="138"/>
+      <c r="AH36" s="138"/>
+      <c r="AI36" s="138"/>
+      <c r="AJ36" s="138"/>
+      <c r="AK36" s="138"/>
+      <c r="AL36" s="138"/>
+      <c r="AM36" s="138"/>
+      <c r="AN36" s="138"/>
+      <c r="AO36" s="138"/>
+      <c r="AP36" s="137"/>
+      <c r="AQ36" s="253"/>
+      <c r="AR36" s="229"/>
+      <c r="AS36" s="69"/>
+      <c r="AT36" s="69"/>
+      <c r="AU36" s="69"/>
+      <c r="AV36" s="69"/>
+      <c r="AW36" s="69"/>
+      <c r="AX36" s="69"/>
+      <c r="AY36" s="69"/>
+      <c r="AZ36" s="249"/>
+      <c r="BA36" s="250"/>
+      <c r="BB36" s="250"/>
+      <c r="BC36" s="250"/>
+      <c r="BD36" s="251"/>
+      <c r="BE36" s="73"/>
+      <c r="BF36" s="50"/>
+      <c r="BG36" s="50"/>
+      <c r="BH36" s="50"/>
+      <c r="BI36" s="50"/>
+      <c r="BJ36" s="50"/>
+      <c r="BK36" s="50"/>
+      <c r="BL36" s="50"/>
+      <c r="BM36" s="50"/>
+      <c r="BN36" s="50"/>
+      <c r="BO36" s="50"/>
+      <c r="BP36" s="50"/>
+      <c r="BQ36" s="50"/>
+      <c r="BR36" s="50"/>
+      <c r="BS36" s="50"/>
+      <c r="BT36" s="50"/>
+      <c r="BU36" s="50"/>
+      <c r="BV36" s="50"/>
       <c r="CG36" s="18"/>
       <c r="CH36" s="18"/>
       <c r="CI36" s="18"/>
@@ -7046,31 +7013,31 @@
     </row>
     <row r="37" spans="2:107" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="38"/>
-      <c r="C37" s="316"/>
-      <c r="D37" s="316"/>
-      <c r="E37" s="316"/>
-      <c r="F37" s="316"/>
-      <c r="G37" s="326"/>
-      <c r="H37" s="327"/>
-      <c r="I37" s="327"/>
-      <c r="J37" s="328"/>
-      <c r="K37" s="328"/>
-      <c r="L37" s="328"/>
-      <c r="M37" s="328"/>
-      <c r="N37" s="328"/>
-      <c r="O37" s="328"/>
-      <c r="P37" s="328"/>
-      <c r="Q37" s="328"/>
-      <c r="R37" s="328"/>
-      <c r="S37" s="328"/>
-      <c r="T37" s="328"/>
-      <c r="U37" s="328"/>
-      <c r="V37" s="329"/>
-      <c r="X37" s="293"/>
-      <c r="Y37" s="294"/>
-      <c r="Z37" s="294"/>
-      <c r="AA37" s="294"/>
-      <c r="AB37" s="206"/>
+      <c r="C37" s="180"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="303"/>
+      <c r="H37" s="304"/>
+      <c r="I37" s="304"/>
+      <c r="J37" s="305"/>
+      <c r="K37" s="305"/>
+      <c r="L37" s="305"/>
+      <c r="M37" s="305"/>
+      <c r="N37" s="305"/>
+      <c r="O37" s="305"/>
+      <c r="P37" s="305"/>
+      <c r="Q37" s="305"/>
+      <c r="R37" s="305"/>
+      <c r="S37" s="305"/>
+      <c r="T37" s="305"/>
+      <c r="U37" s="305"/>
+      <c r="V37" s="306"/>
+      <c r="X37" s="208"/>
+      <c r="Y37" s="209"/>
+      <c r="Z37" s="209"/>
+      <c r="AA37" s="209"/>
+      <c r="AB37" s="210"/>
       <c r="AD37" s="30"/>
       <c r="AE37" s="30"/>
       <c r="AF37" s="30"/>
@@ -7083,39 +7050,39 @@
       <c r="AM37" s="30"/>
       <c r="AN37" s="30"/>
       <c r="AO37" s="30"/>
-      <c r="AP37" s="142"/>
-      <c r="AQ37" s="142"/>
-      <c r="AR37" s="143"/>
-      <c r="AS37" s="72"/>
-      <c r="AT37" s="72"/>
-      <c r="AU37" s="72"/>
-      <c r="AV37" s="72"/>
-      <c r="AW37" s="72"/>
-      <c r="AX37" s="72"/>
-      <c r="AY37" s="72"/>
-      <c r="AZ37" s="72"/>
-      <c r="BA37" s="72"/>
-      <c r="BB37" s="52"/>
-      <c r="BC37" s="52"/>
-      <c r="BD37" s="52"/>
-      <c r="BE37" s="52"/>
-      <c r="BF37" s="52"/>
-      <c r="BG37" s="52"/>
-      <c r="BH37" s="52"/>
-      <c r="BI37" s="52"/>
-      <c r="BJ37" s="52"/>
-      <c r="BK37" s="52"/>
-      <c r="BL37" s="52"/>
-      <c r="BM37" s="52"/>
-      <c r="BN37" s="52"/>
-      <c r="BO37" s="52"/>
-      <c r="BP37" s="52"/>
-      <c r="BQ37" s="52"/>
-      <c r="BR37" s="52"/>
-      <c r="BS37" s="52"/>
-      <c r="BT37" s="52"/>
-      <c r="BU37" s="52"/>
-      <c r="BV37" s="52"/>
+      <c r="AP37" s="139"/>
+      <c r="AQ37" s="139"/>
+      <c r="AR37" s="140"/>
+      <c r="AS37" s="69"/>
+      <c r="AT37" s="69"/>
+      <c r="AU37" s="69"/>
+      <c r="AV37" s="69"/>
+      <c r="AW37" s="69"/>
+      <c r="AX37" s="69"/>
+      <c r="AY37" s="69"/>
+      <c r="AZ37" s="69"/>
+      <c r="BA37" s="69"/>
+      <c r="BB37" s="50"/>
+      <c r="BC37" s="50"/>
+      <c r="BD37" s="50"/>
+      <c r="BE37" s="50"/>
+      <c r="BF37" s="50"/>
+      <c r="BG37" s="50"/>
+      <c r="BH37" s="50"/>
+      <c r="BI37" s="50"/>
+      <c r="BJ37" s="50"/>
+      <c r="BK37" s="50"/>
+      <c r="BL37" s="50"/>
+      <c r="BM37" s="50"/>
+      <c r="BN37" s="50"/>
+      <c r="BO37" s="50"/>
+      <c r="BP37" s="50"/>
+      <c r="BQ37" s="50"/>
+      <c r="BR37" s="50"/>
+      <c r="BS37" s="50"/>
+      <c r="BT37" s="50"/>
+      <c r="BU37" s="50"/>
+      <c r="BV37" s="50"/>
       <c r="CG37" s="18"/>
       <c r="CH37" s="18"/>
       <c r="CI37" s="18"/>
@@ -7142,37 +7109,37 @@
     </row>
     <row r="38" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="38"/>
-      <c r="C38" s="316"/>
-      <c r="D38" s="316"/>
-      <c r="E38" s="316"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="180"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="300" t="s">
+      <c r="G38" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="187"/>
-      <c r="K38" s="188"/>
-      <c r="L38" s="265" t="s">
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="186"/>
+      <c r="K38" s="187"/>
+      <c r="L38" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="320"/>
-      <c r="N38" s="320"/>
-      <c r="O38" s="320"/>
-      <c r="P38" s="320"/>
-      <c r="Q38" s="321"/>
-      <c r="R38" s="186" t="s">
+      <c r="M38" s="186"/>
+      <c r="N38" s="186"/>
+      <c r="O38" s="186"/>
+      <c r="P38" s="186"/>
+      <c r="Q38" s="187"/>
+      <c r="R38" s="319" t="s">
         <v>22</v>
       </c>
-      <c r="S38" s="320"/>
-      <c r="T38" s="320"/>
-      <c r="U38" s="320"/>
-      <c r="V38" s="321"/>
-      <c r="X38" s="293"/>
-      <c r="Y38" s="294"/>
-      <c r="Z38" s="294"/>
-      <c r="AA38" s="294"/>
-      <c r="AB38" s="206"/>
+      <c r="S38" s="186"/>
+      <c r="T38" s="186"/>
+      <c r="U38" s="186"/>
+      <c r="V38" s="187"/>
+      <c r="X38" s="208"/>
+      <c r="Y38" s="209"/>
+      <c r="Z38" s="209"/>
+      <c r="AA38" s="209"/>
+      <c r="AB38" s="210"/>
       <c r="AD38" s="30"/>
       <c r="AE38" s="30"/>
       <c r="AF38" s="30"/>
@@ -7185,39 +7152,39 @@
       <c r="AM38" s="30"/>
       <c r="AN38" s="30"/>
       <c r="AO38" s="30"/>
-      <c r="AP38" s="142"/>
-      <c r="AQ38" s="142"/>
-      <c r="AR38" s="143"/>
-      <c r="AS38" s="72"/>
-      <c r="AT38" s="72"/>
-      <c r="AU38" s="72"/>
-      <c r="AV38" s="72"/>
-      <c r="AW38" s="72"/>
-      <c r="AX38" s="72"/>
-      <c r="AY38" s="72"/>
-      <c r="AZ38" s="72"/>
-      <c r="BA38" s="72"/>
-      <c r="BB38" s="52"/>
-      <c r="BC38" s="52"/>
-      <c r="BD38" s="52"/>
-      <c r="BE38" s="52"/>
-      <c r="BF38" s="52"/>
-      <c r="BG38" s="52"/>
-      <c r="BH38" s="52"/>
-      <c r="BI38" s="52"/>
-      <c r="BJ38" s="52"/>
-      <c r="BK38" s="52"/>
-      <c r="BL38" s="52"/>
-      <c r="BM38" s="52"/>
-      <c r="BN38" s="52"/>
-      <c r="BO38" s="52"/>
-      <c r="BP38" s="52"/>
-      <c r="BQ38" s="52"/>
-      <c r="BR38" s="52"/>
-      <c r="BS38" s="52"/>
-      <c r="BT38" s="52"/>
-      <c r="BU38" s="52"/>
-      <c r="BV38" s="52"/>
+      <c r="AP38" s="139"/>
+      <c r="AQ38" s="139"/>
+      <c r="AR38" s="140"/>
+      <c r="AS38" s="69"/>
+      <c r="AT38" s="69"/>
+      <c r="AU38" s="69"/>
+      <c r="AV38" s="69"/>
+      <c r="AW38" s="69"/>
+      <c r="AX38" s="69"/>
+      <c r="AY38" s="69"/>
+      <c r="AZ38" s="69"/>
+      <c r="BA38" s="69"/>
+      <c r="BB38" s="50"/>
+      <c r="BC38" s="50"/>
+      <c r="BD38" s="50"/>
+      <c r="BE38" s="50"/>
+      <c r="BF38" s="50"/>
+      <c r="BG38" s="50"/>
+      <c r="BH38" s="50"/>
+      <c r="BI38" s="50"/>
+      <c r="BJ38" s="50"/>
+      <c r="BK38" s="50"/>
+      <c r="BL38" s="50"/>
+      <c r="BM38" s="50"/>
+      <c r="BN38" s="50"/>
+      <c r="BO38" s="50"/>
+      <c r="BP38" s="50"/>
+      <c r="BQ38" s="50"/>
+      <c r="BR38" s="50"/>
+      <c r="BS38" s="50"/>
+      <c r="BT38" s="50"/>
+      <c r="BU38" s="50"/>
+      <c r="BV38" s="50"/>
       <c r="CG38" s="18"/>
       <c r="CH38" s="18"/>
       <c r="CI38" s="18"/>
@@ -7244,82 +7211,82 @@
     </row>
     <row r="39" spans="2:107" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="38"/>
-      <c r="C39" s="316"/>
-      <c r="D39" s="316"/>
-      <c r="E39" s="316"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="180"/>
+      <c r="E39" s="180"/>
       <c r="F39" s="39"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="191"/>
-      <c r="L39" s="208" t="s">
+      <c r="G39" s="191"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="192"/>
+      <c r="K39" s="193"/>
+      <c r="L39" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="M39" s="190"/>
-      <c r="N39" s="191"/>
-      <c r="O39" s="208" t="s">
+      <c r="M39" s="192"/>
+      <c r="N39" s="193"/>
+      <c r="O39" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="190"/>
-      <c r="Q39" s="191"/>
-      <c r="R39" s="330"/>
-      <c r="S39" s="331"/>
-      <c r="T39" s="331"/>
-      <c r="U39" s="331"/>
-      <c r="V39" s="332"/>
+      <c r="P39" s="192"/>
+      <c r="Q39" s="193"/>
+      <c r="R39" s="191"/>
+      <c r="S39" s="192"/>
+      <c r="T39" s="192"/>
+      <c r="U39" s="192"/>
+      <c r="V39" s="193"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="293"/>
-      <c r="Y39" s="294"/>
-      <c r="Z39" s="294"/>
-      <c r="AA39" s="294"/>
-      <c r="AB39" s="206"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="53"/>
-      <c r="AF39" s="53"/>
-      <c r="AG39" s="53"/>
-      <c r="AH39" s="53"/>
-      <c r="AI39" s="53"/>
-      <c r="AJ39" s="53"/>
-      <c r="AK39" s="53"/>
-      <c r="AL39" s="53"/>
-      <c r="AM39" s="53"/>
-      <c r="AN39" s="53"/>
-      <c r="AO39" s="53"/>
-      <c r="AP39" s="54"/>
-      <c r="AQ39" s="54"/>
-      <c r="AR39" s="144"/>
-      <c r="AS39" s="72"/>
-      <c r="AT39" s="72"/>
-      <c r="AU39" s="72"/>
-      <c r="AV39" s="72"/>
-      <c r="AW39" s="72"/>
-      <c r="AX39" s="72"/>
-      <c r="AY39" s="72"/>
-      <c r="AZ39" s="72"/>
-      <c r="BA39" s="72"/>
-      <c r="BB39" s="52"/>
-      <c r="BC39" s="52"/>
-      <c r="BD39" s="52"/>
-      <c r="BE39" s="52"/>
-      <c r="BF39" s="52"/>
-      <c r="BG39" s="52"/>
-      <c r="BH39" s="52"/>
-      <c r="BI39" s="52"/>
-      <c r="BJ39" s="52"/>
-      <c r="BK39" s="52"/>
-      <c r="BL39" s="52"/>
-      <c r="BM39" s="52"/>
-      <c r="BN39" s="52"/>
-      <c r="BO39" s="52"/>
-      <c r="BP39" s="52"/>
-      <c r="BQ39" s="52"/>
-      <c r="BR39" s="52"/>
-      <c r="BS39" s="52"/>
-      <c r="BT39" s="52"/>
-      <c r="BU39" s="52"/>
-      <c r="BV39" s="52"/>
+      <c r="X39" s="208"/>
+      <c r="Y39" s="209"/>
+      <c r="Z39" s="209"/>
+      <c r="AA39" s="209"/>
+      <c r="AB39" s="210"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="51"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="51"/>
+      <c r="AP39" s="52"/>
+      <c r="AQ39" s="52"/>
+      <c r="AR39" s="141"/>
+      <c r="AS39" s="69"/>
+      <c r="AT39" s="69"/>
+      <c r="AU39" s="69"/>
+      <c r="AV39" s="69"/>
+      <c r="AW39" s="69"/>
+      <c r="AX39" s="69"/>
+      <c r="AY39" s="69"/>
+      <c r="AZ39" s="69"/>
+      <c r="BA39" s="69"/>
+      <c r="BB39" s="50"/>
+      <c r="BC39" s="50"/>
+      <c r="BD39" s="50"/>
+      <c r="BE39" s="50"/>
+      <c r="BF39" s="50"/>
+      <c r="BG39" s="50"/>
+      <c r="BH39" s="50"/>
+      <c r="BI39" s="50"/>
+      <c r="BJ39" s="50"/>
+      <c r="BK39" s="50"/>
+      <c r="BL39" s="50"/>
+      <c r="BM39" s="50"/>
+      <c r="BN39" s="50"/>
+      <c r="BO39" s="50"/>
+      <c r="BP39" s="50"/>
+      <c r="BQ39" s="50"/>
+      <c r="BR39" s="50"/>
+      <c r="BS39" s="50"/>
+      <c r="BT39" s="50"/>
+      <c r="BU39" s="50"/>
+      <c r="BV39" s="50"/>
       <c r="CG39" s="18"/>
       <c r="CH39" s="18"/>
       <c r="CI39" s="18"/>
@@ -7346,89 +7313,89 @@
     </row>
     <row r="40" spans="2:107" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="38"/>
-      <c r="C40" s="316"/>
-      <c r="D40" s="316"/>
-      <c r="E40" s="316"/>
+      <c r="C40" s="180"/>
+      <c r="D40" s="180"/>
+      <c r="E40" s="180"/>
       <c r="F40" s="39"/>
-      <c r="G40" s="298" t="s">
+      <c r="G40" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="187"/>
-      <c r="K40" s="188"/>
-      <c r="L40" s="246">
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="186"/>
+      <c r="K40" s="187"/>
+      <c r="L40" s="202">
         <f>AA31</f>
         <v>0</v>
       </c>
-      <c r="M40" s="187"/>
-      <c r="N40" s="188"/>
-      <c r="O40" s="246">
+      <c r="M40" s="186"/>
+      <c r="N40" s="187"/>
+      <c r="O40" s="202">
         <f>L40*2</f>
         <v>0</v>
       </c>
-      <c r="P40" s="187"/>
-      <c r="Q40" s="188"/>
-      <c r="R40" s="196">
+      <c r="P40" s="186"/>
+      <c r="Q40" s="187"/>
+      <c r="R40" s="235">
         <f>Y$6</f>
         <v>0</v>
       </c>
-      <c r="S40" s="187"/>
-      <c r="T40" s="187"/>
-      <c r="U40" s="187"/>
-      <c r="V40" s="188"/>
+      <c r="S40" s="186"/>
+      <c r="T40" s="186"/>
+      <c r="U40" s="186"/>
+      <c r="V40" s="187"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="293"/>
-      <c r="Y40" s="294"/>
-      <c r="Z40" s="294"/>
-      <c r="AA40" s="294"/>
-      <c r="AB40" s="206"/>
-      <c r="AC40" s="53"/>
-      <c r="AD40" s="53"/>
-      <c r="AE40" s="53"/>
-      <c r="AF40" s="53"/>
-      <c r="AG40" s="53"/>
-      <c r="AH40" s="53"/>
-      <c r="AI40" s="53"/>
-      <c r="AJ40" s="53"/>
-      <c r="AK40" s="53"/>
-      <c r="AL40" s="53"/>
-      <c r="AM40" s="53"/>
-      <c r="AN40" s="53"/>
-      <c r="AO40" s="53"/>
-      <c r="AP40" s="145"/>
-      <c r="AQ40" s="54"/>
-      <c r="AR40" s="144"/>
-      <c r="AS40" s="72"/>
-      <c r="AT40" s="72"/>
-      <c r="AU40" s="72"/>
-      <c r="AV40" s="72"/>
-      <c r="AW40" s="72"/>
-      <c r="AX40" s="72"/>
-      <c r="AY40" s="72"/>
-      <c r="AZ40" s="72"/>
-      <c r="BA40" s="72"/>
-      <c r="BB40" s="52"/>
-      <c r="BC40" s="52"/>
-      <c r="BD40" s="52"/>
-      <c r="BE40" s="52"/>
-      <c r="BF40" s="52"/>
-      <c r="BG40" s="52"/>
-      <c r="BH40" s="52"/>
-      <c r="BI40" s="52"/>
-      <c r="BJ40" s="52"/>
-      <c r="BK40" s="52"/>
-      <c r="BL40" s="52"/>
-      <c r="BM40" s="52"/>
-      <c r="BN40" s="52"/>
-      <c r="BO40" s="52"/>
-      <c r="BP40" s="52"/>
-      <c r="BQ40" s="52"/>
-      <c r="BR40" s="52"/>
-      <c r="BS40" s="52"/>
-      <c r="BT40" s="52"/>
-      <c r="BU40" s="52"/>
-      <c r="BV40" s="52"/>
+      <c r="X40" s="208"/>
+      <c r="Y40" s="209"/>
+      <c r="Z40" s="209"/>
+      <c r="AA40" s="209"/>
+      <c r="AB40" s="210"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="51"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="51"/>
+      <c r="AM40" s="51"/>
+      <c r="AN40" s="51"/>
+      <c r="AO40" s="51"/>
+      <c r="AP40" s="142"/>
+      <c r="AQ40" s="52"/>
+      <c r="AR40" s="141"/>
+      <c r="AS40" s="69"/>
+      <c r="AT40" s="69"/>
+      <c r="AU40" s="69"/>
+      <c r="AV40" s="69"/>
+      <c r="AW40" s="69"/>
+      <c r="AX40" s="69"/>
+      <c r="AY40" s="69"/>
+      <c r="AZ40" s="69"/>
+      <c r="BA40" s="69"/>
+      <c r="BB40" s="50"/>
+      <c r="BC40" s="50"/>
+      <c r="BD40" s="50"/>
+      <c r="BE40" s="50"/>
+      <c r="BF40" s="50"/>
+      <c r="BG40" s="50"/>
+      <c r="BH40" s="50"/>
+      <c r="BI40" s="50"/>
+      <c r="BJ40" s="50"/>
+      <c r="BK40" s="50"/>
+      <c r="BL40" s="50"/>
+      <c r="BM40" s="50"/>
+      <c r="BN40" s="50"/>
+      <c r="BO40" s="50"/>
+      <c r="BP40" s="50"/>
+      <c r="BQ40" s="50"/>
+      <c r="BR40" s="50"/>
+      <c r="BS40" s="50"/>
+      <c r="BT40" s="50"/>
+      <c r="BU40" s="50"/>
+      <c r="BV40" s="50"/>
       <c r="CG40" s="18"/>
       <c r="CH40" s="18"/>
       <c r="CI40" s="18"/>
@@ -7455,78 +7422,78 @@
     </row>
     <row r="41" spans="2:107" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="38"/>
-      <c r="C41" s="316"/>
-      <c r="D41" s="316"/>
-      <c r="E41" s="316"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
       <c r="F41" s="39"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="191"/>
-      <c r="L41" s="189"/>
-      <c r="M41" s="190"/>
-      <c r="N41" s="191"/>
-      <c r="O41" s="189"/>
-      <c r="P41" s="190"/>
-      <c r="Q41" s="191"/>
-      <c r="R41" s="189"/>
-      <c r="S41" s="190"/>
-      <c r="T41" s="190"/>
-      <c r="U41" s="190"/>
-      <c r="V41" s="191"/>
+      <c r="G41" s="192"/>
+      <c r="H41" s="192"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="192"/>
+      <c r="K41" s="193"/>
+      <c r="L41" s="191"/>
+      <c r="M41" s="192"/>
+      <c r="N41" s="193"/>
+      <c r="O41" s="191"/>
+      <c r="P41" s="192"/>
+      <c r="Q41" s="193"/>
+      <c r="R41" s="191"/>
+      <c r="S41" s="192"/>
+      <c r="T41" s="192"/>
+      <c r="U41" s="192"/>
+      <c r="V41" s="193"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="293"/>
-      <c r="Y41" s="294"/>
-      <c r="Z41" s="294"/>
-      <c r="AA41" s="294"/>
-      <c r="AB41" s="206"/>
-      <c r="AC41" s="53"/>
-      <c r="AD41" s="53"/>
-      <c r="AE41" s="53"/>
-      <c r="AF41" s="53"/>
-      <c r="AG41" s="53"/>
-      <c r="AH41" s="53"/>
-      <c r="AI41" s="53"/>
-      <c r="AJ41" s="53"/>
-      <c r="AK41" s="53"/>
-      <c r="AL41" s="53"/>
-      <c r="AM41" s="53"/>
-      <c r="AN41" s="53"/>
-      <c r="AO41" s="53"/>
-      <c r="AP41" s="54"/>
-      <c r="AQ41" s="54"/>
-      <c r="AR41" s="146"/>
-      <c r="AS41" s="72"/>
-      <c r="AT41" s="72"/>
-      <c r="AU41" s="72"/>
-      <c r="AV41" s="72"/>
-      <c r="AW41" s="72"/>
-      <c r="AX41" s="72"/>
-      <c r="AY41" s="72"/>
-      <c r="AZ41" s="72"/>
-      <c r="BA41" s="72"/>
-      <c r="BB41" s="52"/>
-      <c r="BC41" s="52"/>
-      <c r="BD41" s="52"/>
-      <c r="BE41" s="52"/>
-      <c r="BF41" s="52"/>
-      <c r="BG41" s="52"/>
-      <c r="BH41" s="52"/>
-      <c r="BI41" s="52"/>
-      <c r="BJ41" s="52"/>
-      <c r="BK41" s="52"/>
-      <c r="BL41" s="52"/>
-      <c r="BM41" s="52"/>
-      <c r="BN41" s="52"/>
-      <c r="BO41" s="52"/>
-      <c r="BP41" s="52"/>
-      <c r="BQ41" s="52"/>
-      <c r="BR41" s="52"/>
-      <c r="BS41" s="52"/>
-      <c r="BT41" s="52"/>
-      <c r="BU41" s="52"/>
-      <c r="BV41" s="52"/>
+      <c r="X41" s="208"/>
+      <c r="Y41" s="209"/>
+      <c r="Z41" s="209"/>
+      <c r="AA41" s="209"/>
+      <c r="AB41" s="210"/>
+      <c r="AC41" s="51"/>
+      <c r="AD41" s="51"/>
+      <c r="AE41" s="51"/>
+      <c r="AF41" s="51"/>
+      <c r="AG41" s="51"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="51"/>
+      <c r="AJ41" s="51"/>
+      <c r="AK41" s="51"/>
+      <c r="AL41" s="51"/>
+      <c r="AM41" s="51"/>
+      <c r="AN41" s="51"/>
+      <c r="AO41" s="51"/>
+      <c r="AP41" s="52"/>
+      <c r="AQ41" s="52"/>
+      <c r="AR41" s="143"/>
+      <c r="AS41" s="69"/>
+      <c r="AT41" s="69"/>
+      <c r="AU41" s="69"/>
+      <c r="AV41" s="69"/>
+      <c r="AW41" s="69"/>
+      <c r="AX41" s="69"/>
+      <c r="AY41" s="69"/>
+      <c r="AZ41" s="69"/>
+      <c r="BA41" s="69"/>
+      <c r="BB41" s="50"/>
+      <c r="BC41" s="50"/>
+      <c r="BD41" s="50"/>
+      <c r="BE41" s="50"/>
+      <c r="BF41" s="50"/>
+      <c r="BG41" s="50"/>
+      <c r="BH41" s="50"/>
+      <c r="BI41" s="50"/>
+      <c r="BJ41" s="50"/>
+      <c r="BK41" s="50"/>
+      <c r="BL41" s="50"/>
+      <c r="BM41" s="50"/>
+      <c r="BN41" s="50"/>
+      <c r="BO41" s="50"/>
+      <c r="BP41" s="50"/>
+      <c r="BQ41" s="50"/>
+      <c r="BR41" s="50"/>
+      <c r="BS41" s="50"/>
+      <c r="BT41" s="50"/>
+      <c r="BU41" s="50"/>
+      <c r="BV41" s="50"/>
       <c r="CG41" s="18"/>
       <c r="CH41" s="18"/>
       <c r="CI41" s="18"/>
@@ -7553,89 +7520,89 @@
     </row>
     <row r="42" spans="2:107" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="38"/>
-      <c r="C42" s="316"/>
-      <c r="D42" s="316"/>
-      <c r="E42" s="316"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="180"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="298" t="s">
+      <c r="G42" s="214" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="187"/>
-      <c r="K42" s="188"/>
-      <c r="L42" s="246">
+      <c r="H42" s="186"/>
+      <c r="I42" s="186"/>
+      <c r="J42" s="186"/>
+      <c r="K42" s="187"/>
+      <c r="L42" s="202">
         <f>L40/2</f>
         <v>0</v>
       </c>
-      <c r="M42" s="187"/>
-      <c r="N42" s="188"/>
-      <c r="O42" s="246">
+      <c r="M42" s="186"/>
+      <c r="N42" s="187"/>
+      <c r="O42" s="202">
         <f>L42*2.333</f>
         <v>0</v>
       </c>
-      <c r="P42" s="187"/>
-      <c r="Q42" s="188"/>
-      <c r="R42" s="196">
+      <c r="P42" s="186"/>
+      <c r="Q42" s="187"/>
+      <c r="R42" s="235">
         <f>Y$7</f>
         <v>0</v>
       </c>
-      <c r="S42" s="187"/>
-      <c r="T42" s="187"/>
-      <c r="U42" s="187"/>
-      <c r="V42" s="188"/>
+      <c r="S42" s="186"/>
+      <c r="T42" s="186"/>
+      <c r="U42" s="186"/>
+      <c r="V42" s="187"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="293"/>
-      <c r="Y42" s="294"/>
-      <c r="Z42" s="294"/>
-      <c r="AA42" s="294"/>
-      <c r="AB42" s="206"/>
-      <c r="AC42" s="53"/>
-      <c r="AD42" s="53"/>
-      <c r="AE42" s="53"/>
-      <c r="AF42" s="53"/>
-      <c r="AG42" s="53"/>
-      <c r="AH42" s="53"/>
-      <c r="AI42" s="53"/>
-      <c r="AJ42" s="53"/>
-      <c r="AK42" s="53"/>
-      <c r="AL42" s="53"/>
-      <c r="AM42" s="53"/>
-      <c r="AN42" s="53"/>
-      <c r="AO42" s="53"/>
-      <c r="AP42" s="54"/>
-      <c r="AQ42" s="54"/>
-      <c r="AR42" s="273"/>
-      <c r="AS42" s="72"/>
-      <c r="AT42" s="72"/>
-      <c r="AU42" s="72"/>
-      <c r="AV42" s="72"/>
-      <c r="AW42" s="72"/>
-      <c r="AX42" s="72"/>
-      <c r="AY42" s="72"/>
-      <c r="AZ42" s="72"/>
-      <c r="BA42" s="72"/>
-      <c r="BB42" s="52"/>
-      <c r="BC42" s="52"/>
-      <c r="BD42" s="52"/>
-      <c r="BE42" s="52"/>
-      <c r="BF42" s="52"/>
-      <c r="BG42" s="52"/>
-      <c r="BH42" s="52"/>
-      <c r="BI42" s="52"/>
-      <c r="BJ42" s="52"/>
-      <c r="BK42" s="52"/>
-      <c r="BL42" s="52"/>
-      <c r="BM42" s="52"/>
-      <c r="BN42" s="52"/>
-      <c r="BO42" s="52"/>
-      <c r="BP42" s="52"/>
-      <c r="BQ42" s="52"/>
-      <c r="BR42" s="52"/>
-      <c r="BS42" s="52"/>
-      <c r="BT42" s="52"/>
-      <c r="BU42" s="52"/>
-      <c r="BV42" s="52"/>
+      <c r="X42" s="208"/>
+      <c r="Y42" s="209"/>
+      <c r="Z42" s="209"/>
+      <c r="AA42" s="209"/>
+      <c r="AB42" s="210"/>
+      <c r="AC42" s="51"/>
+      <c r="AD42" s="51"/>
+      <c r="AE42" s="51"/>
+      <c r="AF42" s="51"/>
+      <c r="AG42" s="51"/>
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="51"/>
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="51"/>
+      <c r="AL42" s="51"/>
+      <c r="AM42" s="51"/>
+      <c r="AN42" s="51"/>
+      <c r="AO42" s="51"/>
+      <c r="AP42" s="52"/>
+      <c r="AQ42" s="52"/>
+      <c r="AR42" s="252"/>
+      <c r="AS42" s="69"/>
+      <c r="AT42" s="69"/>
+      <c r="AU42" s="69"/>
+      <c r="AV42" s="69"/>
+      <c r="AW42" s="69"/>
+      <c r="AX42" s="69"/>
+      <c r="AY42" s="69"/>
+      <c r="AZ42" s="69"/>
+      <c r="BA42" s="69"/>
+      <c r="BB42" s="50"/>
+      <c r="BC42" s="50"/>
+      <c r="BD42" s="50"/>
+      <c r="BE42" s="50"/>
+      <c r="BF42" s="50"/>
+      <c r="BG42" s="50"/>
+      <c r="BH42" s="50"/>
+      <c r="BI42" s="50"/>
+      <c r="BJ42" s="50"/>
+      <c r="BK42" s="50"/>
+      <c r="BL42" s="50"/>
+      <c r="BM42" s="50"/>
+      <c r="BN42" s="50"/>
+      <c r="BO42" s="50"/>
+      <c r="BP42" s="50"/>
+      <c r="BQ42" s="50"/>
+      <c r="BR42" s="50"/>
+      <c r="BS42" s="50"/>
+      <c r="BT42" s="50"/>
+      <c r="BU42" s="50"/>
+      <c r="BV42" s="50"/>
       <c r="CG42" s="18"/>
       <c r="CH42" s="18"/>
       <c r="CI42" s="18"/>
@@ -7662,78 +7629,78 @@
     </row>
     <row r="43" spans="2:107" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="38"/>
-      <c r="C43" s="316"/>
-      <c r="D43" s="316"/>
-      <c r="E43" s="316"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="180"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="190"/>
-      <c r="H43" s="190"/>
-      <c r="I43" s="190"/>
-      <c r="J43" s="190"/>
-      <c r="K43" s="191"/>
-      <c r="L43" s="189"/>
-      <c r="M43" s="190"/>
-      <c r="N43" s="191"/>
-      <c r="O43" s="189"/>
-      <c r="P43" s="190"/>
-      <c r="Q43" s="191"/>
-      <c r="R43" s="189"/>
-      <c r="S43" s="190"/>
-      <c r="T43" s="190"/>
-      <c r="U43" s="190"/>
-      <c r="V43" s="191"/>
+      <c r="G43" s="192"/>
+      <c r="H43" s="192"/>
+      <c r="I43" s="192"/>
+      <c r="J43" s="192"/>
+      <c r="K43" s="193"/>
+      <c r="L43" s="191"/>
+      <c r="M43" s="192"/>
+      <c r="N43" s="193"/>
+      <c r="O43" s="191"/>
+      <c r="P43" s="192"/>
+      <c r="Q43" s="193"/>
+      <c r="R43" s="191"/>
+      <c r="S43" s="192"/>
+      <c r="T43" s="192"/>
+      <c r="U43" s="192"/>
+      <c r="V43" s="193"/>
       <c r="W43" s="1"/>
-      <c r="X43" s="293"/>
-      <c r="Y43" s="294"/>
-      <c r="Z43" s="294"/>
-      <c r="AA43" s="294"/>
-      <c r="AB43" s="206"/>
-      <c r="AC43" s="53"/>
-      <c r="AD43" s="53"/>
-      <c r="AE43" s="53"/>
-      <c r="AF43" s="53"/>
-      <c r="AG43" s="53"/>
-      <c r="AH43" s="53"/>
-      <c r="AI43" s="53"/>
-      <c r="AJ43" s="53"/>
-      <c r="AK43" s="53"/>
-      <c r="AL43" s="53"/>
-      <c r="AM43" s="53"/>
-      <c r="AN43" s="53"/>
-      <c r="AO43" s="53"/>
-      <c r="AP43" s="54"/>
-      <c r="AQ43" s="54"/>
-      <c r="AR43" s="193"/>
-      <c r="AS43" s="72"/>
-      <c r="AT43" s="72"/>
-      <c r="AU43" s="72"/>
-      <c r="AV43" s="72"/>
-      <c r="AW43" s="72"/>
-      <c r="AX43" s="72"/>
-      <c r="AY43" s="72"/>
-      <c r="AZ43" s="72"/>
-      <c r="BA43" s="72"/>
-      <c r="BB43" s="52"/>
-      <c r="BC43" s="52"/>
-      <c r="BD43" s="52"/>
-      <c r="BE43" s="52"/>
-      <c r="BF43" s="52"/>
-      <c r="BG43" s="52"/>
-      <c r="BH43" s="52"/>
-      <c r="BI43" s="52"/>
-      <c r="BJ43" s="52"/>
-      <c r="BK43" s="52"/>
-      <c r="BL43" s="52"/>
-      <c r="BM43" s="52"/>
-      <c r="BN43" s="52"/>
-      <c r="BO43" s="52"/>
-      <c r="BP43" s="52"/>
-      <c r="BQ43" s="52"/>
-      <c r="BR43" s="52"/>
-      <c r="BS43" s="52"/>
-      <c r="BT43" s="52"/>
-      <c r="BU43" s="52"/>
-      <c r="BV43" s="52"/>
+      <c r="X43" s="208"/>
+      <c r="Y43" s="209"/>
+      <c r="Z43" s="209"/>
+      <c r="AA43" s="209"/>
+      <c r="AB43" s="210"/>
+      <c r="AC43" s="51"/>
+      <c r="AD43" s="51"/>
+      <c r="AE43" s="51"/>
+      <c r="AF43" s="51"/>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="51"/>
+      <c r="AI43" s="51"/>
+      <c r="AJ43" s="51"/>
+      <c r="AK43" s="51"/>
+      <c r="AL43" s="51"/>
+      <c r="AM43" s="51"/>
+      <c r="AN43" s="51"/>
+      <c r="AO43" s="51"/>
+      <c r="AP43" s="52"/>
+      <c r="AQ43" s="52"/>
+      <c r="AR43" s="229"/>
+      <c r="AS43" s="69"/>
+      <c r="AT43" s="69"/>
+      <c r="AU43" s="69"/>
+      <c r="AV43" s="69"/>
+      <c r="AW43" s="69"/>
+      <c r="AX43" s="69"/>
+      <c r="AY43" s="69"/>
+      <c r="AZ43" s="69"/>
+      <c r="BA43" s="69"/>
+      <c r="BB43" s="50"/>
+      <c r="BC43" s="50"/>
+      <c r="BD43" s="50"/>
+      <c r="BE43" s="50"/>
+      <c r="BF43" s="50"/>
+      <c r="BG43" s="50"/>
+      <c r="BH43" s="50"/>
+      <c r="BI43" s="50"/>
+      <c r="BJ43" s="50"/>
+      <c r="BK43" s="50"/>
+      <c r="BL43" s="50"/>
+      <c r="BM43" s="50"/>
+      <c r="BN43" s="50"/>
+      <c r="BO43" s="50"/>
+      <c r="BP43" s="50"/>
+      <c r="BQ43" s="50"/>
+      <c r="BR43" s="50"/>
+      <c r="BS43" s="50"/>
+      <c r="BT43" s="50"/>
+      <c r="BU43" s="50"/>
+      <c r="BV43" s="50"/>
       <c r="CG43" s="18"/>
       <c r="CH43" s="18"/>
       <c r="CI43" s="18"/>
@@ -7760,89 +7727,89 @@
     </row>
     <row r="44" spans="2:107" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="38"/>
-      <c r="C44" s="316"/>
-      <c r="D44" s="316"/>
-      <c r="E44" s="316"/>
+      <c r="C44" s="180"/>
+      <c r="D44" s="180"/>
+      <c r="E44" s="180"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="299" t="s">
+      <c r="G44" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="187"/>
-      <c r="I44" s="187"/>
-      <c r="J44" s="187"/>
-      <c r="K44" s="188"/>
-      <c r="L44" s="228">
+      <c r="H44" s="186"/>
+      <c r="I44" s="186"/>
+      <c r="J44" s="186"/>
+      <c r="K44" s="187"/>
+      <c r="L44" s="264">
         <f>L42/2</f>
         <v>0</v>
       </c>
-      <c r="M44" s="187"/>
-      <c r="N44" s="188"/>
-      <c r="O44" s="228">
+      <c r="M44" s="186"/>
+      <c r="N44" s="187"/>
+      <c r="O44" s="264">
         <f>L44*2.333</f>
         <v>0</v>
       </c>
-      <c r="P44" s="187"/>
-      <c r="Q44" s="188"/>
-      <c r="R44" s="274">
+      <c r="P44" s="186"/>
+      <c r="Q44" s="187"/>
+      <c r="R44" s="254">
         <f>Y$8</f>
         <v>0</v>
       </c>
-      <c r="S44" s="187"/>
-      <c r="T44" s="187"/>
-      <c r="U44" s="187"/>
-      <c r="V44" s="188"/>
+      <c r="S44" s="186"/>
+      <c r="T44" s="186"/>
+      <c r="U44" s="186"/>
+      <c r="V44" s="187"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="293"/>
-      <c r="Y44" s="294"/>
-      <c r="Z44" s="294"/>
-      <c r="AA44" s="294"/>
-      <c r="AB44" s="206"/>
-      <c r="AC44" s="53"/>
-      <c r="AD44" s="53"/>
-      <c r="AE44" s="53"/>
-      <c r="AF44" s="53"/>
-      <c r="AG44" s="53"/>
-      <c r="AH44" s="53"/>
-      <c r="AI44" s="53"/>
-      <c r="AJ44" s="53"/>
-      <c r="AK44" s="53"/>
-      <c r="AL44" s="53"/>
-      <c r="AM44" s="53"/>
-      <c r="AN44" s="53"/>
-      <c r="AO44" s="53"/>
-      <c r="AP44" s="54"/>
-      <c r="AQ44" s="54"/>
-      <c r="AR44" s="142"/>
-      <c r="AS44" s="72"/>
-      <c r="AT44" s="72"/>
-      <c r="AU44" s="72"/>
-      <c r="AV44" s="72"/>
-      <c r="AW44" s="72"/>
-      <c r="AX44" s="72"/>
-      <c r="AY44" s="72"/>
-      <c r="AZ44" s="72"/>
-      <c r="BA44" s="72"/>
-      <c r="BB44" s="52"/>
-      <c r="BC44" s="52"/>
-      <c r="BD44" s="52"/>
-      <c r="BE44" s="52"/>
-      <c r="BF44" s="52"/>
-      <c r="BG44" s="52"/>
-      <c r="BH44" s="52"/>
-      <c r="BI44" s="52"/>
-      <c r="BJ44" s="52"/>
-      <c r="BK44" s="52"/>
-      <c r="BL44" s="52"/>
-      <c r="BM44" s="52"/>
-      <c r="BN44" s="52"/>
-      <c r="BO44" s="52"/>
-      <c r="BP44" s="52"/>
-      <c r="BQ44" s="52"/>
-      <c r="BR44" s="52"/>
-      <c r="BS44" s="52"/>
-      <c r="BT44" s="52"/>
-      <c r="BU44" s="52"/>
-      <c r="BV44" s="52"/>
+      <c r="X44" s="208"/>
+      <c r="Y44" s="209"/>
+      <c r="Z44" s="209"/>
+      <c r="AA44" s="209"/>
+      <c r="AB44" s="210"/>
+      <c r="AC44" s="51"/>
+      <c r="AD44" s="51"/>
+      <c r="AE44" s="51"/>
+      <c r="AF44" s="51"/>
+      <c r="AG44" s="51"/>
+      <c r="AH44" s="51"/>
+      <c r="AI44" s="51"/>
+      <c r="AJ44" s="51"/>
+      <c r="AK44" s="51"/>
+      <c r="AL44" s="51"/>
+      <c r="AM44" s="51"/>
+      <c r="AN44" s="51"/>
+      <c r="AO44" s="51"/>
+      <c r="AP44" s="52"/>
+      <c r="AQ44" s="52"/>
+      <c r="AR44" s="139"/>
+      <c r="AS44" s="69"/>
+      <c r="AT44" s="69"/>
+      <c r="AU44" s="69"/>
+      <c r="AV44" s="69"/>
+      <c r="AW44" s="69"/>
+      <c r="AX44" s="69"/>
+      <c r="AY44" s="69"/>
+      <c r="AZ44" s="69"/>
+      <c r="BA44" s="69"/>
+      <c r="BB44" s="50"/>
+      <c r="BC44" s="50"/>
+      <c r="BD44" s="50"/>
+      <c r="BE44" s="50"/>
+      <c r="BF44" s="50"/>
+      <c r="BG44" s="50"/>
+      <c r="BH44" s="50"/>
+      <c r="BI44" s="50"/>
+      <c r="BJ44" s="50"/>
+      <c r="BK44" s="50"/>
+      <c r="BL44" s="50"/>
+      <c r="BM44" s="50"/>
+      <c r="BN44" s="50"/>
+      <c r="BO44" s="50"/>
+      <c r="BP44" s="50"/>
+      <c r="BQ44" s="50"/>
+      <c r="BR44" s="50"/>
+      <c r="BS44" s="50"/>
+      <c r="BT44" s="50"/>
+      <c r="BU44" s="50"/>
+      <c r="BV44" s="50"/>
       <c r="CG44" s="18"/>
       <c r="CH44" s="18"/>
       <c r="CI44" s="18"/>
@@ -7873,74 +7840,74 @@
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="42"/>
-      <c r="G45" s="317"/>
-      <c r="H45" s="317"/>
-      <c r="I45" s="317"/>
-      <c r="J45" s="318"/>
-      <c r="K45" s="199"/>
-      <c r="L45" s="200"/>
-      <c r="M45" s="318"/>
-      <c r="N45" s="199"/>
-      <c r="O45" s="200"/>
-      <c r="P45" s="318"/>
-      <c r="Q45" s="199"/>
-      <c r="R45" s="200"/>
-      <c r="S45" s="318"/>
-      <c r="T45" s="318"/>
-      <c r="U45" s="318"/>
-      <c r="V45" s="199"/>
+      <c r="G45" s="217"/>
+      <c r="H45" s="217"/>
+      <c r="I45" s="217"/>
+      <c r="J45" s="218"/>
+      <c r="K45" s="190"/>
+      <c r="L45" s="188"/>
+      <c r="M45" s="218"/>
+      <c r="N45" s="190"/>
+      <c r="O45" s="188"/>
+      <c r="P45" s="218"/>
+      <c r="Q45" s="190"/>
+      <c r="R45" s="188"/>
+      <c r="S45" s="218"/>
+      <c r="T45" s="218"/>
+      <c r="U45" s="218"/>
+      <c r="V45" s="190"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="293"/>
-      <c r="Y45" s="294"/>
-      <c r="Z45" s="294"/>
-      <c r="AA45" s="294"/>
-      <c r="AB45" s="206"/>
-      <c r="AC45" s="53"/>
-      <c r="AD45" s="53"/>
-      <c r="AE45" s="53"/>
-      <c r="AF45" s="53"/>
-      <c r="AG45" s="53"/>
-      <c r="AH45" s="53"/>
-      <c r="AI45" s="53"/>
-      <c r="AJ45" s="53"/>
-      <c r="AK45" s="53"/>
-      <c r="AL45" s="53"/>
-      <c r="AM45" s="53"/>
-      <c r="AN45" s="53"/>
-      <c r="AO45" s="53"/>
-      <c r="AP45" s="54"/>
-      <c r="AQ45" s="54"/>
-      <c r="AR45" s="147"/>
-      <c r="AS45" s="72"/>
-      <c r="AT45" s="72"/>
-      <c r="AU45" s="72"/>
-      <c r="AV45" s="72"/>
-      <c r="AW45" s="72"/>
-      <c r="AX45" s="72"/>
-      <c r="AY45" s="72"/>
-      <c r="AZ45" s="72"/>
-      <c r="BA45" s="72"/>
-      <c r="BB45" s="52"/>
-      <c r="BC45" s="52"/>
-      <c r="BD45" s="52"/>
-      <c r="BE45" s="52"/>
-      <c r="BF45" s="52"/>
-      <c r="BG45" s="52"/>
-      <c r="BH45" s="52"/>
-      <c r="BI45" s="52"/>
-      <c r="BJ45" s="52"/>
-      <c r="BK45" s="52"/>
-      <c r="BL45" s="52"/>
-      <c r="BM45" s="52"/>
-      <c r="BN45" s="52"/>
-      <c r="BO45" s="52"/>
-      <c r="BP45" s="52"/>
-      <c r="BQ45" s="52"/>
-      <c r="BR45" s="52"/>
-      <c r="BS45" s="52"/>
-      <c r="BT45" s="52"/>
-      <c r="BU45" s="52"/>
-      <c r="BV45" s="52"/>
+      <c r="X45" s="208"/>
+      <c r="Y45" s="209"/>
+      <c r="Z45" s="209"/>
+      <c r="AA45" s="209"/>
+      <c r="AB45" s="210"/>
+      <c r="AC45" s="51"/>
+      <c r="AD45" s="51"/>
+      <c r="AE45" s="51"/>
+      <c r="AF45" s="51"/>
+      <c r="AG45" s="51"/>
+      <c r="AH45" s="51"/>
+      <c r="AI45" s="51"/>
+      <c r="AJ45" s="51"/>
+      <c r="AK45" s="51"/>
+      <c r="AL45" s="51"/>
+      <c r="AM45" s="51"/>
+      <c r="AN45" s="51"/>
+      <c r="AO45" s="51"/>
+      <c r="AP45" s="52"/>
+      <c r="AQ45" s="52"/>
+      <c r="AR45" s="144"/>
+      <c r="AS45" s="69"/>
+      <c r="AT45" s="69"/>
+      <c r="AU45" s="69"/>
+      <c r="AV45" s="69"/>
+      <c r="AW45" s="69"/>
+      <c r="AX45" s="69"/>
+      <c r="AY45" s="69"/>
+      <c r="AZ45" s="69"/>
+      <c r="BA45" s="69"/>
+      <c r="BB45" s="50"/>
+      <c r="BC45" s="50"/>
+      <c r="BD45" s="50"/>
+      <c r="BE45" s="50"/>
+      <c r="BF45" s="50"/>
+      <c r="BG45" s="50"/>
+      <c r="BH45" s="50"/>
+      <c r="BI45" s="50"/>
+      <c r="BJ45" s="50"/>
+      <c r="BK45" s="50"/>
+      <c r="BL45" s="50"/>
+      <c r="BM45" s="50"/>
+      <c r="BN45" s="50"/>
+      <c r="BO45" s="50"/>
+      <c r="BP45" s="50"/>
+      <c r="BQ45" s="50"/>
+      <c r="BR45" s="50"/>
+      <c r="BS45" s="50"/>
+      <c r="BT45" s="50"/>
+      <c r="BU45" s="50"/>
+      <c r="BV45" s="50"/>
       <c r="CG45" s="18"/>
       <c r="CH45" s="18"/>
       <c r="CI45" s="18"/>
@@ -7966,81 +7933,81 @@
       <c r="DC45" s="18"/>
     </row>
     <row r="46" spans="2:107" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="250" t="s">
+      <c r="B46" s="268" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="187"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="187"/>
-      <c r="F46" s="187"/>
-      <c r="G46" s="187"/>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
-      <c r="J46" s="187"/>
-      <c r="K46" s="187"/>
-      <c r="L46" s="187"/>
-      <c r="M46" s="187"/>
-      <c r="N46" s="187"/>
-      <c r="O46" s="187"/>
-      <c r="P46" s="187"/>
-      <c r="Q46" s="187"/>
-      <c r="R46" s="187"/>
-      <c r="S46" s="187"/>
-      <c r="T46" s="187"/>
-      <c r="U46" s="187"/>
-      <c r="V46" s="188"/>
+      <c r="C46" s="186"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="186"/>
+      <c r="J46" s="186"/>
+      <c r="K46" s="186"/>
+      <c r="L46" s="186"/>
+      <c r="M46" s="186"/>
+      <c r="N46" s="186"/>
+      <c r="O46" s="186"/>
+      <c r="P46" s="186"/>
+      <c r="Q46" s="186"/>
+      <c r="R46" s="186"/>
+      <c r="S46" s="186"/>
+      <c r="T46" s="186"/>
+      <c r="U46" s="186"/>
+      <c r="V46" s="187"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="293"/>
-      <c r="Y46" s="294"/>
-      <c r="Z46" s="294"/>
-      <c r="AA46" s="294"/>
-      <c r="AB46" s="206"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="53"/>
-      <c r="AF46" s="53"/>
-      <c r="AG46" s="53"/>
-      <c r="AH46" s="53"/>
-      <c r="AI46" s="53"/>
-      <c r="AJ46" s="53"/>
-      <c r="AK46" s="53"/>
-      <c r="AL46" s="53"/>
-      <c r="AM46" s="53"/>
-      <c r="AN46" s="53"/>
-      <c r="AO46" s="53"/>
-      <c r="AP46" s="192"/>
-      <c r="AQ46" s="193"/>
-      <c r="AR46" s="193"/>
-      <c r="AS46" s="72"/>
-      <c r="AT46" s="72"/>
-      <c r="AU46" s="72"/>
-      <c r="AV46" s="72"/>
-      <c r="AW46" s="72"/>
-      <c r="AX46" s="72"/>
-      <c r="AY46" s="72"/>
-      <c r="AZ46" s="72"/>
-      <c r="BA46" s="72"/>
-      <c r="BB46" s="52"/>
-      <c r="BC46" s="52"/>
-      <c r="BD46" s="52"/>
-      <c r="BE46" s="52"/>
-      <c r="BF46" s="52"/>
-      <c r="BG46" s="52"/>
-      <c r="BH46" s="52"/>
-      <c r="BI46" s="52"/>
-      <c r="BJ46" s="52"/>
-      <c r="BK46" s="52"/>
-      <c r="BL46" s="52"/>
-      <c r="BM46" s="52"/>
-      <c r="BN46" s="52"/>
-      <c r="BO46" s="52"/>
-      <c r="BP46" s="52"/>
-      <c r="BQ46" s="52"/>
-      <c r="BR46" s="52"/>
-      <c r="BS46" s="52"/>
-      <c r="BT46" s="52"/>
-      <c r="BU46" s="52"/>
-      <c r="BV46" s="52"/>
+      <c r="X46" s="208"/>
+      <c r="Y46" s="209"/>
+      <c r="Z46" s="209"/>
+      <c r="AA46" s="209"/>
+      <c r="AB46" s="210"/>
+      <c r="AC46" s="51"/>
+      <c r="AD46" s="51"/>
+      <c r="AE46" s="51"/>
+      <c r="AF46" s="51"/>
+      <c r="AG46" s="51"/>
+      <c r="AH46" s="51"/>
+      <c r="AI46" s="51"/>
+      <c r="AJ46" s="51"/>
+      <c r="AK46" s="51"/>
+      <c r="AL46" s="51"/>
+      <c r="AM46" s="51"/>
+      <c r="AN46" s="51"/>
+      <c r="AO46" s="51"/>
+      <c r="AP46" s="320"/>
+      <c r="AQ46" s="229"/>
+      <c r="AR46" s="229"/>
+      <c r="AS46" s="69"/>
+      <c r="AT46" s="69"/>
+      <c r="AU46" s="69"/>
+      <c r="AV46" s="69"/>
+      <c r="AW46" s="69"/>
+      <c r="AX46" s="69"/>
+      <c r="AY46" s="69"/>
+      <c r="AZ46" s="69"/>
+      <c r="BA46" s="69"/>
+      <c r="BB46" s="50"/>
+      <c r="BC46" s="50"/>
+      <c r="BD46" s="50"/>
+      <c r="BE46" s="50"/>
+      <c r="BF46" s="50"/>
+      <c r="BG46" s="50"/>
+      <c r="BH46" s="50"/>
+      <c r="BI46" s="50"/>
+      <c r="BJ46" s="50"/>
+      <c r="BK46" s="50"/>
+      <c r="BL46" s="50"/>
+      <c r="BM46" s="50"/>
+      <c r="BN46" s="50"/>
+      <c r="BO46" s="50"/>
+      <c r="BP46" s="50"/>
+      <c r="BQ46" s="50"/>
+      <c r="BR46" s="50"/>
+      <c r="BS46" s="50"/>
+      <c r="BT46" s="50"/>
+      <c r="BU46" s="50"/>
+      <c r="BV46" s="50"/>
       <c r="CG46" s="18"/>
       <c r="CH46" s="18"/>
       <c r="CI46" s="18"/>
@@ -8066,79 +8033,79 @@
       <c r="DC46" s="18"/>
     </row>
     <row r="47" spans="2:107" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="200"/>
-      <c r="C47" s="308"/>
-      <c r="D47" s="308"/>
-      <c r="E47" s="308"/>
-      <c r="F47" s="319"/>
-      <c r="G47" s="317"/>
-      <c r="H47" s="317"/>
-      <c r="I47" s="317"/>
-      <c r="J47" s="318"/>
-      <c r="K47" s="318"/>
-      <c r="L47" s="318"/>
-      <c r="M47" s="318"/>
-      <c r="N47" s="318"/>
-      <c r="O47" s="318"/>
-      <c r="P47" s="318"/>
-      <c r="Q47" s="318"/>
-      <c r="R47" s="318"/>
-      <c r="S47" s="318"/>
-      <c r="T47" s="318"/>
-      <c r="U47" s="318"/>
-      <c r="V47" s="199"/>
+      <c r="B47" s="188"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="269"/>
+      <c r="G47" s="217"/>
+      <c r="H47" s="217"/>
+      <c r="I47" s="217"/>
+      <c r="J47" s="218"/>
+      <c r="K47" s="218"/>
+      <c r="L47" s="218"/>
+      <c r="M47" s="218"/>
+      <c r="N47" s="218"/>
+      <c r="O47" s="218"/>
+      <c r="P47" s="218"/>
+      <c r="Q47" s="218"/>
+      <c r="R47" s="218"/>
+      <c r="S47" s="218"/>
+      <c r="T47" s="218"/>
+      <c r="U47" s="218"/>
+      <c r="V47" s="190"/>
       <c r="W47" s="1"/>
-      <c r="X47" s="295"/>
-      <c r="Y47" s="296"/>
-      <c r="Z47" s="296"/>
-      <c r="AA47" s="296"/>
-      <c r="AB47" s="297"/>
-      <c r="AC47" s="53"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="53"/>
-      <c r="AF47" s="53"/>
-      <c r="AG47" s="53"/>
-      <c r="AH47" s="53"/>
-      <c r="AI47" s="53"/>
-      <c r="AJ47" s="53"/>
-      <c r="AK47" s="53"/>
-      <c r="AL47" s="53"/>
-      <c r="AM47" s="53"/>
-      <c r="AN47" s="53"/>
-      <c r="AO47" s="53"/>
-      <c r="AP47" s="193"/>
-      <c r="AQ47" s="193"/>
-      <c r="AR47" s="193"/>
-      <c r="AS47" s="72"/>
-      <c r="AT47" s="72"/>
-      <c r="AU47" s="72"/>
-      <c r="AV47" s="72"/>
-      <c r="AW47" s="72"/>
-      <c r="AX47" s="72"/>
-      <c r="AY47" s="72"/>
-      <c r="AZ47" s="72"/>
-      <c r="BA47" s="52"/>
-      <c r="BB47" s="52"/>
-      <c r="BC47" s="52"/>
-      <c r="BD47" s="52"/>
-      <c r="BE47" s="52"/>
-      <c r="BF47" s="52"/>
-      <c r="BG47" s="52"/>
-      <c r="BH47" s="52"/>
-      <c r="BI47" s="52"/>
-      <c r="BJ47" s="52"/>
-      <c r="BK47" s="52"/>
-      <c r="BL47" s="52"/>
-      <c r="BM47" s="52"/>
-      <c r="BN47" s="52"/>
-      <c r="BO47" s="52"/>
-      <c r="BP47" s="52"/>
-      <c r="BQ47" s="52"/>
-      <c r="BR47" s="52"/>
-      <c r="BS47" s="52"/>
-      <c r="BT47" s="52"/>
-      <c r="BU47" s="52"/>
-      <c r="BV47" s="52"/>
+      <c r="X47" s="211"/>
+      <c r="Y47" s="212"/>
+      <c r="Z47" s="212"/>
+      <c r="AA47" s="212"/>
+      <c r="AB47" s="213"/>
+      <c r="AC47" s="51"/>
+      <c r="AD47" s="51"/>
+      <c r="AE47" s="51"/>
+      <c r="AF47" s="51"/>
+      <c r="AG47" s="51"/>
+      <c r="AH47" s="51"/>
+      <c r="AI47" s="51"/>
+      <c r="AJ47" s="51"/>
+      <c r="AK47" s="51"/>
+      <c r="AL47" s="51"/>
+      <c r="AM47" s="51"/>
+      <c r="AN47" s="51"/>
+      <c r="AO47" s="51"/>
+      <c r="AP47" s="229"/>
+      <c r="AQ47" s="229"/>
+      <c r="AR47" s="229"/>
+      <c r="AS47" s="69"/>
+      <c r="AT47" s="69"/>
+      <c r="AU47" s="69"/>
+      <c r="AV47" s="69"/>
+      <c r="AW47" s="69"/>
+      <c r="AX47" s="69"/>
+      <c r="AY47" s="69"/>
+      <c r="AZ47" s="69"/>
+      <c r="BA47" s="50"/>
+      <c r="BB47" s="50"/>
+      <c r="BC47" s="50"/>
+      <c r="BD47" s="50"/>
+      <c r="BE47" s="50"/>
+      <c r="BF47" s="50"/>
+      <c r="BG47" s="50"/>
+      <c r="BH47" s="50"/>
+      <c r="BI47" s="50"/>
+      <c r="BJ47" s="50"/>
+      <c r="BK47" s="50"/>
+      <c r="BL47" s="50"/>
+      <c r="BM47" s="50"/>
+      <c r="BN47" s="50"/>
+      <c r="BO47" s="50"/>
+      <c r="BP47" s="50"/>
+      <c r="BQ47" s="50"/>
+      <c r="BR47" s="50"/>
+      <c r="BS47" s="50"/>
+      <c r="BT47" s="50"/>
+      <c r="BU47" s="50"/>
+      <c r="BV47" s="50"/>
       <c r="CG47" s="18"/>
       <c r="CH47" s="18"/>
       <c r="CI47" s="18"/>
@@ -8164,79 +8131,79 @@
       <c r="DC47" s="18"/>
     </row>
     <row r="48" spans="2:107" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="189"/>
-      <c r="C48" s="190"/>
-      <c r="D48" s="190"/>
-      <c r="E48" s="190"/>
-      <c r="F48" s="190"/>
-      <c r="G48" s="190"/>
-      <c r="H48" s="190"/>
-      <c r="I48" s="190"/>
-      <c r="J48" s="190"/>
-      <c r="K48" s="190"/>
-      <c r="L48" s="190"/>
-      <c r="M48" s="190"/>
-      <c r="N48" s="190"/>
-      <c r="O48" s="190"/>
-      <c r="P48" s="190"/>
-      <c r="Q48" s="190"/>
-      <c r="R48" s="190"/>
-      <c r="S48" s="190"/>
-      <c r="T48" s="190"/>
-      <c r="U48" s="190"/>
-      <c r="V48" s="191"/>
+      <c r="B48" s="191"/>
+      <c r="C48" s="192"/>
+      <c r="D48" s="192"/>
+      <c r="E48" s="192"/>
+      <c r="F48" s="192"/>
+      <c r="G48" s="192"/>
+      <c r="H48" s="192"/>
+      <c r="I48" s="192"/>
+      <c r="J48" s="192"/>
+      <c r="K48" s="192"/>
+      <c r="L48" s="192"/>
+      <c r="M48" s="192"/>
+      <c r="N48" s="192"/>
+      <c r="O48" s="192"/>
+      <c r="P48" s="192"/>
+      <c r="Q48" s="192"/>
+      <c r="R48" s="192"/>
+      <c r="S48" s="192"/>
+      <c r="T48" s="192"/>
+      <c r="U48" s="192"/>
+      <c r="V48" s="193"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AE48" s="53"/>
-      <c r="AF48" s="53"/>
-      <c r="AG48" s="53"/>
-      <c r="AH48" s="53"/>
-      <c r="AI48" s="53"/>
-      <c r="AJ48" s="53"/>
-      <c r="AK48" s="53"/>
-      <c r="AL48" s="53"/>
-      <c r="AM48" s="53"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
-      <c r="AP48" s="54"/>
-      <c r="AQ48" s="54"/>
-      <c r="AR48" s="54"/>
-      <c r="AS48" s="52"/>
-      <c r="AT48" s="52"/>
-      <c r="AU48" s="52"/>
-      <c r="AV48" s="52"/>
-      <c r="AW48" s="52"/>
-      <c r="AX48" s="52"/>
-      <c r="AY48" s="52"/>
-      <c r="AZ48" s="52"/>
-      <c r="BA48" s="52"/>
-      <c r="BB48" s="52"/>
-      <c r="BC48" s="52"/>
-      <c r="BD48" s="52"/>
-      <c r="BE48" s="52"/>
-      <c r="BF48" s="52"/>
-      <c r="BG48" s="52"/>
-      <c r="BH48" s="52"/>
-      <c r="BI48" s="52"/>
-      <c r="BJ48" s="52"/>
-      <c r="BK48" s="52"/>
-      <c r="BL48" s="52"/>
-      <c r="BM48" s="52"/>
-      <c r="BN48" s="52"/>
-      <c r="BO48" s="52"/>
-      <c r="BP48" s="52"/>
-      <c r="BQ48" s="52"/>
-      <c r="BR48" s="52"/>
-      <c r="BS48" s="52"/>
-      <c r="BT48" s="52"/>
-      <c r="BU48" s="52"/>
-      <c r="BV48" s="52"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51"/>
+      <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="51"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="51"/>
+      <c r="AP48" s="52"/>
+      <c r="AQ48" s="52"/>
+      <c r="AR48" s="52"/>
+      <c r="AS48" s="50"/>
+      <c r="AT48" s="50"/>
+      <c r="AU48" s="50"/>
+      <c r="AV48" s="50"/>
+      <c r="AW48" s="50"/>
+      <c r="AX48" s="50"/>
+      <c r="AY48" s="50"/>
+      <c r="AZ48" s="50"/>
+      <c r="BA48" s="50"/>
+      <c r="BB48" s="50"/>
+      <c r="BC48" s="50"/>
+      <c r="BD48" s="50"/>
+      <c r="BE48" s="50"/>
+      <c r="BF48" s="50"/>
+      <c r="BG48" s="50"/>
+      <c r="BH48" s="50"/>
+      <c r="BI48" s="50"/>
+      <c r="BJ48" s="50"/>
+      <c r="BK48" s="50"/>
+      <c r="BL48" s="50"/>
+      <c r="BM48" s="50"/>
+      <c r="BN48" s="50"/>
+      <c r="BO48" s="50"/>
+      <c r="BP48" s="50"/>
+      <c r="BQ48" s="50"/>
+      <c r="BR48" s="50"/>
+      <c r="BS48" s="50"/>
+      <c r="BT48" s="50"/>
+      <c r="BU48" s="50"/>
+      <c r="BV48" s="50"/>
       <c r="CG48" s="18"/>
       <c r="CH48" s="18"/>
       <c r="CI48" s="18"/>
@@ -8261,7 +8228,7 @@
       <c r="DB48" s="18"/>
       <c r="DC48" s="18"/>
     </row>
-    <row r="49" spans="2:107" s="52" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:107" s="50" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
       <c r="D49" s="43"/>
@@ -8283,30 +8250,30 @@
       <c r="T49" s="44"/>
       <c r="U49" s="44"/>
       <c r="V49" s="44"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
-      <c r="AD49" s="53"/>
-      <c r="AE49" s="53"/>
-      <c r="AF49" s="53"/>
-      <c r="AG49" s="53"/>
-      <c r="AH49" s="53"/>
-      <c r="AI49" s="53"/>
-      <c r="AJ49" s="53"/>
-      <c r="AK49" s="53"/>
-      <c r="AL49" s="53"/>
-      <c r="AM49" s="53"/>
-      <c r="AN49" s="53"/>
-      <c r="AO49" s="53"/>
-      <c r="AP49" s="54"/>
-      <c r="AQ49" s="54"/>
-      <c r="AR49" s="54"/>
-    </row>
-    <row r="50" spans="2:107" s="52" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W49" s="51"/>
+      <c r="X49" s="51"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="51"/>
+      <c r="AC49" s="51"/>
+      <c r="AD49" s="51"/>
+      <c r="AE49" s="51"/>
+      <c r="AF49" s="51"/>
+      <c r="AG49" s="51"/>
+      <c r="AH49" s="51"/>
+      <c r="AI49" s="51"/>
+      <c r="AJ49" s="51"/>
+      <c r="AK49" s="51"/>
+      <c r="AL49" s="51"/>
+      <c r="AM49" s="51"/>
+      <c r="AN49" s="51"/>
+      <c r="AO49" s="51"/>
+      <c r="AP49" s="52"/>
+      <c r="AQ49" s="52"/>
+      <c r="AR49" s="52"/>
+    </row>
+    <row r="50" spans="2:107" s="50" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
       <c r="D50" s="43"/>
@@ -8328,30 +8295,30 @@
       <c r="T50" s="44"/>
       <c r="U50" s="44"/>
       <c r="V50" s="44"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
-      <c r="Y50" s="53"/>
-      <c r="Z50" s="53"/>
-      <c r="AA50" s="53"/>
-      <c r="AB50" s="53"/>
-      <c r="AC50" s="53"/>
-      <c r="AD50" s="53"/>
-      <c r="AE50" s="53"/>
-      <c r="AF50" s="53"/>
-      <c r="AG50" s="53"/>
-      <c r="AH50" s="53"/>
-      <c r="AI50" s="53"/>
-      <c r="AJ50" s="53"/>
-      <c r="AK50" s="53"/>
-      <c r="AL50" s="53"/>
-      <c r="AM50" s="53"/>
-      <c r="AN50" s="53"/>
-      <c r="AO50" s="53"/>
-      <c r="AP50" s="54"/>
-      <c r="AQ50" s="54"/>
-      <c r="AR50" s="54"/>
-    </row>
-    <row r="51" spans="2:107" s="52" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W50" s="51"/>
+      <c r="X50" s="51"/>
+      <c r="Y50" s="51"/>
+      <c r="Z50" s="51"/>
+      <c r="AA50" s="51"/>
+      <c r="AB50" s="51"/>
+      <c r="AC50" s="51"/>
+      <c r="AD50" s="51"/>
+      <c r="AE50" s="51"/>
+      <c r="AF50" s="51"/>
+      <c r="AG50" s="51"/>
+      <c r="AH50" s="51"/>
+      <c r="AI50" s="51"/>
+      <c r="AJ50" s="51"/>
+      <c r="AK50" s="51"/>
+      <c r="AL50" s="51"/>
+      <c r="AM50" s="51"/>
+      <c r="AN50" s="51"/>
+      <c r="AO50" s="51"/>
+      <c r="AP50" s="52"/>
+      <c r="AQ50" s="52"/>
+      <c r="AR50" s="52"/>
+    </row>
+    <row r="51" spans="2:107" s="50" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
       <c r="D51" s="43"/>
@@ -8373,30 +8340,30 @@
       <c r="T51" s="44"/>
       <c r="U51" s="44"/>
       <c r="V51" s="44"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="53"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="53"/>
-      <c r="AB51" s="53"/>
-      <c r="AC51" s="53"/>
-      <c r="AD51" s="53"/>
-      <c r="AE51" s="53"/>
-      <c r="AF51" s="53"/>
-      <c r="AG51" s="53"/>
-      <c r="AH51" s="53"/>
-      <c r="AI51" s="53"/>
-      <c r="AJ51" s="53"/>
-      <c r="AK51" s="53"/>
-      <c r="AL51" s="53"/>
-      <c r="AM51" s="53"/>
-      <c r="AN51" s="53"/>
-      <c r="AO51" s="53"/>
-      <c r="AP51" s="54"/>
-      <c r="AQ51" s="54"/>
-      <c r="AR51" s="54"/>
-    </row>
-    <row r="52" spans="2:107" s="52" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W51" s="51"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="51"/>
+      <c r="AA51" s="51"/>
+      <c r="AB51" s="51"/>
+      <c r="AC51" s="51"/>
+      <c r="AD51" s="51"/>
+      <c r="AE51" s="51"/>
+      <c r="AF51" s="51"/>
+      <c r="AG51" s="51"/>
+      <c r="AH51" s="51"/>
+      <c r="AI51" s="51"/>
+      <c r="AJ51" s="51"/>
+      <c r="AK51" s="51"/>
+      <c r="AL51" s="51"/>
+      <c r="AM51" s="51"/>
+      <c r="AN51" s="51"/>
+      <c r="AO51" s="51"/>
+      <c r="AP51" s="52"/>
+      <c r="AQ51" s="52"/>
+      <c r="AR51" s="52"/>
+    </row>
+    <row r="52" spans="2:107" s="50" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
       <c r="D52" s="43"/>
@@ -8418,35 +8385,35 @@
       <c r="T52" s="44"/>
       <c r="U52" s="44"/>
       <c r="V52" s="44"/>
-      <c r="W52" s="53"/>
-      <c r="X52" s="53"/>
-      <c r="Y52" s="53"/>
-      <c r="Z52" s="53"/>
-      <c r="AA52" s="53"/>
-      <c r="AB52" s="53"/>
-      <c r="AC52" s="53"/>
-      <c r="AD52" s="53"/>
-      <c r="AE52" s="53"/>
-      <c r="AF52" s="53"/>
-      <c r="AG52" s="53"/>
-      <c r="AH52" s="53"/>
-      <c r="AI52" s="53"/>
-      <c r="AJ52" s="53"/>
-      <c r="AK52" s="53"/>
-      <c r="AL52" s="53"/>
-      <c r="AM52" s="53"/>
-      <c r="AN52" s="53"/>
-      <c r="AO52" s="53"/>
-      <c r="AP52" s="54"/>
-      <c r="AQ52" s="54"/>
-      <c r="AR52" s="54"/>
+      <c r="W52" s="51"/>
+      <c r="X52" s="51"/>
+      <c r="Y52" s="51"/>
+      <c r="Z52" s="51"/>
+      <c r="AA52" s="51"/>
+      <c r="AB52" s="51"/>
+      <c r="AC52" s="51"/>
+      <c r="AD52" s="51"/>
+      <c r="AE52" s="51"/>
+      <c r="AF52" s="51"/>
+      <c r="AG52" s="51"/>
+      <c r="AH52" s="51"/>
+      <c r="AI52" s="51"/>
+      <c r="AJ52" s="51"/>
+      <c r="AK52" s="51"/>
+      <c r="AL52" s="51"/>
+      <c r="AM52" s="51"/>
+      <c r="AN52" s="51"/>
+      <c r="AO52" s="51"/>
+      <c r="AP52" s="52"/>
+      <c r="AQ52" s="52"/>
+      <c r="AR52" s="52"/>
     </row>
     <row r="53" spans="2:107" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="148"/>
-      <c r="C53" s="148"/>
-      <c r="D53" s="148"/>
-      <c r="E53" s="148"/>
-      <c r="F53" s="149"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="146"/>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
@@ -8481,7 +8448,7 @@
       <c r="AM53" s="30"/>
       <c r="AN53" s="30"/>
       <c r="AO53" s="30"/>
-      <c r="AP53" s="52"/>
+      <c r="AP53" s="50"/>
       <c r="AQ53" s="18"/>
       <c r="AR53" s="18"/>
       <c r="AS53" s="18"/>
@@ -8523,11 +8490,11 @@
       <c r="DC53" s="18"/>
     </row>
     <row r="54" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="150"/>
-      <c r="C54" s="148"/>
-      <c r="D54" s="148"/>
-      <c r="E54" s="148"/>
-      <c r="F54" s="149"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="146"/>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
@@ -8562,7 +8529,7 @@
       <c r="AM54" s="30"/>
       <c r="AN54" s="30"/>
       <c r="AO54" s="30"/>
-      <c r="AP54" s="52"/>
+      <c r="AP54" s="50"/>
       <c r="AQ54" s="18"/>
       <c r="AR54" s="18"/>
       <c r="AS54" s="18"/>
@@ -8604,11 +8571,11 @@
       <c r="DC54" s="18"/>
     </row>
     <row r="55" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="151"/>
-      <c r="C55" s="148"/>
-      <c r="D55" s="148"/>
-      <c r="E55" s="148"/>
-      <c r="F55" s="149"/>
+      <c r="B55" s="148"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="146"/>
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
@@ -8620,10 +8587,10 @@
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
       <c r="Q55" s="30"/>
-      <c r="R55" s="222"/>
-      <c r="S55" s="198"/>
-      <c r="T55" s="198"/>
-      <c r="U55" s="198"/>
+      <c r="R55" s="221"/>
+      <c r="S55" s="218"/>
+      <c r="T55" s="218"/>
+      <c r="U55" s="218"/>
       <c r="V55" s="30"/>
       <c r="W55" s="30"/>
       <c r="X55" s="30"/>
@@ -8643,7 +8610,7 @@
       <c r="AM55" s="30"/>
       <c r="AN55" s="30"/>
       <c r="AO55" s="30"/>
-      <c r="AP55" s="52"/>
+      <c r="AP55" s="50"/>
       <c r="AQ55" s="18"/>
       <c r="AR55" s="18"/>
       <c r="AS55" s="18"/>
@@ -8685,11 +8652,11 @@
       <c r="DC55" s="18"/>
     </row>
     <row r="56" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="151"/>
-      <c r="C56" s="148"/>
-      <c r="D56" s="148"/>
-      <c r="E56" s="148"/>
-      <c r="F56" s="149"/>
+      <c r="B56" s="148"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="146"/>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
@@ -8701,10 +8668,10 @@
       <c r="O56" s="30"/>
       <c r="P56" s="30"/>
       <c r="Q56" s="30"/>
-      <c r="R56" s="222"/>
-      <c r="S56" s="198"/>
-      <c r="T56" s="198"/>
-      <c r="U56" s="198"/>
+      <c r="R56" s="221"/>
+      <c r="S56" s="218"/>
+      <c r="T56" s="218"/>
+      <c r="U56" s="218"/>
       <c r="V56" s="30"/>
       <c r="W56" s="30"/>
       <c r="X56" s="30"/>
@@ -8724,7 +8691,7 @@
       <c r="AM56" s="30"/>
       <c r="AN56" s="30"/>
       <c r="AO56" s="30"/>
-      <c r="AP56" s="52"/>
+      <c r="AP56" s="50"/>
       <c r="AQ56" s="18"/>
       <c r="AR56" s="18"/>
       <c r="AS56" s="18"/>
@@ -8766,11 +8733,11 @@
       <c r="DC56" s="18"/>
     </row>
     <row r="57" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="151"/>
-      <c r="C57" s="148"/>
-      <c r="D57" s="148"/>
-      <c r="E57" s="148"/>
-      <c r="F57" s="149"/>
+      <c r="B57" s="148"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="146"/>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
@@ -8782,10 +8749,10 @@
       <c r="O57" s="30"/>
       <c r="P57" s="30"/>
       <c r="Q57" s="30"/>
-      <c r="R57" s="222"/>
-      <c r="S57" s="198"/>
-      <c r="T57" s="198"/>
-      <c r="U57" s="198"/>
+      <c r="R57" s="221"/>
+      <c r="S57" s="218"/>
+      <c r="T57" s="218"/>
+      <c r="U57" s="218"/>
       <c r="V57" s="30"/>
       <c r="W57" s="30"/>
       <c r="X57" s="30"/>
@@ -8805,7 +8772,7 @@
       <c r="AM57" s="30"/>
       <c r="AN57" s="30"/>
       <c r="AO57" s="30"/>
-      <c r="AP57" s="52"/>
+      <c r="AP57" s="50"/>
       <c r="AQ57" s="18"/>
       <c r="AR57" s="18"/>
       <c r="AS57" s="18"/>
@@ -8847,15 +8814,15 @@
       <c r="DC57" s="18"/>
     </row>
     <row r="58" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="151"/>
-      <c r="C58" s="148"/>
-      <c r="D58" s="148"/>
-      <c r="E58" s="148"/>
-      <c r="F58" s="149"/>
+      <c r="B58" s="148"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="146"/>
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
-      <c r="J58" s="152"/>
+      <c r="J58" s="149"/>
       <c r="K58" s="30"/>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
@@ -8886,7 +8853,7 @@
       <c r="AM58" s="30"/>
       <c r="AN58" s="30"/>
       <c r="AO58" s="30"/>
-      <c r="AP58" s="52"/>
+      <c r="AP58" s="50"/>
       <c r="AQ58" s="18"/>
       <c r="AR58" s="18"/>
       <c r="AS58" s="18"/>
@@ -8928,11 +8895,11 @@
       <c r="DC58" s="18"/>
     </row>
     <row r="59" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="151"/>
-      <c r="C59" s="148"/>
-      <c r="D59" s="148"/>
-      <c r="E59" s="148"/>
-      <c r="F59" s="149"/>
+      <c r="B59" s="148"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="146"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
@@ -8967,7 +8934,7 @@
       <c r="AM59" s="30"/>
       <c r="AN59" s="30"/>
       <c r="AO59" s="30"/>
-      <c r="AP59" s="52"/>
+      <c r="AP59" s="50"/>
       <c r="AQ59" s="18"/>
       <c r="AR59" s="18"/>
       <c r="AS59" s="18"/>
@@ -9009,11 +8976,11 @@
       <c r="DC59" s="18"/>
     </row>
     <row r="60" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="151"/>
-      <c r="C60" s="148"/>
-      <c r="D60" s="148"/>
-      <c r="E60" s="148"/>
-      <c r="F60" s="149"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="146"/>
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
@@ -9027,29 +8994,29 @@
       <c r="Q60" s="30"/>
       <c r="R60" s="30"/>
       <c r="S60" s="30"/>
-      <c r="T60" s="241"/>
-      <c r="U60" s="198"/>
-      <c r="V60" s="198"/>
-      <c r="W60" s="236"/>
-      <c r="X60" s="236"/>
-      <c r="Y60" s="236"/>
-      <c r="Z60" s="236"/>
-      <c r="AA60" s="236"/>
-      <c r="AB60" s="236"/>
-      <c r="AC60" s="242"/>
-      <c r="AD60" s="236"/>
-      <c r="AE60" s="236"/>
-      <c r="AF60" s="236"/>
-      <c r="AG60" s="236"/>
-      <c r="AH60" s="236"/>
-      <c r="AI60" s="236"/>
-      <c r="AJ60" s="236"/>
-      <c r="AK60" s="236"/>
-      <c r="AL60" s="236"/>
-      <c r="AM60" s="236"/>
-      <c r="AN60" s="236"/>
-      <c r="AO60" s="236"/>
-      <c r="AP60" s="199"/>
+      <c r="T60" s="258"/>
+      <c r="U60" s="218"/>
+      <c r="V60" s="218"/>
+      <c r="W60" s="259"/>
+      <c r="X60" s="259"/>
+      <c r="Y60" s="259"/>
+      <c r="Z60" s="259"/>
+      <c r="AA60" s="259"/>
+      <c r="AB60" s="259"/>
+      <c r="AC60" s="260"/>
+      <c r="AD60" s="259"/>
+      <c r="AE60" s="259"/>
+      <c r="AF60" s="259"/>
+      <c r="AG60" s="259"/>
+      <c r="AH60" s="259"/>
+      <c r="AI60" s="259"/>
+      <c r="AJ60" s="259"/>
+      <c r="AK60" s="259"/>
+      <c r="AL60" s="259"/>
+      <c r="AM60" s="259"/>
+      <c r="AN60" s="259"/>
+      <c r="AO60" s="259"/>
+      <c r="AP60" s="190"/>
       <c r="AQ60" s="18"/>
       <c r="AR60" s="18"/>
       <c r="AS60" s="18"/>
@@ -9091,11 +9058,11 @@
       <c r="DC60" s="18"/>
     </row>
     <row r="61" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="151"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="149"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="146"/>
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
@@ -9103,35 +9070,35 @@
       <c r="K61" s="30"/>
       <c r="L61" s="30"/>
       <c r="M61" s="30"/>
-      <c r="N61" s="197"/>
-      <c r="O61" s="198"/>
-      <c r="P61" s="198"/>
-      <c r="Q61" s="198"/>
-      <c r="R61" s="199"/>
+      <c r="N61" s="294"/>
+      <c r="O61" s="218"/>
+      <c r="P61" s="218"/>
+      <c r="Q61" s="218"/>
+      <c r="R61" s="190"/>
       <c r="S61" s="30"/>
-      <c r="T61" s="200"/>
-      <c r="U61" s="198"/>
-      <c r="V61" s="198"/>
-      <c r="W61" s="236"/>
-      <c r="X61" s="236"/>
-      <c r="Y61" s="236"/>
-      <c r="Z61" s="236"/>
-      <c r="AA61" s="236"/>
-      <c r="AB61" s="236"/>
-      <c r="AC61" s="242"/>
-      <c r="AD61" s="236"/>
-      <c r="AE61" s="236"/>
-      <c r="AF61" s="236"/>
-      <c r="AG61" s="236"/>
-      <c r="AH61" s="236"/>
-      <c r="AI61" s="236"/>
-      <c r="AJ61" s="236"/>
-      <c r="AK61" s="236"/>
-      <c r="AL61" s="236"/>
-      <c r="AM61" s="236"/>
-      <c r="AN61" s="236"/>
-      <c r="AO61" s="236"/>
-      <c r="AP61" s="199"/>
+      <c r="T61" s="188"/>
+      <c r="U61" s="218"/>
+      <c r="V61" s="218"/>
+      <c r="W61" s="259"/>
+      <c r="X61" s="259"/>
+      <c r="Y61" s="259"/>
+      <c r="Z61" s="259"/>
+      <c r="AA61" s="259"/>
+      <c r="AB61" s="259"/>
+      <c r="AC61" s="260"/>
+      <c r="AD61" s="259"/>
+      <c r="AE61" s="259"/>
+      <c r="AF61" s="259"/>
+      <c r="AG61" s="259"/>
+      <c r="AH61" s="259"/>
+      <c r="AI61" s="259"/>
+      <c r="AJ61" s="259"/>
+      <c r="AK61" s="259"/>
+      <c r="AL61" s="259"/>
+      <c r="AM61" s="259"/>
+      <c r="AN61" s="259"/>
+      <c r="AO61" s="259"/>
+      <c r="AP61" s="190"/>
       <c r="AQ61" s="18"/>
       <c r="AR61" s="18"/>
       <c r="AS61" s="18"/>
@@ -9173,11 +9140,11 @@
       <c r="DC61" s="18"/>
     </row>
     <row r="62" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="151"/>
-      <c r="C62" s="148"/>
-      <c r="D62" s="148"/>
-      <c r="E62" s="148"/>
-      <c r="F62" s="149"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="146"/>
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
@@ -9185,35 +9152,35 @@
       <c r="K62" s="30"/>
       <c r="L62" s="30"/>
       <c r="M62" s="30"/>
-      <c r="N62" s="200"/>
-      <c r="O62" s="198"/>
-      <c r="P62" s="198"/>
-      <c r="Q62" s="198"/>
-      <c r="R62" s="199"/>
+      <c r="N62" s="188"/>
+      <c r="O62" s="218"/>
+      <c r="P62" s="218"/>
+      <c r="Q62" s="218"/>
+      <c r="R62" s="190"/>
       <c r="S62" s="30"/>
-      <c r="T62" s="200"/>
-      <c r="U62" s="198"/>
-      <c r="V62" s="198"/>
-      <c r="W62" s="236"/>
-      <c r="X62" s="236"/>
-      <c r="Y62" s="236"/>
-      <c r="Z62" s="236"/>
-      <c r="AA62" s="236"/>
-      <c r="AB62" s="236"/>
-      <c r="AC62" s="242"/>
-      <c r="AD62" s="236"/>
-      <c r="AE62" s="236"/>
-      <c r="AF62" s="236"/>
-      <c r="AG62" s="236"/>
-      <c r="AH62" s="236"/>
-      <c r="AI62" s="236"/>
-      <c r="AJ62" s="236"/>
-      <c r="AK62" s="236"/>
-      <c r="AL62" s="236"/>
-      <c r="AM62" s="236"/>
-      <c r="AN62" s="236"/>
-      <c r="AO62" s="236"/>
-      <c r="AP62" s="199"/>
+      <c r="T62" s="188"/>
+      <c r="U62" s="218"/>
+      <c r="V62" s="218"/>
+      <c r="W62" s="259"/>
+      <c r="X62" s="259"/>
+      <c r="Y62" s="259"/>
+      <c r="Z62" s="259"/>
+      <c r="AA62" s="259"/>
+      <c r="AB62" s="259"/>
+      <c r="AC62" s="260"/>
+      <c r="AD62" s="259"/>
+      <c r="AE62" s="259"/>
+      <c r="AF62" s="259"/>
+      <c r="AG62" s="259"/>
+      <c r="AH62" s="259"/>
+      <c r="AI62" s="259"/>
+      <c r="AJ62" s="259"/>
+      <c r="AK62" s="259"/>
+      <c r="AL62" s="259"/>
+      <c r="AM62" s="259"/>
+      <c r="AN62" s="259"/>
+      <c r="AO62" s="259"/>
+      <c r="AP62" s="190"/>
       <c r="AQ62" s="18"/>
       <c r="AR62" s="18"/>
       <c r="AS62" s="18"/>
@@ -9255,11 +9222,11 @@
       <c r="DC62" s="18"/>
     </row>
     <row r="63" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="151"/>
-      <c r="C63" s="148"/>
-      <c r="D63" s="148"/>
-      <c r="E63" s="148"/>
-      <c r="F63" s="149"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="145"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="146"/>
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
@@ -9267,11 +9234,11 @@
       <c r="K63" s="30"/>
       <c r="L63" s="30"/>
       <c r="M63" s="30"/>
-      <c r="N63" s="200"/>
-      <c r="O63" s="198"/>
-      <c r="P63" s="198"/>
-      <c r="Q63" s="198"/>
-      <c r="R63" s="199"/>
+      <c r="N63" s="188"/>
+      <c r="O63" s="218"/>
+      <c r="P63" s="218"/>
+      <c r="Q63" s="218"/>
+      <c r="R63" s="190"/>
       <c r="S63" s="30"/>
       <c r="T63" s="30"/>
       <c r="U63" s="30"/>
@@ -9294,7 +9261,7 @@
       <c r="AM63" s="30"/>
       <c r="AN63" s="30"/>
       <c r="AO63" s="30"/>
-      <c r="AP63" s="52"/>
+      <c r="AP63" s="50"/>
       <c r="AQ63" s="18"/>
       <c r="AR63" s="18"/>
       <c r="AS63" s="18"/>
@@ -9336,11 +9303,11 @@
       <c r="DC63" s="18"/>
     </row>
     <row r="64" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="151"/>
-      <c r="C64" s="148"/>
-      <c r="D64" s="148"/>
-      <c r="E64" s="148"/>
-      <c r="F64" s="149"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="146"/>
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
@@ -9348,11 +9315,11 @@
       <c r="K64" s="30"/>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
-      <c r="N64" s="200"/>
-      <c r="O64" s="198"/>
-      <c r="P64" s="198"/>
-      <c r="Q64" s="198"/>
-      <c r="R64" s="199"/>
+      <c r="N64" s="188"/>
+      <c r="O64" s="218"/>
+      <c r="P64" s="218"/>
+      <c r="Q64" s="218"/>
+      <c r="R64" s="190"/>
       <c r="S64" s="30"/>
       <c r="T64" s="30"/>
       <c r="U64" s="30"/>
@@ -9375,7 +9342,7 @@
       <c r="AM64" s="30"/>
       <c r="AN64" s="30"/>
       <c r="AO64" s="30"/>
-      <c r="AP64" s="52"/>
+      <c r="AP64" s="50"/>
       <c r="AQ64" s="18"/>
       <c r="AR64" s="18"/>
       <c r="AS64" s="18"/>
@@ -9417,11 +9384,11 @@
       <c r="DC64" s="18"/>
     </row>
     <row r="65" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="151"/>
-      <c r="C65" s="148"/>
-      <c r="D65" s="148"/>
-      <c r="E65" s="148"/>
-      <c r="F65" s="149"/>
+      <c r="B65" s="148"/>
+      <c r="C65" s="145"/>
+      <c r="D65" s="145"/>
+      <c r="E65" s="145"/>
+      <c r="F65" s="146"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
@@ -9429,11 +9396,11 @@
       <c r="K65" s="30"/>
       <c r="L65" s="30"/>
       <c r="M65" s="30"/>
-      <c r="N65" s="200"/>
-      <c r="O65" s="198"/>
-      <c r="P65" s="198"/>
-      <c r="Q65" s="198"/>
-      <c r="R65" s="199"/>
+      <c r="N65" s="188"/>
+      <c r="O65" s="218"/>
+      <c r="P65" s="218"/>
+      <c r="Q65" s="218"/>
+      <c r="R65" s="190"/>
       <c r="S65" s="30"/>
       <c r="T65" s="30"/>
       <c r="U65" s="30"/>
@@ -9456,7 +9423,7 @@
       <c r="AM65" s="30"/>
       <c r="AN65" s="30"/>
       <c r="AO65" s="30"/>
-      <c r="AP65" s="52"/>
+      <c r="AP65" s="50"/>
       <c r="AQ65" s="18"/>
       <c r="AR65" s="18"/>
       <c r="AS65" s="18"/>
@@ -9498,11 +9465,11 @@
       <c r="DC65" s="18"/>
     </row>
     <row r="66" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="151"/>
-      <c r="C66" s="148"/>
-      <c r="D66" s="148"/>
-      <c r="E66" s="148"/>
-      <c r="F66" s="149"/>
+      <c r="B66" s="148"/>
+      <c r="C66" s="145"/>
+      <c r="D66" s="145"/>
+      <c r="E66" s="145"/>
+      <c r="F66" s="146"/>
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
@@ -9510,11 +9477,11 @@
       <c r="K66" s="30"/>
       <c r="L66" s="30"/>
       <c r="M66" s="30"/>
-      <c r="N66" s="200"/>
-      <c r="O66" s="198"/>
-      <c r="P66" s="198"/>
-      <c r="Q66" s="198"/>
-      <c r="R66" s="199"/>
+      <c r="N66" s="188"/>
+      <c r="O66" s="218"/>
+      <c r="P66" s="218"/>
+      <c r="Q66" s="218"/>
+      <c r="R66" s="190"/>
       <c r="S66" s="30"/>
       <c r="T66" s="30"/>
       <c r="U66" s="30"/>
@@ -9537,7 +9504,7 @@
       <c r="AM66" s="30"/>
       <c r="AN66" s="30"/>
       <c r="AO66" s="30"/>
-      <c r="AP66" s="52"/>
+      <c r="AP66" s="50"/>
       <c r="AQ66" s="18"/>
       <c r="AR66" s="18"/>
       <c r="AS66" s="18"/>
@@ -9579,11 +9546,11 @@
       <c r="DC66" s="18"/>
     </row>
     <row r="67" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="151"/>
-      <c r="C67" s="148"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="148"/>
-      <c r="F67" s="149"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="145"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="146"/>
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
@@ -9591,11 +9558,11 @@
       <c r="K67" s="30"/>
       <c r="L67" s="30"/>
       <c r="M67" s="30"/>
-      <c r="N67" s="200"/>
-      <c r="O67" s="198"/>
-      <c r="P67" s="198"/>
-      <c r="Q67" s="198"/>
-      <c r="R67" s="199"/>
+      <c r="N67" s="188"/>
+      <c r="O67" s="218"/>
+      <c r="P67" s="218"/>
+      <c r="Q67" s="218"/>
+      <c r="R67" s="190"/>
       <c r="S67" s="30"/>
       <c r="T67" s="30"/>
       <c r="U67" s="30"/>
@@ -9618,7 +9585,7 @@
       <c r="AM67" s="30"/>
       <c r="AN67" s="30"/>
       <c r="AO67" s="30"/>
-      <c r="AP67" s="52"/>
+      <c r="AP67" s="50"/>
       <c r="AQ67" s="18"/>
       <c r="AR67" s="18"/>
       <c r="AS67" s="18"/>
@@ -9660,11 +9627,11 @@
       <c r="DC67" s="18"/>
     </row>
     <row r="68" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="151"/>
-      <c r="C68" s="148"/>
-      <c r="D68" s="148"/>
-      <c r="E68" s="148"/>
-      <c r="F68" s="149"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="145"/>
+      <c r="E68" s="145"/>
+      <c r="F68" s="146"/>
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
@@ -9672,11 +9639,11 @@
       <c r="K68" s="30"/>
       <c r="L68" s="30"/>
       <c r="M68" s="30"/>
-      <c r="N68" s="200"/>
-      <c r="O68" s="198"/>
-      <c r="P68" s="198"/>
-      <c r="Q68" s="198"/>
-      <c r="R68" s="199"/>
+      <c r="N68" s="188"/>
+      <c r="O68" s="218"/>
+      <c r="P68" s="218"/>
+      <c r="Q68" s="218"/>
+      <c r="R68" s="190"/>
       <c r="S68" s="30"/>
       <c r="T68" s="30"/>
       <c r="U68" s="30"/>
@@ -9699,7 +9666,7 @@
       <c r="AM68" s="30"/>
       <c r="AN68" s="30"/>
       <c r="AO68" s="30"/>
-      <c r="AP68" s="52"/>
+      <c r="AP68" s="50"/>
       <c r="AQ68" s="18"/>
       <c r="AR68" s="18"/>
       <c r="AS68" s="18"/>
@@ -9741,11 +9708,11 @@
       <c r="DC68" s="18"/>
     </row>
     <row r="69" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="151"/>
-      <c r="C69" s="148"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="148"/>
-      <c r="F69" s="149"/>
+      <c r="B69" s="148"/>
+      <c r="C69" s="145"/>
+      <c r="D69" s="145"/>
+      <c r="E69" s="145"/>
+      <c r="F69" s="146"/>
       <c r="G69" s="28"/>
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
@@ -9753,11 +9720,11 @@
       <c r="K69" s="30"/>
       <c r="L69" s="30"/>
       <c r="M69" s="30"/>
-      <c r="N69" s="200"/>
-      <c r="O69" s="198"/>
-      <c r="P69" s="198"/>
-      <c r="Q69" s="198"/>
-      <c r="R69" s="199"/>
+      <c r="N69" s="188"/>
+      <c r="O69" s="218"/>
+      <c r="P69" s="218"/>
+      <c r="Q69" s="218"/>
+      <c r="R69" s="190"/>
       <c r="S69" s="30"/>
       <c r="T69" s="30"/>
       <c r="U69" s="30"/>
@@ -9780,7 +9747,7 @@
       <c r="AM69" s="30"/>
       <c r="AN69" s="30"/>
       <c r="AO69" s="30"/>
-      <c r="AP69" s="52"/>
+      <c r="AP69" s="50"/>
       <c r="AQ69" s="18"/>
       <c r="AR69" s="18"/>
       <c r="AS69" s="18"/>
@@ -9822,11 +9789,11 @@
       <c r="DC69" s="18"/>
     </row>
     <row r="70" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="151"/>
-      <c r="C70" s="148"/>
-      <c r="D70" s="148"/>
-      <c r="E70" s="148"/>
-      <c r="F70" s="149"/>
+      <c r="B70" s="148"/>
+      <c r="C70" s="145"/>
+      <c r="D70" s="145"/>
+      <c r="E70" s="145"/>
+      <c r="F70" s="146"/>
       <c r="G70" s="28"/>
       <c r="H70" s="28"/>
       <c r="I70" s="28"/>
@@ -9834,11 +9801,11 @@
       <c r="K70" s="30"/>
       <c r="L70" s="30"/>
       <c r="M70" s="30"/>
-      <c r="N70" s="200"/>
-      <c r="O70" s="198"/>
-      <c r="P70" s="198"/>
-      <c r="Q70" s="198"/>
-      <c r="R70" s="199"/>
+      <c r="N70" s="188"/>
+      <c r="O70" s="218"/>
+      <c r="P70" s="218"/>
+      <c r="Q70" s="218"/>
+      <c r="R70" s="190"/>
       <c r="S70" s="30"/>
       <c r="T70" s="30"/>
       <c r="U70" s="30"/>
@@ -9861,7 +9828,7 @@
       <c r="AM70" s="30"/>
       <c r="AN70" s="30"/>
       <c r="AO70" s="30"/>
-      <c r="AP70" s="52"/>
+      <c r="AP70" s="50"/>
       <c r="AQ70" s="18"/>
       <c r="AR70" s="18"/>
       <c r="AS70" s="18"/>
@@ -9903,11 +9870,11 @@
       <c r="DC70" s="18"/>
     </row>
     <row r="71" spans="2:107" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="151"/>
-      <c r="C71" s="148"/>
-      <c r="D71" s="148"/>
-      <c r="E71" s="148"/>
-      <c r="F71" s="149"/>
+      <c r="B71" s="148"/>
+      <c r="C71" s="145"/>
+      <c r="D71" s="145"/>
+      <c r="E71" s="145"/>
+      <c r="F71" s="146"/>
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
@@ -9915,11 +9882,11 @@
       <c r="K71" s="30"/>
       <c r="L71" s="30"/>
       <c r="M71" s="30"/>
-      <c r="N71" s="189"/>
-      <c r="O71" s="190"/>
-      <c r="P71" s="190"/>
-      <c r="Q71" s="190"/>
-      <c r="R71" s="191"/>
+      <c r="N71" s="191"/>
+      <c r="O71" s="192"/>
+      <c r="P71" s="192"/>
+      <c r="Q71" s="192"/>
+      <c r="R71" s="193"/>
       <c r="S71" s="30"/>
       <c r="T71" s="30"/>
       <c r="U71" s="30"/>
@@ -9942,7 +9909,7 @@
       <c r="AM71" s="30"/>
       <c r="AN71" s="30"/>
       <c r="AO71" s="30"/>
-      <c r="AP71" s="52"/>
+      <c r="AP71" s="50"/>
       <c r="AQ71" s="18"/>
       <c r="AR71" s="18"/>
       <c r="AS71" s="18"/>
@@ -9984,11 +9951,11 @@
       <c r="DC71" s="18"/>
     </row>
     <row r="72" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="151"/>
-      <c r="C72" s="148"/>
-      <c r="D72" s="148"/>
-      <c r="E72" s="148"/>
-      <c r="F72" s="149"/>
+      <c r="B72" s="148"/>
+      <c r="C72" s="145"/>
+      <c r="D72" s="145"/>
+      <c r="E72" s="145"/>
+      <c r="F72" s="146"/>
       <c r="G72" s="28"/>
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
@@ -10023,7 +9990,7 @@
       <c r="AM72" s="30"/>
       <c r="AN72" s="30"/>
       <c r="AO72" s="30"/>
-      <c r="AP72" s="52"/>
+      <c r="AP72" s="50"/>
       <c r="AQ72" s="18"/>
       <c r="AR72" s="18"/>
       <c r="AS72" s="18"/>
@@ -10065,11 +10032,11 @@
       <c r="DC72" s="18"/>
     </row>
     <row r="73" spans="2:107" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="151"/>
-      <c r="C73" s="148"/>
-      <c r="D73" s="148"/>
-      <c r="E73" s="148"/>
-      <c r="F73" s="149"/>
+      <c r="B73" s="148"/>
+      <c r="C73" s="145"/>
+      <c r="D73" s="145"/>
+      <c r="E73" s="145"/>
+      <c r="F73" s="146"/>
       <c r="G73" s="28"/>
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
@@ -10104,7 +10071,7 @@
       <c r="AM73" s="30"/>
       <c r="AN73" s="30"/>
       <c r="AO73" s="30"/>
-      <c r="AP73" s="52"/>
+      <c r="AP73" s="50"/>
       <c r="AQ73" s="18"/>
       <c r="AR73" s="18"/>
       <c r="AS73" s="18"/>
@@ -10185,7 +10152,7 @@
       <c r="AM74" s="30"/>
       <c r="AN74" s="30"/>
       <c r="AO74" s="30"/>
-      <c r="AP74" s="52"/>
+      <c r="AP74" s="50"/>
       <c r="AQ74" s="18"/>
       <c r="AR74" s="18"/>
       <c r="AS74" s="18"/>
@@ -10266,7 +10233,7 @@
       <c r="AM75" s="30"/>
       <c r="AN75" s="30"/>
       <c r="AO75" s="30"/>
-      <c r="AP75" s="52"/>
+      <c r="AP75" s="50"/>
       <c r="AQ75" s="18"/>
       <c r="AR75" s="18"/>
       <c r="AS75" s="18"/>
@@ -10347,7 +10314,7 @@
       <c r="AM76" s="30"/>
       <c r="AN76" s="30"/>
       <c r="AO76" s="30"/>
-      <c r="AP76" s="52"/>
+      <c r="AP76" s="50"/>
       <c r="AQ76" s="18"/>
       <c r="AR76" s="18"/>
       <c r="AS76" s="18"/>
@@ -10428,7 +10395,7 @@
       <c r="AM77" s="30"/>
       <c r="AN77" s="30"/>
       <c r="AO77" s="30"/>
-      <c r="AP77" s="52"/>
+      <c r="AP77" s="50"/>
       <c r="AQ77" s="18"/>
       <c r="AR77" s="18"/>
       <c r="AS77" s="18"/>
@@ -10509,7 +10476,7 @@
       <c r="AM78" s="30"/>
       <c r="AN78" s="30"/>
       <c r="AO78" s="30"/>
-      <c r="AP78" s="52"/>
+      <c r="AP78" s="50"/>
       <c r="AQ78" s="18"/>
       <c r="AR78" s="18"/>
       <c r="AS78" s="18"/>
@@ -10590,7 +10557,7 @@
       <c r="AM79" s="30"/>
       <c r="AN79" s="30"/>
       <c r="AO79" s="30"/>
-      <c r="AP79" s="52"/>
+      <c r="AP79" s="50"/>
       <c r="AS79" s="18"/>
       <c r="AT79" s="18"/>
       <c r="AU79" s="18"/>
@@ -10669,7 +10636,7 @@
       <c r="AM80" s="30"/>
       <c r="AN80" s="30"/>
       <c r="AO80" s="30"/>
-      <c r="AP80" s="52"/>
+      <c r="AP80" s="50"/>
       <c r="AS80" s="18"/>
       <c r="AT80" s="18"/>
       <c r="AU80" s="18"/>
@@ -10748,7 +10715,7 @@
       <c r="AM81" s="30"/>
       <c r="AN81" s="30"/>
       <c r="AO81" s="30"/>
-      <c r="AP81" s="52"/>
+      <c r="AP81" s="50"/>
       <c r="AS81" s="18"/>
       <c r="AT81" s="18"/>
       <c r="AU81" s="18"/>
@@ -10827,7 +10794,7 @@
       <c r="AM82" s="30"/>
       <c r="AN82" s="30"/>
       <c r="AO82" s="30"/>
-      <c r="AP82" s="52"/>
+      <c r="AP82" s="50"/>
       <c r="AS82" s="18"/>
       <c r="AT82" s="18"/>
       <c r="AU82" s="18"/>
@@ -10906,7 +10873,7 @@
       <c r="AM83" s="30"/>
       <c r="AN83" s="30"/>
       <c r="AO83" s="30"/>
-      <c r="AP83" s="52"/>
+      <c r="AP83" s="50"/>
       <c r="AS83" s="18"/>
       <c r="AT83" s="18"/>
       <c r="AU83" s="18"/>
@@ -10985,7 +10952,7 @@
       <c r="AM84" s="30"/>
       <c r="AN84" s="30"/>
       <c r="AO84" s="30"/>
-      <c r="AP84" s="52"/>
+      <c r="AP84" s="50"/>
       <c r="AS84" s="18"/>
       <c r="AT84" s="18"/>
       <c r="AU84" s="18"/>
@@ -11064,7 +11031,7 @@
       <c r="AM85" s="30"/>
       <c r="AN85" s="30"/>
       <c r="AO85" s="30"/>
-      <c r="AP85" s="52"/>
+      <c r="AP85" s="50"/>
       <c r="AS85" s="18"/>
       <c r="AT85" s="18"/>
       <c r="AU85" s="18"/>
@@ -11143,7 +11110,7 @@
       <c r="AM86" s="30"/>
       <c r="AN86" s="30"/>
       <c r="AO86" s="30"/>
-      <c r="AP86" s="52"/>
+      <c r="AP86" s="50"/>
       <c r="AS86" s="18"/>
       <c r="AT86" s="18"/>
       <c r="AU86" s="18"/>
@@ -11222,7 +11189,7 @@
       <c r="AM87" s="30"/>
       <c r="AN87" s="30"/>
       <c r="AO87" s="30"/>
-      <c r="AP87" s="52"/>
+      <c r="AP87" s="50"/>
       <c r="AQ87" s="18"/>
       <c r="AR87" s="18"/>
       <c r="AS87" s="18"/>
@@ -11303,7 +11270,7 @@
       <c r="AM88" s="30"/>
       <c r="AN88" s="30"/>
       <c r="AO88" s="30"/>
-      <c r="AP88" s="52"/>
+      <c r="AP88" s="50"/>
       <c r="AQ88" s="18"/>
       <c r="AR88" s="18"/>
       <c r="AS88" s="18"/>
@@ -11384,7 +11351,7 @@
       <c r="AM89" s="30"/>
       <c r="AN89" s="30"/>
       <c r="AO89" s="30"/>
-      <c r="AP89" s="52"/>
+      <c r="AP89" s="50"/>
       <c r="AQ89" s="18"/>
       <c r="AR89" s="18"/>
       <c r="AS89" s="18"/>
@@ -11465,7 +11432,7 @@
       <c r="AM90" s="30"/>
       <c r="AN90" s="30"/>
       <c r="AO90" s="30"/>
-      <c r="AP90" s="52"/>
+      <c r="AP90" s="50"/>
       <c r="AQ90" s="18"/>
       <c r="AR90" s="18"/>
       <c r="AS90" s="18"/>
@@ -11546,7 +11513,7 @@
       <c r="AM91" s="30"/>
       <c r="AN91" s="30"/>
       <c r="AO91" s="30"/>
-      <c r="AP91" s="52"/>
+      <c r="AP91" s="50"/>
       <c r="AQ91" s="18"/>
       <c r="AR91" s="18"/>
       <c r="AS91" s="18"/>
@@ -11627,7 +11594,7 @@
       <c r="AM92" s="30"/>
       <c r="AN92" s="30"/>
       <c r="AO92" s="30"/>
-      <c r="AP92" s="52"/>
+      <c r="AP92" s="50"/>
       <c r="AQ92" s="18"/>
       <c r="AR92" s="18"/>
       <c r="AS92" s="18"/>
@@ -11708,7 +11675,7 @@
       <c r="AM93" s="30"/>
       <c r="AN93" s="30"/>
       <c r="AO93" s="30"/>
-      <c r="AP93" s="52"/>
+      <c r="AP93" s="50"/>
       <c r="AQ93" s="18"/>
       <c r="AR93" s="18"/>
       <c r="AS93" s="18"/>
@@ -11789,7 +11756,7 @@
       <c r="AM94" s="30"/>
       <c r="AN94" s="30"/>
       <c r="AO94" s="30"/>
-      <c r="AP94" s="52"/>
+      <c r="AP94" s="50"/>
       <c r="AQ94" s="18"/>
       <c r="AR94" s="18"/>
       <c r="AS94" s="18"/>
@@ -11870,7 +11837,7 @@
       <c r="AM95" s="30"/>
       <c r="AN95" s="30"/>
       <c r="AO95" s="30"/>
-      <c r="AP95" s="52"/>
+      <c r="AP95" s="50"/>
       <c r="AQ95" s="18"/>
       <c r="AR95" s="18"/>
       <c r="AS95" s="18"/>
@@ -11951,7 +11918,7 @@
       <c r="AM96" s="30"/>
       <c r="AN96" s="30"/>
       <c r="AO96" s="30"/>
-      <c r="AP96" s="52"/>
+      <c r="AP96" s="50"/>
       <c r="AQ96" s="18"/>
       <c r="AR96" s="18"/>
       <c r="AS96" s="18"/>
@@ -12032,7 +11999,7 @@
       <c r="AM97" s="30"/>
       <c r="AN97" s="30"/>
       <c r="AO97" s="30"/>
-      <c r="AP97" s="52"/>
+      <c r="AP97" s="50"/>
       <c r="AQ97" s="18"/>
       <c r="AR97" s="18"/>
       <c r="AS97" s="18"/>
@@ -12113,7 +12080,7 @@
       <c r="AM98" s="30"/>
       <c r="AN98" s="30"/>
       <c r="AO98" s="30"/>
-      <c r="AP98" s="52"/>
+      <c r="AP98" s="50"/>
       <c r="AQ98" s="18"/>
       <c r="AR98" s="18"/>
       <c r="AS98" s="18"/>
@@ -12194,7 +12161,7 @@
       <c r="AM99" s="30"/>
       <c r="AN99" s="30"/>
       <c r="AO99" s="30"/>
-      <c r="AP99" s="52"/>
+      <c r="AP99" s="50"/>
       <c r="AQ99" s="18"/>
       <c r="AR99" s="18"/>
       <c r="AS99" s="18"/>
@@ -12275,7 +12242,7 @@
       <c r="AM100" s="30"/>
       <c r="AN100" s="30"/>
       <c r="AO100" s="30"/>
-      <c r="AP100" s="52"/>
+      <c r="AP100" s="50"/>
       <c r="AQ100" s="18"/>
       <c r="AR100" s="18"/>
       <c r="AS100" s="18"/>
@@ -12356,7 +12323,7 @@
       <c r="AM101" s="30"/>
       <c r="AN101" s="30"/>
       <c r="AO101" s="30"/>
-      <c r="AP101" s="52"/>
+      <c r="AP101" s="50"/>
       <c r="AQ101" s="18"/>
       <c r="AR101" s="18"/>
       <c r="AS101" s="18"/>
@@ -12437,7 +12404,7 @@
       <c r="AM102" s="30"/>
       <c r="AN102" s="30"/>
       <c r="AO102" s="30"/>
-      <c r="AP102" s="52"/>
+      <c r="AP102" s="50"/>
       <c r="AQ102" s="18"/>
       <c r="AR102" s="18"/>
       <c r="AS102" s="18"/>
@@ -12518,7 +12485,7 @@
       <c r="AM103" s="30"/>
       <c r="AN103" s="30"/>
       <c r="AO103" s="30"/>
-      <c r="AP103" s="52"/>
+      <c r="AP103" s="50"/>
       <c r="AQ103" s="18"/>
       <c r="AR103" s="18"/>
       <c r="AS103" s="18"/>
@@ -12599,7 +12566,7 @@
       <c r="AM104" s="30"/>
       <c r="AN104" s="30"/>
       <c r="AO104" s="30"/>
-      <c r="AP104" s="52"/>
+      <c r="AP104" s="50"/>
       <c r="AQ104" s="18"/>
       <c r="AR104" s="18"/>
       <c r="AS104" s="18"/>
@@ -12680,7 +12647,7 @@
       <c r="AM105" s="30"/>
       <c r="AN105" s="30"/>
       <c r="AO105" s="30"/>
-      <c r="AP105" s="52"/>
+      <c r="AP105" s="50"/>
       <c r="AQ105" s="18"/>
       <c r="AR105" s="18"/>
       <c r="AS105" s="18"/>
@@ -12761,7 +12728,7 @@
       <c r="AM106" s="30"/>
       <c r="AN106" s="30"/>
       <c r="AO106" s="30"/>
-      <c r="AP106" s="52"/>
+      <c r="AP106" s="50"/>
       <c r="AQ106" s="18"/>
       <c r="AR106" s="18"/>
       <c r="AS106" s="18"/>
@@ -12842,7 +12809,7 @@
       <c r="AM107" s="30"/>
       <c r="AN107" s="30"/>
       <c r="AO107" s="30"/>
-      <c r="AP107" s="52"/>
+      <c r="AP107" s="50"/>
       <c r="AQ107" s="18"/>
       <c r="AR107" s="18"/>
       <c r="AS107" s="18"/>
@@ -12923,7 +12890,7 @@
       <c r="AM108" s="30"/>
       <c r="AN108" s="30"/>
       <c r="AO108" s="30"/>
-      <c r="AP108" s="52"/>
+      <c r="AP108" s="50"/>
       <c r="AQ108" s="18"/>
       <c r="AR108" s="18"/>
       <c r="AS108" s="18"/>
@@ -13004,7 +12971,7 @@
       <c r="AM109" s="30"/>
       <c r="AN109" s="30"/>
       <c r="AO109" s="30"/>
-      <c r="AP109" s="52"/>
+      <c r="AP109" s="50"/>
       <c r="AQ109" s="18"/>
       <c r="AR109" s="18"/>
       <c r="AS109" s="18"/>
@@ -13085,7 +13052,7 @@
       <c r="AM110" s="30"/>
       <c r="AN110" s="30"/>
       <c r="AO110" s="30"/>
-      <c r="AP110" s="52"/>
+      <c r="AP110" s="50"/>
       <c r="AQ110" s="18"/>
       <c r="AR110" s="18"/>
       <c r="AS110" s="18"/>
@@ -13166,7 +13133,7 @@
       <c r="AM111" s="30"/>
       <c r="AN111" s="30"/>
       <c r="AO111" s="30"/>
-      <c r="AP111" s="52"/>
+      <c r="AP111" s="50"/>
       <c r="AQ111" s="18"/>
       <c r="AR111" s="18"/>
       <c r="AS111" s="18"/>
@@ -13247,7 +13214,7 @@
       <c r="AM112" s="30"/>
       <c r="AN112" s="30"/>
       <c r="AO112" s="30"/>
-      <c r="AP112" s="52"/>
+      <c r="AP112" s="50"/>
       <c r="AQ112" s="18"/>
       <c r="AR112" s="18"/>
       <c r="AS112" s="18"/>
@@ -13328,7 +13295,7 @@
       <c r="AM113" s="30"/>
       <c r="AN113" s="30"/>
       <c r="AO113" s="30"/>
-      <c r="AP113" s="52"/>
+      <c r="AP113" s="50"/>
       <c r="AQ113" s="18"/>
       <c r="AR113" s="18"/>
       <c r="AS113" s="18"/>
@@ -13409,7 +13376,7 @@
       <c r="AM114" s="30"/>
       <c r="AN114" s="30"/>
       <c r="AO114" s="30"/>
-      <c r="AP114" s="52"/>
+      <c r="AP114" s="50"/>
       <c r="AQ114" s="18"/>
       <c r="AR114" s="18"/>
       <c r="AS114" s="18"/>
@@ -13490,7 +13457,7 @@
       <c r="AM115" s="30"/>
       <c r="AN115" s="30"/>
       <c r="AO115" s="30"/>
-      <c r="AP115" s="52"/>
+      <c r="AP115" s="50"/>
       <c r="AQ115" s="18"/>
       <c r="AR115" s="18"/>
       <c r="AS115" s="18"/>
@@ -13571,7 +13538,7 @@
       <c r="AM116" s="30"/>
       <c r="AN116" s="30"/>
       <c r="AO116" s="30"/>
-      <c r="AP116" s="52"/>
+      <c r="AP116" s="50"/>
       <c r="AQ116" s="18"/>
       <c r="AR116" s="18"/>
       <c r="AS116" s="18"/>
@@ -13652,7 +13619,7 @@
       <c r="AM117" s="30"/>
       <c r="AN117" s="30"/>
       <c r="AO117" s="30"/>
-      <c r="AP117" s="52"/>
+      <c r="AP117" s="50"/>
       <c r="AQ117" s="18"/>
       <c r="AR117" s="18"/>
       <c r="AS117" s="18"/>
@@ -13733,7 +13700,7 @@
       <c r="AM118" s="30"/>
       <c r="AN118" s="30"/>
       <c r="AO118" s="30"/>
-      <c r="AP118" s="52"/>
+      <c r="AP118" s="50"/>
       <c r="AQ118" s="18"/>
       <c r="AR118" s="18"/>
       <c r="AS118" s="18"/>
@@ -13814,7 +13781,7 @@
       <c r="AM119" s="30"/>
       <c r="AN119" s="30"/>
       <c r="AO119" s="30"/>
-      <c r="AP119" s="52"/>
+      <c r="AP119" s="50"/>
       <c r="AQ119" s="18"/>
       <c r="AR119" s="18"/>
       <c r="AS119" s="18"/>
@@ -13895,7 +13862,7 @@
       <c r="AM120" s="30"/>
       <c r="AN120" s="30"/>
       <c r="AO120" s="30"/>
-      <c r="AP120" s="52"/>
+      <c r="AP120" s="50"/>
       <c r="AQ120" s="18"/>
       <c r="AR120" s="18"/>
       <c r="AS120" s="18"/>
@@ -13976,7 +13943,7 @@
       <c r="AM121" s="30"/>
       <c r="AN121" s="30"/>
       <c r="AO121" s="30"/>
-      <c r="AP121" s="52"/>
+      <c r="AP121" s="50"/>
       <c r="AQ121" s="18"/>
       <c r="AR121" s="18"/>
       <c r="AS121" s="18"/>
@@ -14057,7 +14024,7 @@
       <c r="AM122" s="30"/>
       <c r="AN122" s="30"/>
       <c r="AO122" s="30"/>
-      <c r="AP122" s="52"/>
+      <c r="AP122" s="50"/>
       <c r="AQ122" s="18"/>
       <c r="AR122" s="18"/>
       <c r="AS122" s="18"/>
@@ -14138,7 +14105,7 @@
       <c r="AM123" s="30"/>
       <c r="AN123" s="30"/>
       <c r="AO123" s="30"/>
-      <c r="AP123" s="52"/>
+      <c r="AP123" s="50"/>
       <c r="AQ123" s="18"/>
       <c r="AR123" s="18"/>
       <c r="AS123" s="18"/>
@@ -14219,7 +14186,7 @@
       <c r="AM124" s="30"/>
       <c r="AN124" s="30"/>
       <c r="AO124" s="30"/>
-      <c r="AP124" s="52"/>
+      <c r="AP124" s="50"/>
       <c r="AQ124" s="18"/>
       <c r="AR124" s="18"/>
       <c r="AS124" s="18"/>
@@ -14300,7 +14267,7 @@
       <c r="AM125" s="30"/>
       <c r="AN125" s="30"/>
       <c r="AO125" s="30"/>
-      <c r="AP125" s="52"/>
+      <c r="AP125" s="50"/>
       <c r="AQ125" s="18"/>
       <c r="AR125" s="18"/>
       <c r="AS125" s="18"/>
@@ -14381,7 +14348,7 @@
       <c r="AM126" s="30"/>
       <c r="AN126" s="30"/>
       <c r="AO126" s="30"/>
-      <c r="AP126" s="52"/>
+      <c r="AP126" s="50"/>
       <c r="AQ126" s="18"/>
       <c r="AR126" s="18"/>
       <c r="AS126" s="18"/>
@@ -14462,7 +14429,7 @@
       <c r="AM127" s="30"/>
       <c r="AN127" s="30"/>
       <c r="AO127" s="30"/>
-      <c r="AP127" s="52"/>
+      <c r="AP127" s="50"/>
       <c r="AQ127" s="18"/>
       <c r="AR127" s="18"/>
       <c r="AS127" s="18"/>
@@ -14543,7 +14510,7 @@
       <c r="AM128" s="30"/>
       <c r="AN128" s="30"/>
       <c r="AO128" s="30"/>
-      <c r="AP128" s="52"/>
+      <c r="AP128" s="50"/>
       <c r="AQ128" s="18"/>
       <c r="AR128" s="18"/>
       <c r="AS128" s="18"/>
@@ -14624,7 +14591,7 @@
       <c r="AM129" s="30"/>
       <c r="AN129" s="30"/>
       <c r="AO129" s="30"/>
-      <c r="AP129" s="52"/>
+      <c r="AP129" s="50"/>
       <c r="AQ129" s="18"/>
       <c r="AR129" s="18"/>
       <c r="AS129" s="18"/>
@@ -14705,7 +14672,7 @@
       <c r="AM130" s="30"/>
       <c r="AN130" s="30"/>
       <c r="AO130" s="30"/>
-      <c r="AP130" s="52"/>
+      <c r="AP130" s="50"/>
       <c r="AQ130" s="18"/>
       <c r="AR130" s="18"/>
       <c r="AS130" s="18"/>
@@ -14786,7 +14753,7 @@
       <c r="AM131" s="30"/>
       <c r="AN131" s="30"/>
       <c r="AO131" s="30"/>
-      <c r="AP131" s="52"/>
+      <c r="AP131" s="50"/>
       <c r="AQ131" s="18"/>
       <c r="AR131" s="18"/>
       <c r="AS131" s="18"/>
@@ -14867,7 +14834,7 @@
       <c r="AM132" s="30"/>
       <c r="AN132" s="30"/>
       <c r="AO132" s="30"/>
-      <c r="AP132" s="52"/>
+      <c r="AP132" s="50"/>
       <c r="AQ132" s="18"/>
       <c r="AR132" s="18"/>
       <c r="AS132" s="18"/>
@@ -14948,7 +14915,7 @@
       <c r="AM133" s="30"/>
       <c r="AN133" s="30"/>
       <c r="AO133" s="30"/>
-      <c r="AP133" s="52"/>
+      <c r="AP133" s="50"/>
       <c r="AQ133" s="18"/>
       <c r="AR133" s="18"/>
       <c r="AS133" s="18"/>
@@ -15029,7 +14996,7 @@
       <c r="AM134" s="30"/>
       <c r="AN134" s="30"/>
       <c r="AO134" s="30"/>
-      <c r="AP134" s="52"/>
+      <c r="AP134" s="50"/>
       <c r="AQ134" s="18"/>
       <c r="AR134" s="18"/>
       <c r="AS134" s="18"/>
@@ -15110,7 +15077,7 @@
       <c r="AM135" s="30"/>
       <c r="AN135" s="30"/>
       <c r="AO135" s="30"/>
-      <c r="AP135" s="52"/>
+      <c r="AP135" s="50"/>
       <c r="AQ135" s="18"/>
       <c r="AR135" s="18"/>
       <c r="AS135" s="18"/>
@@ -15191,7 +15158,7 @@
       <c r="AM136" s="30"/>
       <c r="AN136" s="30"/>
       <c r="AO136" s="30"/>
-      <c r="AP136" s="52"/>
+      <c r="AP136" s="50"/>
       <c r="AQ136" s="18"/>
       <c r="AR136" s="18"/>
       <c r="AS136" s="18"/>
@@ -15272,7 +15239,7 @@
       <c r="AM137" s="30"/>
       <c r="AN137" s="30"/>
       <c r="AO137" s="30"/>
-      <c r="AP137" s="52"/>
+      <c r="AP137" s="50"/>
       <c r="AQ137" s="18"/>
       <c r="AR137" s="18"/>
       <c r="AS137" s="18"/>
@@ -15353,7 +15320,7 @@
       <c r="AM138" s="30"/>
       <c r="AN138" s="30"/>
       <c r="AO138" s="30"/>
-      <c r="AP138" s="52"/>
+      <c r="AP138" s="50"/>
       <c r="AQ138" s="18"/>
       <c r="AR138" s="18"/>
       <c r="AS138" s="18"/>
@@ -15434,7 +15401,7 @@
       <c r="AM139" s="30"/>
       <c r="AN139" s="30"/>
       <c r="AO139" s="30"/>
-      <c r="AP139" s="52"/>
+      <c r="AP139" s="50"/>
       <c r="AQ139" s="18"/>
       <c r="AR139" s="18"/>
       <c r="AS139" s="18"/>
@@ -15515,7 +15482,7 @@
       <c r="AM140" s="30"/>
       <c r="AN140" s="30"/>
       <c r="AO140" s="30"/>
-      <c r="AP140" s="52"/>
+      <c r="AP140" s="50"/>
       <c r="AQ140" s="18"/>
       <c r="AR140" s="18"/>
       <c r="AS140" s="18"/>
@@ -15596,7 +15563,7 @@
       <c r="AM141" s="30"/>
       <c r="AN141" s="30"/>
       <c r="AO141" s="30"/>
-      <c r="AP141" s="52"/>
+      <c r="AP141" s="50"/>
       <c r="AQ141" s="18"/>
       <c r="AR141" s="18"/>
       <c r="AS141" s="18"/>
@@ -15677,7 +15644,7 @@
       <c r="AM142" s="30"/>
       <c r="AN142" s="30"/>
       <c r="AO142" s="30"/>
-      <c r="AP142" s="52"/>
+      <c r="AP142" s="50"/>
       <c r="AQ142" s="18"/>
       <c r="AR142" s="18"/>
       <c r="AS142" s="18"/>
@@ -15758,7 +15725,7 @@
       <c r="AM143" s="30"/>
       <c r="AN143" s="30"/>
       <c r="AO143" s="30"/>
-      <c r="AP143" s="52"/>
+      <c r="AP143" s="50"/>
       <c r="AQ143" s="18"/>
       <c r="AR143" s="18"/>
       <c r="AS143" s="18"/>
@@ -15839,7 +15806,7 @@
       <c r="AM144" s="30"/>
       <c r="AN144" s="30"/>
       <c r="AO144" s="30"/>
-      <c r="AP144" s="52"/>
+      <c r="AP144" s="50"/>
       <c r="AQ144" s="18"/>
       <c r="AR144" s="18"/>
       <c r="AS144" s="18"/>
@@ -59160,68 +59127,73 @@
       <c r="AR1083" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="153">
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B8:F13"/>
-    <mergeCell ref="B14:F18"/>
-    <mergeCell ref="O42:Q43"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="X35:AB47"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="G40:K41"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="G44:K45"/>
-    <mergeCell ref="G42:K43"/>
-    <mergeCell ref="G38:K39"/>
-    <mergeCell ref="X3:AB4"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AQ27:AR27"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AP16:AP18"/>
-    <mergeCell ref="AY30:AY32"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AQ28:AR28"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="AQ32:AR32"/>
-    <mergeCell ref="L40:N41"/>
-    <mergeCell ref="R56:U56"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="R42:V43"/>
-    <mergeCell ref="BQ17:BT17"/>
-    <mergeCell ref="BH17:BP17"/>
-    <mergeCell ref="AQ22:AR22"/>
-    <mergeCell ref="AZ13:BD15"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="BQ19:BT19"/>
-    <mergeCell ref="AQ21:AR21"/>
-    <mergeCell ref="BH19:BP19"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="BD16:BD17"/>
-    <mergeCell ref="AZ35:BD35"/>
-    <mergeCell ref="AR42:AR43"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AQ35:AR35"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="R44:V45"/>
-    <mergeCell ref="AQ34:AR34"/>
-    <mergeCell ref="BH27:BT27"/>
+  <mergeCells count="152">
+    <mergeCell ref="BH26:BP26"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="BQ25:BT25"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="R38:V39"/>
+    <mergeCell ref="AP46:AR47"/>
+    <mergeCell ref="BH25:BP25"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="R40:V41"/>
+    <mergeCell ref="BH18:BP18"/>
+    <mergeCell ref="BS34:BV34"/>
+    <mergeCell ref="AQ36:AR36"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AQ30:AR30"/>
+    <mergeCell ref="BQ18:BT18"/>
+    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="V8:V35"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="N61:R71"/>
+    <mergeCell ref="BM35:BQ35"/>
+    <mergeCell ref="BH21:BP21"/>
+    <mergeCell ref="AQ26:AR26"/>
+    <mergeCell ref="AA7:AB8"/>
+    <mergeCell ref="G36:V37"/>
+    <mergeCell ref="BT33:BV33"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AP13:AR14"/>
+    <mergeCell ref="G5:V7"/>
+    <mergeCell ref="AZ36:BD36"/>
+    <mergeCell ref="BC16:BC17"/>
+    <mergeCell ref="X34:AB34"/>
+    <mergeCell ref="BG13:BV13"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AQ33:AR33"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="BQ24:BT24"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="BH24:BP24"/>
+    <mergeCell ref="BG31:BV32"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="BQ26:BT26"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="BR34:BR35"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AQ29:AR29"/>
+    <mergeCell ref="BM34:BQ34"/>
+    <mergeCell ref="O44:Q45"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="BQ20:BT20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="BH20:BP20"/>
+    <mergeCell ref="BP33:BS33"/>
+    <mergeCell ref="AQ31:AR31"/>
+    <mergeCell ref="BG33:BO33"/>
+    <mergeCell ref="X32:AB33"/>
+    <mergeCell ref="BQ22:BT22"/>
+    <mergeCell ref="AQ15:AR15"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="BH15:BT16"/>
+    <mergeCell ref="AQ24:AR24"/>
+    <mergeCell ref="BH22:BP22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AQ19:AR19"/>
     <mergeCell ref="T60:AP62"/>
     <mergeCell ref="BA16:BA17"/>
     <mergeCell ref="Y27:Z27"/>
@@ -59246,74 +59218,68 @@
     <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="Y29:Z29"/>
     <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="BR34:BR35"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AQ29:AR29"/>
-    <mergeCell ref="BM34:BQ34"/>
-    <mergeCell ref="O44:Q45"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="BQ20:BT20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="BH20:BP20"/>
-    <mergeCell ref="BP33:BS33"/>
-    <mergeCell ref="AQ31:AR31"/>
-    <mergeCell ref="BG33:BO33"/>
-    <mergeCell ref="X32:AB33"/>
-    <mergeCell ref="BQ22:BT22"/>
-    <mergeCell ref="AQ15:AR15"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="BH15:BT16"/>
-    <mergeCell ref="AQ24:AR24"/>
-    <mergeCell ref="BH22:BP22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AQ19:AR19"/>
-    <mergeCell ref="N61:R71"/>
-    <mergeCell ref="BM35:BQ35"/>
-    <mergeCell ref="BH21:BP21"/>
-    <mergeCell ref="AQ26:AR26"/>
-    <mergeCell ref="AA7:AB8"/>
-    <mergeCell ref="G36:V37"/>
-    <mergeCell ref="BT33:BV33"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AP13:AR14"/>
-    <mergeCell ref="G5:V7"/>
-    <mergeCell ref="AZ36:BD36"/>
-    <mergeCell ref="BC16:BC17"/>
-    <mergeCell ref="X34:AB34"/>
-    <mergeCell ref="BG13:BV13"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AQ33:AR33"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="BQ24:BT24"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="BH24:BP24"/>
-    <mergeCell ref="BG31:BV32"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="BQ26:BT26"/>
+    <mergeCell ref="R56:U56"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="R42:V43"/>
+    <mergeCell ref="BQ17:BT17"/>
+    <mergeCell ref="BH17:BP17"/>
+    <mergeCell ref="AQ22:AR22"/>
+    <mergeCell ref="AZ13:BD15"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="BQ19:BT19"/>
+    <mergeCell ref="AQ21:AR21"/>
+    <mergeCell ref="BH19:BP19"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="BD16:BD17"/>
+    <mergeCell ref="AZ35:BD35"/>
+    <mergeCell ref="AR42:AR43"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AQ35:AR35"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="R44:V45"/>
+    <mergeCell ref="AQ34:AR34"/>
+    <mergeCell ref="BH27:BT27"/>
     <mergeCell ref="BS35:BV35"/>
+    <mergeCell ref="X3:AB4"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AQ27:AR27"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AP16:AP18"/>
+    <mergeCell ref="AY30:AY32"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AQ28:AR28"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="AQ32:AR32"/>
     <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="BH26:BP26"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="BQ25:BT25"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="R38:V39"/>
-    <mergeCell ref="AP46:AR47"/>
-    <mergeCell ref="BH25:BP25"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="R40:V41"/>
-    <mergeCell ref="BH18:BP18"/>
-    <mergeCell ref="BS34:BV34"/>
-    <mergeCell ref="AQ36:AR36"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AQ30:AR30"/>
-    <mergeCell ref="BQ18:BT18"/>
-    <mergeCell ref="AQ20:AR20"/>
-    <mergeCell ref="V8:V35"/>
-    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B8:F13"/>
+    <mergeCell ref="B14:F18"/>
+    <mergeCell ref="O42:Q43"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="X35:AB47"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="G40:K41"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="G44:K45"/>
+    <mergeCell ref="G42:K43"/>
+    <mergeCell ref="G38:K39"/>
+    <mergeCell ref="L40:N41"/>
   </mergeCells>
   <conditionalFormatting sqref="X32">
     <cfRule type="cellIs" dxfId="3" priority="21" stopIfTrue="1" operator="greaterThan">
